--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1347.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1347.xlsx
@@ -9276,10 +9276,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.03726439673000343</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0007402872451780503</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03726439673000343</v>
+        <v>0.06707591411400618</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007402872451780503</v>
+        <v>0.002220861735534151</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.04132909809586049</v>
+        <v>0.07683984000000002</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007530043698373702</v>
+        <v>0.001526485290656064</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.07416434422991916</v>
+        <v>0.13683984</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007211768058176116</v>
+        <v>0.001453795514910537</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1170102989769883</v>
+        <v>0.19683984</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007604903639173158</v>
+        <v>0.001590088844433401</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0536951408015428</v>
+        <v>0.07241008281017386</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001533932603010455</v>
+        <v>0.003186764525153615</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.07683984000000002</v>
+        <v>0.1305093831333794</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001526485290656064</v>
+        <v>0.003210468988836368</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.13683984</v>
+        <v>0.2281039333805236</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001496554206525553</v>
+        <v>0.003208277337306353</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.19683984</v>
+        <v>0.3061419774842364</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001387713900596422</v>
+        <v>0.003212386683925132</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.06707591411400618</v>
+        <v>0.07030055330831533</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002220861735534151</v>
+        <v>0.004780146787730422</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.09620982550491217</v>
+        <v>0.1572186923972334</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002259013109512111</v>
+        <v>0.004579455871968193</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1679348598864399</v>
+        <v>0.2634204472699546</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002163530417452834</v>
+        <v>0.004361386544731611</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2645819950389867</v>
+        <v>0.369622202142676</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002281471091751948</v>
+        <v>0.004770266533300201</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.06928163416344701</v>
+        <v>0.08714185962153173</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003067865206020911</v>
+        <v>0.006373529050307229</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1153134609982218</v>
+        <v>0.1742195815197974</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003012017479349481</v>
+        <v>0.006420937977672737</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2040900217505816</v>
+        <v>0.2949668920524086</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002884707223270446</v>
+        <v>0.006416554674612706</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.3113294485167281</v>
+        <v>0.4035539205546981</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003041961455669263</v>
+        <v>0.006424773367850264</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.03726439673000343</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0737723506811539</v>
+        <v>0.09002910662995181</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003834831507526139</v>
+        <v>0.007966911312884037</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1327866174457471</v>
+        <v>0.1894340861276664</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003765021849186851</v>
+        <v>0.008026172472090922</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2265084106386783</v>
+        <v>0.3233946500996148</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003605884029088058</v>
+        <v>0.008020693343265882</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3474922695235662</v>
+        <v>0.4392218046414925</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003802451819586579</v>
+        <v>0.008030966709812831</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.08105482726496621</v>
+        <v>0.08905739921370442</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004601797809031367</v>
+        <v>0.009560293575460843</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1447263027200391</v>
+        <v>0.2037459663460265</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004518026219024221</v>
+        <v>0.009631406966509106</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2497957306440584</v>
+        <v>0.3483719897930747</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004327060834905669</v>
+        <v>0.009624832011919058</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3696222021426759</v>
+        <v>0.4736736775944195</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004343039057222459</v>
+        <v>0.009637160051775395</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.07313272507823901</v>
+        <v>0.09132184225291842</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005368764110536594</v>
+        <v>0.01115367583803765</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1572186923972334</v>
+        <v>0.2173666807319958</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005205459853476989</v>
+        <v>0.01123664146092729</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2634204472699546</v>
+        <v>0.3672842840829192</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004801513195361492</v>
+        <v>0.01122897068057224</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3975776321637632</v>
+        <v>0.5045143297766483</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005323432547421211</v>
+        <v>0.01124335339373796</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0800097052843273</v>
+        <v>0.1039175406277225</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006135730412041821</v>
+        <v>0.01274705810061446</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1652683542508975</v>
+        <v>0.227707687842693</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006024034958698962</v>
+        <v>0.01284187595534547</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2814477811321437</v>
+        <v>0.385016905919278</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005769414446540892</v>
+        <v>0.01283310934922541</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.4175017753933547</v>
+        <v>0.5335485515513476</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006083922911338527</v>
+        <v>0.01284954673570053</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.09268942904658611</v>
+        <v>0.1089395992182456</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006902696713547049</v>
+        <v>0.01434044036319126</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.175329484860724</v>
+        <v>0.2391804462352363</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006777039328536332</v>
+        <v>0.01444711044976366</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2941600144923</v>
+        <v>0.3988552282522811</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006490591252358504</v>
+        <v>0.01443724801787859</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.4371198312137495</v>
+        <v>0.5564811332816864</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006844413275255842</v>
+        <v>0.01445574007766309</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08917555752837056</v>
+        <v>0.1054831229046164</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007669663015052277</v>
+        <v>0.01593382262576807</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1827074244509876</v>
+        <v>0.2446964144667441</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007530043698373702</v>
+        <v>0.01605234494418184</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.3095464333357753</v>
+        <v>0.4131846240320592</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007211768058176116</v>
+        <v>0.01604138668653176</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.4625123180728457</v>
+        <v>0.5753168653308331</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007604903639173158</v>
+        <v>0.01606193341962566</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.09947175189303559</v>
+        <v>0.1076432165669638</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008436629316557505</v>
+        <v>0.01752720488834488</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1928875903539403</v>
+        <v>0.2548670510943348</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008283048068211072</v>
+        <v>0.01765757943860003</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.3241897693206035</v>
+        <v>0.4266904662087422</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007932944863993728</v>
+        <v>0.01764552535518494</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.4818597544185418</v>
+        <v>0.5913605380619575</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008365394003090476</v>
+        <v>0.01766812676158823</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.09758167330393627</v>
+        <v>0.1155149850854166</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009203595618062733</v>
+        <v>0.01912058715092169</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2005553999018334</v>
+        <v>0.2587038146751268</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009036052438048442</v>
+        <v>0.01926281393301821</v>
       </c>
       <c r="L77" t="n">
-        <v>0.3395727541048192</v>
+        <v>0.4388581277324598</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008654121669811337</v>
+        <v>0.01924966402383812</v>
       </c>
       <c r="N77" t="n">
-        <v>0.498242658698736</v>
+        <v>0.6066169418382275</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009125884367007791</v>
+        <v>0.01927432010355079</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.09450898292442772</v>
+        <v>0.1151935333401035</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009970561919567961</v>
+        <v>0.02071396941349849</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2096962704269186</v>
+        <v>0.2655181637662383</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009789056807885811</v>
+        <v>0.0208680484274364</v>
       </c>
       <c r="L78" t="n">
-        <v>0.3499781193464564</v>
+        <v>0.4461729815533426</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00937529847562895</v>
+        <v>0.02085380269249129</v>
       </c>
       <c r="N78" t="n">
-        <v>0.5211415493613267</v>
+        <v>0.6239908670228127</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009886374730925107</v>
+        <v>0.02088051344551336</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1042573419178649</v>
+        <v>0.1077739662111534</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01073752822107319</v>
+        <v>0.0223073516760753</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2163956192614475</v>
+        <v>0.2707215569247879</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01054206117772318</v>
+        <v>0.02247328292185458</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3629885967035492</v>
+        <v>0.4550204006215208</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01009647528144656</v>
+        <v>0.02245794136114447</v>
       </c>
       <c r="N79" t="n">
-        <v>0.5368369448542123</v>
+        <v>0.6371871039788812</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01064686509484242</v>
+        <v>0.02248670678747592</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1078304114476028</v>
+        <v>0.116343007725506</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01150449452257842</v>
+        <v>0.02390073393865211</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2266388637376715</v>
+        <v>0.2743254527078937</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01129506554756055</v>
+        <v>0.02407851741627276</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3747869178341321</v>
+        <v>0.4635857578871243</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01081765208726417</v>
+        <v>0.02406208002979764</v>
       </c>
       <c r="N80" t="n">
-        <v>0.5507093636252911</v>
+        <v>0.648210443069603</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01140735545875974</v>
+        <v>0.02409290012943849</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1092318526769967</v>
+        <v>0.1168861693475616</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01227146082408364</v>
+        <v>0.02549411620122892</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2337114211878424</v>
+        <v>0.2788416187182801</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01204806991739792</v>
+        <v>0.02568375191069095</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3909558143962391</v>
+        <v>0.4669616387657654</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01153882889308178</v>
+        <v>0.02566621869845082</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5723393241224612</v>
+        <v>0.6588656746581458</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01216784582267705</v>
+        <v>0.02569909347140106</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1134653267694014</v>
+        <v>0.1213821214328316</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01303842712558887</v>
+        <v>0.02708749846380572</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2416987089442119</v>
+        <v>0.2835198225393232</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01280107428723529</v>
+        <v>0.02728898640510913</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3985780180479044</v>
+        <v>0.475400666074991</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0122600056988994</v>
+        <v>0.027270357367104</v>
       </c>
       <c r="N82" t="n">
-        <v>0.5882073447936214</v>
+        <v>0.6616437057174571</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01292833618659437</v>
+        <v>0.02730528681336362</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.105534494888172</v>
+        <v>0.1178211869823919</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0138053934270941</v>
+        <v>0.02868088072638253</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2464861443390313</v>
+        <v>0.2857938644562962</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01355407865707266</v>
+        <v>0.02889422089952732</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4107362604471624</v>
+        <v>0.4805605867047297</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01298118250471701</v>
+        <v>0.02887449603575717</v>
       </c>
       <c r="N83" t="n">
-        <v>0.6028939440866696</v>
+        <v>0.6719805203888045</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01368882655051168</v>
+        <v>0.02891148015532619</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1144430181966636</v>
+        <v>0.1231936889973183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01457235972859933</v>
+        <v>0.03027426298895934</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2555591447045524</v>
+        <v>0.2894405527049047</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01430708302691003</v>
+        <v>0.0304994553939455</v>
       </c>
       <c r="L84" t="n">
-        <v>0.419513273252047</v>
+        <v>0.4877026223015791</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01370235931053462</v>
+        <v>0.03047863470441035</v>
       </c>
       <c r="N84" t="n">
-        <v>0.6172796404495045</v>
+        <v>0.6771234698899149</v>
       </c>
       <c r="O84" t="n">
-        <v>0.014449316914429</v>
+        <v>0.03051767349728876</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1081945578582311</v>
+        <v>0.1234899504786868</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01533932603010455</v>
+        <v>0.03186764525153615</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2594031273730267</v>
+        <v>0.2939366955208544</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0150600873967474</v>
+        <v>0.03210468988836369</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4300917881205926</v>
+        <v>0.4900879945121366</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01442353611635223</v>
+        <v>0.03208277337306353</v>
       </c>
       <c r="N85" t="n">
-        <v>0.631944952330024</v>
+        <v>0.6895179324630185</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01520980727834632</v>
+        <v>0.03212386683925132</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1227927750362298</v>
+        <v>0.1267002944275733</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01610629233160978</v>
+        <v>0.03346102751411295</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2677035096767058</v>
+        <v>0.2973591011398508</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01581309176658477</v>
+        <v>0.03370992438278187</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4424545367108333</v>
+        <v>0.496677924983</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01514471292216984</v>
+        <v>0.03368691204171671</v>
       </c>
       <c r="N86" t="n">
-        <v>0.641270398176127</v>
+        <v>0.6980092863503444</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01597029764226363</v>
+        <v>0.03373006018121388</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1162413308940146</v>
+        <v>0.1208150438450536</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01687325863311501</v>
+        <v>0.03505440977668976</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2705457089478414</v>
+        <v>0.3005845777975996</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01656609613642214</v>
+        <v>0.03531515887720005</v>
       </c>
       <c r="L87" t="n">
-        <v>0.4511842506808038</v>
+        <v>0.5028336353607668</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01586588972798746</v>
+        <v>0.03529105071036989</v>
       </c>
       <c r="N87" t="n">
-        <v>0.6512364964357116</v>
+        <v>0.702042909794123</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01673078800618095</v>
+        <v>0.03533625352317645</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1145438865949404</v>
+        <v>0.1238245217322036</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01764022493462024</v>
+        <v>0.03664779203926657</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2771151425186849</v>
+        <v>0.301389933729806</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01731910050625951</v>
+        <v>0.03692039337161824</v>
       </c>
       <c r="L88" t="n">
-        <v>0.4590636616885376</v>
+        <v>0.5061163472920345</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01658706653380507</v>
+        <v>0.03689518937902305</v>
       </c>
       <c r="N88" t="n">
-        <v>0.6622237655566754</v>
+        <v>0.708764181036583</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01749127837009826</v>
+        <v>0.03694244686513901</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1147041033023625</v>
+        <v>0.1197190510900992</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01840719123612547</v>
+        <v>0.03824117430184337</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2815972277214882</v>
+        <v>0.305651977172176</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01807210487609688</v>
+        <v>0.03852562786603642</v>
       </c>
       <c r="L89" t="n">
-        <v>0.4661755013920693</v>
+        <v>0.5108872824234011</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01730824333962267</v>
+        <v>0.03849932804767623</v>
       </c>
       <c r="N89" t="n">
-        <v>0.6749127239869184</v>
+        <v>0.7156184783199548</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01825176873401558</v>
+        <v>0.03854864020710158</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1267256421796358</v>
+        <v>0.1314889549198164</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01917415753763069</v>
+        <v>0.03983455656442018</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2869773818885025</v>
+        <v>0.3055475163604149</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01882510924593425</v>
+        <v>0.04013086236045461</v>
       </c>
       <c r="L90" t="n">
-        <v>0.472902501449433</v>
+        <v>0.5151076624014636</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01802942014544029</v>
+        <v>0.04010346671632941</v>
       </c>
       <c r="N90" t="n">
-        <v>0.6837838901743372</v>
+        <v>0.7239511798864682</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0190122590979329</v>
+        <v>0.04015483354906415</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1166121643901153</v>
+        <v>0.1301245562224309</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01994112383913592</v>
+        <v>0.04142793882699699</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2907410223519798</v>
+        <v>0.3084533595302285</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01957811361577162</v>
+        <v>0.04173609685487279</v>
       </c>
       <c r="L91" t="n">
-        <v>0.4821273935186632</v>
+        <v>0.5149387088728202</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0187505969512579</v>
+        <v>0.04170760538498258</v>
       </c>
       <c r="N91" t="n">
-        <v>0.6884177825668312</v>
+        <v>0.7237076639783522</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01977274946185021</v>
+        <v>0.04176102689102672</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1253673310971562</v>
+        <v>0.1336161779990187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02070809014064115</v>
+        <v>0.04302132108957379</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2953735664441713</v>
+        <v>0.3098463149173221</v>
       </c>
       <c r="K92" t="n">
-        <v>0.020331117985609</v>
+        <v>0.04334133134929097</v>
       </c>
       <c r="L92" t="n">
-        <v>0.4863329092577936</v>
+        <v>0.5194416434840681</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01947177375707551</v>
+        <v>0.04331174405363576</v>
       </c>
       <c r="N92" t="n">
-        <v>0.7008949196122978</v>
+        <v>0.728533308837837</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02053323982576753</v>
+        <v>0.04336722023298928</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1209948034641135</v>
+        <v>0.1259541432506557</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02147505644214638</v>
+        <v>0.04461470335215061</v>
       </c>
       <c r="J93" t="n">
-        <v>0.298060431497329</v>
+        <v>0.3098031907574015</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02108412235544637</v>
+        <v>0.04494656584370916</v>
       </c>
       <c r="L93" t="n">
-        <v>0.4930017803248588</v>
+        <v>0.523177687881805</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02019295056289312</v>
+        <v>0.04491588272228894</v>
       </c>
       <c r="N93" t="n">
-        <v>0.7069958197586366</v>
+        <v>0.7331734927071518</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02129373018968484</v>
+        <v>0.04497341357495185</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1214982426543421</v>
+        <v>0.1341518282280124</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0222420227436516</v>
+        <v>0.04620808561472741</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3012870348437042</v>
+        <v>0.3111007952861722</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02183712672528373</v>
+        <v>0.04655180033812734</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4981167383778927</v>
+        <v>0.5207080637126286</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02091412736871074</v>
+        <v>0.04652002139094211</v>
       </c>
       <c r="N94" t="n">
-        <v>0.7085010014537452</v>
+        <v>0.733673593828527</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02205422055360216</v>
+        <v>0.04657960691691441</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1258813098311971</v>
+        <v>0.1211415150699854</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02300898904515683</v>
+        <v>0.04780146787730422</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3035387938155486</v>
+        <v>0.3144373847944668</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0225901310951211</v>
+        <v>0.04815703483254553</v>
       </c>
       <c r="L95" t="n">
-        <v>0.5019605150749299</v>
+        <v>0.5268408945399092</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02163530417452835</v>
+        <v>0.04812416005959529</v>
       </c>
       <c r="N95" t="n">
-        <v>0.7171909831455219</v>
+        <v>0.7392444042853519</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02281471091751948</v>
+        <v>0.04818580025887698</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1231476661580335</v>
+        <v>0.1330579889118464</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02377595534666206</v>
+        <v>0.04939485013988103</v>
       </c>
       <c r="J96" t="n">
-        <v>0.3028011257451138</v>
+        <v>0.3113315745783108</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02334313546495848</v>
+        <v>0.04976226932696371</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5088158420740044</v>
+        <v>0.5223195185722143</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02235648098034596</v>
+        <v>0.04972829872824847</v>
       </c>
       <c r="N96" t="n">
-        <v>0.7201462832818653</v>
+        <v>0.7379398484307396</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02357520128143679</v>
+        <v>0.04979199360083954</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1283009727982066</v>
+        <v>0.1268948312830771</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02454292164816729</v>
+        <v>0.05098823240245783</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3060594479646512</v>
+        <v>0.3131824389873232</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02409613983479585</v>
+        <v>0.05136750382138189</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5104654510331503</v>
+        <v>0.5250319437317248</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02307765778616357</v>
+        <v>0.05133243739690165</v>
       </c>
       <c r="N97" t="n">
-        <v>0.7220474203106733</v>
+        <v>0.7343358816037004</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02433569164535411</v>
+        <v>0.05139818694280211</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1273439283020703</v>
+        <v>0.1316571422411798</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02530988794967251</v>
+        <v>0.05258161466503464</v>
       </c>
       <c r="J98" t="n">
-        <v>0.3060991778064129</v>
+        <v>0.3122409301225689</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02484914420463322</v>
+        <v>0.05297273831580009</v>
       </c>
       <c r="L98" t="n">
-        <v>0.513392073610402</v>
+        <v>0.5220248182694808</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02379883459198118</v>
+        <v>0.05293657606555482</v>
       </c>
       <c r="N98" t="n">
-        <v>0.7168749126798448</v>
+        <v>0.7370762335403955</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02509618200927143</v>
+        <v>0.05300438028476467</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.11815167027171</v>
+        <v>0.1303500218436566</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02607685425117774</v>
+        <v>0.05417499692761145</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3072059539385675</v>
+        <v>0.3127192707126448</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02560214857447058</v>
+        <v>0.05457797281021827</v>
       </c>
       <c r="L99" t="n">
-        <v>0.5118784414637935</v>
+        <v>0.522418579496031</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02452001139779879</v>
+        <v>0.05454071473420799</v>
       </c>
       <c r="N99" t="n">
-        <v>0.7214412631599301</v>
+        <v>0.7324896914823742</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02585667237318874</v>
+        <v>0.05461057362672724</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1236696002590807</v>
+        <v>0.1249785701480098</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02684382055268297</v>
+        <v>0.05576837919018826</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3063999585496122</v>
+        <v>0.3117296834861472</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02635515294430795</v>
+        <v>0.05618320730463645</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5127072862513593</v>
+        <v>0.5233336647219244</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0252411882036164</v>
+        <v>0.05614485340286117</v>
       </c>
       <c r="N100" t="n">
-        <v>0.717294456251595</v>
+        <v>0.7319050426711851</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02661716273710606</v>
+        <v>0.0562167669686898</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1189472906085491</v>
+        <v>0.1295478872117415</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0276107868541882</v>
+        <v>0.05736176145276506</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3054445878482971</v>
+        <v>0.3118843911716727</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02710815731414533</v>
+        <v>0.05778844179905464</v>
       </c>
       <c r="L101" t="n">
-        <v>0.514168029253275</v>
+        <v>0.5174905112577096</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02596236500943402</v>
+        <v>0.05774899207151435</v>
       </c>
       <c r="N101" t="n">
-        <v>0.7130940409761164</v>
+        <v>0.7274510743483782</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02737765310102337</v>
+        <v>0.05782296031065237</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1160343136644822</v>
+        <v>0.126063073092354</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02837775315569343</v>
+        <v>0.05895514371534187</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3034008079287291</v>
+        <v>0.310795616497818</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0278611616839827</v>
+        <v>0.05939367629347282</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5106124657516049</v>
+        <v>0.5196095564139355</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02668354181525163</v>
+        <v>0.05935313074016752</v>
       </c>
       <c r="N102" t="n">
-        <v>0.7121493886714561</v>
+        <v>0.730456573755502</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02813814346494069</v>
+        <v>0.05942915365261494</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1259802417712471</v>
+        <v>0.1315292278473493</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02914471945719865</v>
+        <v>0.06054852597791868</v>
       </c>
       <c r="J103" t="n">
-        <v>0.3035295848850151</v>
+        <v>0.3089755821931794</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02861416605382007</v>
+        <v>0.06099891078789101</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5110258781688547</v>
+        <v>0.5170112375011506</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02740471862106924</v>
+        <v>0.0609572694088207</v>
       </c>
       <c r="N103" t="n">
-        <v>0.7093698706755767</v>
+        <v>0.7228503281341057</v>
       </c>
       <c r="O103" t="n">
-        <v>0.028898633828858</v>
+        <v>0.06103534699457751</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1238346472732104</v>
+        <v>0.1269514515342297</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02991168575870388</v>
+        <v>0.06214190824049548</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3012918848112618</v>
+        <v>0.3084365109863538</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02936717042365743</v>
+        <v>0.06260414528230919</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5096938367225826</v>
+        <v>0.5151159918299041</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02812589542688685</v>
+        <v>0.06256140807747387</v>
       </c>
       <c r="N104" t="n">
-        <v>0.7002648583264399</v>
+        <v>0.7219611247257385</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02965912419277532</v>
+        <v>0.06264154033654008</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1166471025147394</v>
+        <v>0.1173348442104973</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03067865206020911</v>
+        <v>0.06373529050307229</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3000486738015762</v>
+        <v>0.3056906256059375</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03012017479349481</v>
+        <v>0.06420937977672737</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5062019116303473</v>
+        <v>0.5104442567107444</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02884707223270446</v>
+        <v>0.06416554674612705</v>
       </c>
       <c r="N105" t="n">
-        <v>0.6979437229620082</v>
+        <v>0.7160177507719498</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03041961455669263</v>
+        <v>0.06424773367850264</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1164671798402008</v>
+        <v>0.1256845059336544</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03144561836171434</v>
+        <v>0.0653286727656491</v>
       </c>
       <c r="J106" t="n">
-        <v>0.296660917950065</v>
+        <v>0.3045501487805272</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03087317916333217</v>
+        <v>0.06581461427114556</v>
       </c>
       <c r="L106" t="n">
-        <v>0.504835673109707</v>
+        <v>0.5118164694542205</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02956824903852207</v>
+        <v>0.06576968541478023</v>
       </c>
       <c r="N106" t="n">
-        <v>0.6878158359202431</v>
+        <v>0.7168489935142883</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03118010492060995</v>
+        <v>0.06585392702046521</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1183444515939617</v>
+        <v>0.129005536761203</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03221258466321957</v>
+        <v>0.0669220550282259</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2943895833508351</v>
+        <v>0.3026273032387194</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03162618353316955</v>
+        <v>0.06741984876556374</v>
       </c>
       <c r="L107" t="n">
-        <v>0.4989806913782201</v>
+        <v>0.5070530673708811</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03028942584433968</v>
+        <v>0.06737382408343341</v>
       </c>
       <c r="N107" t="n">
-        <v>0.6833905685391073</v>
+        <v>0.7123836401943031</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03194059528452727</v>
+        <v>0.06746012036242777</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1143284901203889</v>
+        <v>0.1153030367506455</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03297955096472479</v>
+        <v>0.06851543729080271</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2937956360979934</v>
+        <v>0.2998343117091107</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03237918790300692</v>
+        <v>0.06902508325998193</v>
       </c>
       <c r="L108" t="n">
-        <v>0.4987225366534451</v>
+        <v>0.5037744877712749</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0310106026501573</v>
+        <v>0.06897796275208659</v>
       </c>
       <c r="N108" t="n">
-        <v>0.6773772921565624</v>
+        <v>0.7063504780535437</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03270108564844458</v>
+        <v>0.06906631370439034</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1194688677638494</v>
+        <v>0.122582105959484</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03374651726623002</v>
+        <v>0.07010881955337953</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2892400422856467</v>
+        <v>0.2994833969202977</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03313219227284429</v>
+        <v>0.07063031775440011</v>
       </c>
       <c r="L109" t="n">
-        <v>0.4943467791529402</v>
+        <v>0.5011011679659507</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03173177945597491</v>
+        <v>0.07058210142073977</v>
       </c>
       <c r="N109" t="n">
-        <v>0.6757853781105705</v>
+        <v>0.7049782943335594</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0334615760123619</v>
+        <v>0.0706725070463529</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1078151568687102</v>
+        <v>0.1238478444452206</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03451348356773525</v>
+        <v>0.07170220181595632</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2887837680079017</v>
+        <v>0.2971867816008769</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03388519664268166</v>
+        <v>0.07223555224881829</v>
       </c>
       <c r="L110" t="n">
-        <v>0.4908389890942642</v>
+        <v>0.5011535452654575</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03245295626179252</v>
+        <v>0.07218624008939294</v>
       </c>
       <c r="N110" t="n">
-        <v>0.6704241977390939</v>
+        <v>0.7033958762758985</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03422206637627921</v>
+        <v>0.07227870038831546</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1134169297793382</v>
+        <v>0.1261053522653576</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03528044986924048</v>
+        <v>0.07329558407853314</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2855877793588655</v>
+        <v>0.2945566884794448</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03463820101251903</v>
+        <v>0.07384078674323648</v>
       </c>
       <c r="L111" t="n">
-        <v>0.4885847366949748</v>
+        <v>0.4935520569803438</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03317413306761013</v>
+        <v>0.0737903787580461</v>
       </c>
       <c r="N111" t="n">
-        <v>0.6676031223800947</v>
+        <v>0.6928320111221105</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03498255674019653</v>
+        <v>0.07388489373027803</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1113173294542577</v>
+        <v>0.1203597294773971</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0360474161707457</v>
+        <v>0.07488896634110995</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2847130424326447</v>
+        <v>0.2929053402845981</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0353912053823564</v>
+        <v>0.07544602123765466</v>
       </c>
       <c r="L112" t="n">
-        <v>0.485169592172631</v>
+        <v>0.4939171404211586</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03389530987342775</v>
+        <v>0.07539451742669928</v>
       </c>
       <c r="N112" t="n">
-        <v>0.6636315233715346</v>
+        <v>0.6899154861137449</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03574304710411385</v>
+        <v>0.0754910870722406</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1103700466451392</v>
+        <v>0.1236160761388413</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03681438247225093</v>
+        <v>0.07648234860368675</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2833205233233463</v>
+        <v>0.2926449597449333</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03614420975219377</v>
+        <v>0.07705125573207285</v>
       </c>
       <c r="L113" t="n">
-        <v>0.478479125744791</v>
+        <v>0.4922692328984504</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03461648667924535</v>
+        <v>0.07699865609535246</v>
       </c>
       <c r="N113" t="n">
-        <v>0.6642187720513764</v>
+        <v>0.6853750884923504</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03650353746803117</v>
+        <v>0.07709728041420316</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1194926229784548</v>
+        <v>0.1198794923071924</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03758134877375616</v>
+        <v>0.07807573086626356</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2815711881250771</v>
+        <v>0.291387769589047</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03689721412203114</v>
+        <v>0.07865649022649103</v>
       </c>
       <c r="L114" t="n">
-        <v>0.4795989076290132</v>
+        <v>0.4880287717227683</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03533766348506297</v>
+        <v>0.07860279476400564</v>
       </c>
       <c r="N114" t="n">
-        <v>0.661837644037611</v>
+        <v>0.6808396054994761</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03726402783194847</v>
+        <v>0.07870347375616574</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1166805146789723</v>
+        <v>0.1161192191228156</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03834831507526139</v>
+        <v>0.07966911312884037</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2830260029319439</v>
+        <v>0.2892459925455357</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0376502184918685</v>
+        <v>0.08026172472090921</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4759145080428558</v>
+        <v>0.4865161942046606</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03605884029088058</v>
+        <v>0.08020693343265882</v>
       </c>
       <c r="N115" t="n">
-        <v>0.6586741528690503</v>
+        <v>0.6824378243766716</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0380245181958658</v>
+        <v>0.0803096670981283</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1189291779714592</v>
+        <v>0.1212547124982523</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03911528137676661</v>
+        <v>0.08126249539141717</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2828428093644683</v>
+        <v>0.2856690385236032</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03840322286170588</v>
+        <v>0.0818669592153274</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4736114972038774</v>
+        <v>0.4829107723364454</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03678001709669819</v>
+        <v>0.081811072101312</v>
       </c>
       <c r="N116" t="n">
-        <v>0.6631402487779272</v>
+        <v>0.6762890020882739</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03878500855978311</v>
+        <v>0.08191586044009087</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1122340690806832</v>
+        <v>0.1152979163735549</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03988224767827184</v>
+        <v>0.08285587765399398</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2826675250317179</v>
+        <v>0.2844509466788639</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03915622723154324</v>
+        <v>0.08347219370974558</v>
       </c>
       <c r="L117" t="n">
-        <v>0.4716754453296363</v>
+        <v>0.4748911010446105</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0375011939025158</v>
+        <v>0.08341521076996516</v>
       </c>
       <c r="N117" t="n">
-        <v>0.6596160513163498</v>
+        <v>0.6709923846243004</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03954549892370043</v>
+        <v>0.08352205378205343</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1125906442314119</v>
+        <v>0.110265447345702</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04064921397977708</v>
+        <v>0.08444925991657079</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2824773819522822</v>
+        <v>0.2814096142994861</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03990923160138062</v>
+        <v>0.08507742820416377</v>
       </c>
       <c r="L118" t="n">
-        <v>0.4696919226376911</v>
+        <v>0.4712045866318516</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03822237070833341</v>
+        <v>0.08501934943861834</v>
       </c>
       <c r="N118" t="n">
-        <v>0.6620816800364262</v>
+        <v>0.6637620692875636</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04030598928761774</v>
+        <v>0.085128247124016</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.112994359648413</v>
+        <v>0.1061739220116723</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0414161802812823</v>
+        <v>0.08604264217914759</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2828593004858054</v>
+        <v>0.2805848644962836</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04066223597121799</v>
+        <v>0.08668266269858195</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4706606626266775</v>
+        <v>0.4700178162989158</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03894354751415102</v>
+        <v>0.08662348810727152</v>
       </c>
       <c r="N119" t="n">
-        <v>0.6662172544902645</v>
+        <v>0.6576918483521201</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04106647965153506</v>
+        <v>0.08673444046597856</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.120440671556454</v>
+        <v>0.1120399569684443</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04218314658278752</v>
+        <v>0.0876360244417244</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2834002009919317</v>
+        <v>0.277516520380071</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04141524034105536</v>
+        <v>0.08828789719300013</v>
       </c>
       <c r="L120" t="n">
-        <v>0.4689262011892417</v>
+        <v>0.4639973772465494</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03966472431996864</v>
+        <v>0.0882276267759247</v>
       </c>
       <c r="N120" t="n">
-        <v>0.6706028942299731</v>
+        <v>0.6548755140920259</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04182697001545237</v>
+        <v>0.08834063380794113</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1119250361803026</v>
+        <v>0.1118801688129968</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04295011288429276</v>
+        <v>0.08922940670430121</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2828870038303054</v>
+        <v>0.2764444050616623</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04216824471089273</v>
+        <v>0.08989313168741832</v>
       </c>
       <c r="L121" t="n">
-        <v>0.4697267134991101</v>
+        <v>0.4627098566754986</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04038590112578624</v>
+        <v>0.08983176544457788</v>
       </c>
       <c r="N121" t="n">
-        <v>0.6703187188076603</v>
+        <v>0.6457068587813377</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04258746037936969</v>
+        <v>0.08994682714990369</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1164429097447265</v>
+        <v>0.1047111741423082</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04371707918579798</v>
+        <v>0.09082278896687801</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2835066293605702</v>
+        <v>0.2739083416518718</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0429212490807301</v>
+        <v>0.0914983661818365</v>
       </c>
       <c r="L122" t="n">
-        <v>0.4727478819451665</v>
+        <v>0.45492184178651</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04110707793160386</v>
+        <v>0.09143590411323106</v>
       </c>
       <c r="N122" t="n">
-        <v>0.6695448477754335</v>
+        <v>0.6433796746941116</v>
       </c>
       <c r="O122" t="n">
-        <v>0.043347950743287</v>
+        <v>0.09155302049186625</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1219897484744932</v>
+        <v>0.1045495895533573</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0444840454873032</v>
+        <v>0.09241617122945482</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2866459979423705</v>
+        <v>0.2701481532615138</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04367425345056747</v>
+        <v>0.09310360067625469</v>
       </c>
       <c r="L123" t="n">
-        <v>0.473475388916294</v>
+        <v>0.45119991978033</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04182825473742147</v>
+        <v>0.09304004278188423</v>
       </c>
       <c r="N123" t="n">
-        <v>0.6748614006854019</v>
+        <v>0.6314877541044046</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04410844110720432</v>
+        <v>0.09315921383382882</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1145610085943704</v>
+        <v>0.1094120316431227</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04525101178880844</v>
+        <v>0.09400955349203163</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2863920299353504</v>
+        <v>0.2677036630014022</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04442725782040484</v>
+        <v>0.09470883517067287</v>
       </c>
       <c r="L124" t="n">
-        <v>0.4756949168013768</v>
+        <v>0.4468106778577048</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04254943154323908</v>
+        <v>0.09464418145053739</v>
       </c>
       <c r="N124" t="n">
-        <v>0.6756484970896732</v>
+        <v>0.6302248892862723</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04486893147112164</v>
+        <v>0.09476540717579141</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1241521463291256</v>
+        <v>0.108315117008583</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04601797809031366</v>
+        <v>0.09560293575460843</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2877316456991541</v>
+        <v>0.2643146939823514</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04518026219024221</v>
+        <v>0.09631406966509105</v>
       </c>
       <c r="L125" t="n">
-        <v>0.4768921479892976</v>
+        <v>0.4414207032193812</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0432706083490567</v>
+        <v>0.09624832011919057</v>
       </c>
       <c r="N125" t="n">
-        <v>0.6781862565403556</v>
+        <v>0.6202848725137722</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04562942183503895</v>
+        <v>0.09637160051775397</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1257586179035267</v>
+        <v>0.1092624805849488</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04678494439181889</v>
+        <v>0.09719631801718524</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2904517655934256</v>
+        <v>0.2602210693151756</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04593326656007958</v>
+        <v>0.09791930415950924</v>
       </c>
       <c r="L126" t="n">
-        <v>0.4751527648689403</v>
+        <v>0.4385965830661054</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04399178515487431</v>
+        <v>0.09785245878784375</v>
       </c>
       <c r="N126" t="n">
-        <v>0.6789547985895572</v>
+        <v>0.6148614960609595</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04638991219895627</v>
+        <v>0.09797779385971653</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1243758795423411</v>
+        <v>0.1061354125675504</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04755191069332412</v>
+        <v>0.09878970027976205</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2922393099778091</v>
+        <v>0.2582352156041204</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04668627092991695</v>
+        <v>0.09952453865392742</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4770624498291887</v>
+        <v>0.4364313184302382</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04471296196069192</v>
+        <v>0.09945659745649693</v>
       </c>
       <c r="N127" t="n">
-        <v>0.6850342427893861</v>
+        <v>0.6065106733006946</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04715040256287358</v>
+        <v>0.09958398720167909</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1149993874703365</v>
+        <v>0.09692026070403847</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04831887699482934</v>
+        <v>0.1003830825423389</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2917811992119486</v>
+        <v>0.2578775034887024</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04743927529975431</v>
+        <v>0.1011297731483456</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4795068852589257</v>
+        <v>0.4311445188985982</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04543413876650953</v>
+        <v>0.1010607361251501</v>
       </c>
       <c r="N128" t="n">
-        <v>0.6875047086919508</v>
+        <v>0.6023048785464111</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0479108929267909</v>
+        <v>0.1011901805436417</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1276245979122805</v>
+        <v>0.1056408116578558</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04908584329633457</v>
+        <v>0.1019764648049157</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2932643536554885</v>
+        <v>0.2536095917347858</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04819227966959169</v>
+        <v>0.1027350076427638</v>
       </c>
       <c r="L129" t="n">
-        <v>0.4821717535470351</v>
+        <v>0.4230148655084929</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04615531557232714</v>
+        <v>0.1026648747938033</v>
       </c>
       <c r="N129" t="n">
-        <v>0.6877463158493593</v>
+        <v>0.6002934119111898</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04867138329070821</v>
+        <v>0.1027963738856042</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1232469670929407</v>
+        <v>0.09732085209244523</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0498528095978398</v>
+        <v>0.1035698470674925</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2965756936680727</v>
+        <v>0.2496884871371673</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04894528403942906</v>
+        <v>0.104340242137182</v>
       </c>
       <c r="L130" t="n">
-        <v>0.4859427370824005</v>
+        <v>0.4184376778572978</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04687649237814475</v>
+        <v>0.1042690134624565</v>
       </c>
       <c r="N130" t="n">
-        <v>0.6978391838137197</v>
+        <v>0.5878105370628184</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04943187365462553</v>
+        <v>0.1044025672275668</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1228619512370849</v>
+        <v>0.09198416867124937</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05061977589934503</v>
+        <v>0.1051632293300693</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2960021396093453</v>
+        <v>0.2490711964906437</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04969828840926643</v>
+        <v>0.1059454766316002</v>
       </c>
       <c r="L131" t="n">
-        <v>0.4845055182539053</v>
+        <v>0.4152082755423881</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04759766918396236</v>
+        <v>0.1058731521311096</v>
       </c>
       <c r="N131" t="n">
-        <v>0.6963634321371406</v>
+        <v>0.5834905176690861</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05019236401854285</v>
+        <v>0.1060087605695293</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1214650065694805</v>
+        <v>0.09065454805771103</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05138674220085025</v>
+        <v>0.1067566115926461</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2989306118389507</v>
+        <v>0.2452147265900118</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0504512927791038</v>
+        <v>0.1075507111260184</v>
       </c>
       <c r="L132" t="n">
-        <v>0.4893457794504331</v>
+        <v>0.4069219781611392</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04831884598977997</v>
+        <v>0.1074772907997628</v>
       </c>
       <c r="N132" t="n">
-        <v>0.6994991803717292</v>
+        <v>0.5788676173977805</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05095285438246017</v>
+        <v>0.1076149539114919</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1250515893148953</v>
+        <v>0.1023557769152731</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05215370850235548</v>
+        <v>0.1083499938552229</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2988480307165328</v>
+        <v>0.2397760842300684</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05120429714894117</v>
+        <v>0.1091559456204365</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4916492030608672</v>
+        <v>0.405974105310926</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04904002279559758</v>
+        <v>0.109081429468416</v>
       </c>
       <c r="N133" t="n">
-        <v>0.7058265480695947</v>
+        <v>0.5659760999166901</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05171334474637748</v>
+        <v>0.1092211472534545</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1286171556980968</v>
+        <v>0.09911164190737809</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05292067480386071</v>
+        <v>0.1099433761177997</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3007413166017357</v>
+        <v>0.2377122762056101</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05195730151877855</v>
+        <v>0.1107611801148547</v>
       </c>
       <c r="L134" t="n">
-        <v>0.4946014714740914</v>
+        <v>0.3980599765891242</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0497611996014152</v>
+        <v>0.1106855681370692</v>
       </c>
       <c r="N134" t="n">
-        <v>0.7053256547828448</v>
+        <v>0.5609502288936037</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0524738351102948</v>
+        <v>0.110827340595417</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1211571619438528</v>
+        <v>0.09594592969746893</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05368764110536593</v>
+        <v>0.1115367583803765</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3017973898542037</v>
+        <v>0.2354803093114338</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05271030588861591</v>
+        <v>0.1123664146092729</v>
       </c>
       <c r="L135" t="n">
-        <v>0.4972882670789889</v>
+        <v>0.3961749115931089</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05048237640723281</v>
+        <v>0.1122897068057223</v>
       </c>
       <c r="N135" t="n">
-        <v>0.7124766200635877</v>
+        <v>0.554024267996309</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05323432547421211</v>
+        <v>0.1124335339373796</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1296670642769307</v>
+        <v>0.09088242694898835</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05445460740687116</v>
+        <v>0.1131301406429533</v>
       </c>
       <c r="J136" t="n">
-        <v>0.3043031708335808</v>
+        <v>0.2317371903423363</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05346331025845328</v>
+        <v>0.1139716491036911</v>
       </c>
       <c r="L136" t="n">
-        <v>0.4960952722644434</v>
+        <v>0.3902142299202555</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05120355321305042</v>
+        <v>0.1138938454743755</v>
       </c>
       <c r="N136" t="n">
-        <v>0.7164595634639319</v>
+        <v>0.5471324808925946</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05399481583812943</v>
+        <v>0.1140397272793422</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1221423189220983</v>
+        <v>0.08594492032537912</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0552215737083764</v>
+        <v>0.1147235229055301</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3055455798995112</v>
+        <v>0.2292399260931142</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05421631462829066</v>
+        <v>0.1155768835981093</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5006081694193384</v>
+        <v>0.3853732511679391</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05192473001886803</v>
+        <v>0.1154979841430287</v>
       </c>
       <c r="N137" t="n">
-        <v>0.7177546045359855</v>
+        <v>0.5442091312502491</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05475530620204674</v>
+        <v>0.1156459206213047</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1285783821041232</v>
+        <v>0.09315719649008394</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05598854000988163</v>
+        <v>0.1163169051681069</v>
       </c>
       <c r="J138" t="n">
-        <v>0.305711537411639</v>
+        <v>0.2294455233585645</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05496931899812801</v>
+        <v>0.1171821180925275</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5033126409325572</v>
+        <v>0.383547294933535</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05264590682468564</v>
+        <v>0.1171021228116819</v>
       </c>
       <c r="N138" t="n">
-        <v>0.7182418628318561</v>
+        <v>0.5368884827370601</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05551579656596406</v>
+        <v>0.1172521139632673</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.128970710047773</v>
+        <v>0.09454304210654563</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05675550631138686</v>
+        <v>0.1179102874306837</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3081879637296083</v>
+        <v>0.2273109889334838</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05572232336796539</v>
+        <v>0.1187873525869456</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5042943691929836</v>
+        <v>0.3781316808144189</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05336708363050326</v>
+        <v>0.118706261480335</v>
       </c>
       <c r="N139" t="n">
-        <v>0.7205014579036522</v>
+        <v>0.5337047990208166</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05627628692988138</v>
+        <v>0.1188583073052299</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1333147589778153</v>
+        <v>0.08812624383820689</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05752247261289208</v>
+        <v>0.1195036696932606</v>
       </c>
       <c r="J140" t="n">
-        <v>0.3095617792130633</v>
+        <v>0.225793329612669</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05647532773780276</v>
+        <v>0.1203925870813638</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5076390365895009</v>
+        <v>0.3740217284079658</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05408826043632087</v>
+        <v>0.1203104001489882</v>
       </c>
       <c r="N140" t="n">
-        <v>0.7216135093034826</v>
+        <v>0.5262923437693068</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05703677729379869</v>
+        <v>0.1204645006471925</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1296059851190178</v>
+        <v>0.09393058834851054</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05828943891439731</v>
+        <v>0.1210970519558374</v>
       </c>
       <c r="J141" t="n">
-        <v>0.310619904221648</v>
+        <v>0.2229495521909167</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05722833210764013</v>
+        <v>0.121997821575782</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5071323255109929</v>
+        <v>0.3742127573115508</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05480943724213847</v>
+        <v>0.1219145388176414</v>
       </c>
       <c r="N141" t="n">
-        <v>0.7274581365834543</v>
+        <v>0.5247853806503189</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05779726765771601</v>
+        <v>0.122070693989155</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.127839844696148</v>
+        <v>0.08592721146847787</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05905640521590254</v>
+        <v>0.1226904342184141</v>
       </c>
       <c r="J142" t="n">
-        <v>0.3113492591150067</v>
+        <v>0.2240366634630238</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05798133647747751</v>
+        <v>0.1236030560702002</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5132599183463427</v>
+        <v>0.3746000871225496</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0555306140479561</v>
+        <v>0.1235186774862946</v>
       </c>
       <c r="N142" t="n">
-        <v>0.7272154592956763</v>
+        <v>0.5213181733316412</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05855775802163333</v>
+        <v>0.1236768873311176</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1210117939339737</v>
+        <v>0.08496967184817031</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05982337151740776</v>
+        <v>0.124283816480991</v>
       </c>
       <c r="J143" t="n">
-        <v>0.3118367642527834</v>
+        <v>0.2217492780138793</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05873434084731487</v>
+        <v>0.1252082905646184</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5112074974844341</v>
+        <v>0.3734455176756742</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0562517908537737</v>
+        <v>0.1251228161549477</v>
       </c>
       <c r="N143" t="n">
-        <v>0.7312655969922568</v>
+        <v>0.5251112431617533</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05931824838555064</v>
+        <v>0.1252830806730802</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1271172890572624</v>
+        <v>0.09304597084827923</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06059033781891299</v>
+        <v>0.1258771987435678</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3109693399946223</v>
+        <v>0.2248580138052994</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05948734521715224</v>
+        <v>0.1268135250590366</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5127607453141504</v>
+        <v>0.3721388714336129</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05697296765959131</v>
+        <v>0.1267269548236009</v>
       </c>
       <c r="N144" t="n">
-        <v>0.7353886692253038</v>
+        <v>0.5222530993119938</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06007873874946795</v>
+        <v>0.1268892740150427</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1341518282280124</v>
+        <v>0.09015436063343951</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06135730412041822</v>
+        <v>0.1274705810061446</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3135339067001676</v>
+        <v>0.22484680147412</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06024034958698962</v>
+        <v>0.1284187595534547</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5177053442243753</v>
+        <v>0.3759655951614633</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05769414446540893</v>
+        <v>0.1283310934922541</v>
       </c>
       <c r="N145" t="n">
-        <v>0.7315647955469253</v>
+        <v>0.5231840896053928</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06083922911338526</v>
+        <v>0.1284954673570053</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1211511425611812</v>
+        <v>0.08629309336828614</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06212427042192345</v>
+        <v>0.1290639632687214</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3144373847944668</v>
+        <v>0.2250114521818252</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06099335395682699</v>
+        <v>0.1300239940478729</v>
       </c>
       <c r="L146" t="n">
-        <v>0.5202269766039922</v>
+        <v>0.3749186848099316</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05841532127122653</v>
+        <v>0.1299352321609073</v>
       </c>
       <c r="N146" t="n">
-        <v>0.7392444042853519</v>
+        <v>0.5250943483965484</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06159971947730258</v>
+        <v>0.1301016606989679</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1271491949894728</v>
+        <v>0.09246042121745404</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06289123672342868</v>
+        <v>0.1306573455312982</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3128367160776108</v>
+        <v>0.2237477770898992</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06174635832666435</v>
+        <v>0.1316292285422911</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5207113248418846</v>
+        <v>0.3739911363297249</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05913649807704414</v>
+        <v>0.1315393708295605</v>
       </c>
       <c r="N147" t="n">
-        <v>0.7366659133195803</v>
+        <v>0.5275740100400601</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06236020984121991</v>
+        <v>0.1317078540409304</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1311460162020298</v>
+        <v>0.09565459634557819</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0636582030249339</v>
+        <v>0.132250727793875</v>
       </c>
       <c r="J148" t="n">
-        <v>0.3130320949866362</v>
+        <v>0.223451587359826</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06249936269650172</v>
+        <v>0.1332344630367093</v>
       </c>
       <c r="L148" t="n">
-        <v>0.5211440713269361</v>
+        <v>0.3771759456715499</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05985767488286176</v>
+        <v>0.1331435094982136</v>
       </c>
       <c r="N148" t="n">
-        <v>0.7366422354455679</v>
+        <v>0.5280132088905265</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06312070020513721</v>
+        <v>0.133314047382893</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1321416376077325</v>
+        <v>0.08487387091729348</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06442516932643913</v>
+        <v>0.1338441100564518</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3117231084331963</v>
+        <v>0.2255186941530896</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06325236706633909</v>
+        <v>0.1348396975311275</v>
       </c>
       <c r="L149" t="n">
-        <v>0.5251108984480301</v>
+        <v>0.3772661087861133</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06057885168867937</v>
+        <v>0.1347476481668668</v>
       </c>
       <c r="N149" t="n">
-        <v>0.7374173543460463</v>
+        <v>0.5290020793025465</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06388119056905453</v>
+        <v>0.1349202407248555</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1211360906154609</v>
+        <v>0.08411649709723493</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06519213562794436</v>
+        <v>0.1354374923190286</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3137097898295629</v>
+        <v>0.2259449086311742</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06400537143617646</v>
+        <v>0.1364449320255457</v>
       </c>
       <c r="L150" t="n">
-        <v>0.5268408945399092</v>
+        <v>0.3782546216241219</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06130002849449698</v>
+        <v>0.13635178683552</v>
       </c>
       <c r="N150" t="n">
-        <v>0.7410876191813967</v>
+        <v>0.5339307556307189</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06464168093297185</v>
+        <v>0.1365264340668181</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1291294066340953</v>
+        <v>0.0973807270500375</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06595910192944958</v>
+        <v>0.1370308745816054</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3123921725880077</v>
+        <v>0.2249260419555638</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06475837580601385</v>
+        <v>0.1380501665199639</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5261841157055638</v>
+        <v>0.3815344801362823</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0620212053003146</v>
+        <v>0.1379559255041732</v>
       </c>
       <c r="N151" t="n">
-        <v>0.7416493791120007</v>
+        <v>0.5316893722296427</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06540217129688916</v>
+        <v>0.1381326274087807</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1241216170725157</v>
+        <v>0.08666481294033604</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06672606823095481</v>
+        <v>0.1386242568441822</v>
       </c>
       <c r="J152" t="n">
-        <v>0.3127702901208027</v>
+        <v>0.2270579052877426</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0655113801758512</v>
+        <v>0.139655401014382</v>
       </c>
       <c r="L152" t="n">
-        <v>0.5250761019785464</v>
+        <v>0.3774986802733016</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0627423821061322</v>
+        <v>0.1395600641728263</v>
       </c>
       <c r="N152" t="n">
-        <v>0.7401989832982399</v>
+        <v>0.535768063453917</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06616266166080648</v>
+        <v>0.1397388207507432</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1221127533396024</v>
+        <v>0.0909670069327656</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06749303453246004</v>
+        <v>0.1402176391067591</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3126441758402198</v>
+        <v>0.2290363097891947</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06626438454568857</v>
+        <v>0.1412606355088002</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5294710103441047</v>
+        <v>0.3835402179858862</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06346355891194982</v>
+        <v>0.1411642028414795</v>
       </c>
       <c r="N153" t="n">
-        <v>0.7416327809004961</v>
+        <v>0.5368569636581404</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06692315202472381</v>
+        <v>0.1413450140927058</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1301028468442356</v>
+        <v>0.09830481605181265</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06826000083396527</v>
+        <v>0.1418110213693358</v>
       </c>
       <c r="J154" t="n">
-        <v>0.3130138631585305</v>
+        <v>0.2279570666214041</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06701738891552594</v>
+        <v>0.1428658700032184</v>
       </c>
       <c r="L154" t="n">
-        <v>0.5258662075123776</v>
+        <v>0.380152089224743</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06418473571776744</v>
+        <v>0.1427683415101327</v>
       </c>
       <c r="N154" t="n">
-        <v>0.7473471210791509</v>
+        <v>0.5356462071969117</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06768364238864111</v>
+        <v>0.1429512074346684</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1280919289952953</v>
+        <v>0.08788966767205408</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0690269671354705</v>
+        <v>0.1434044036319126</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3134793854880071</v>
+        <v>0.2284220034572406</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06777039328536331</v>
+        <v>0.1444711044976366</v>
       </c>
       <c r="L155" t="n">
-        <v>0.5282590601935037</v>
+        <v>0.3848567970407781</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06490591252358503</v>
+        <v>0.1443724801787859</v>
       </c>
       <c r="N155" t="n">
-        <v>0.7459383529945858</v>
+        <v>0.5408189148715481</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06844413275255842</v>
+        <v>0.1445574007766309</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1290800312016617</v>
+        <v>0.0907387865738663</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06979393343697572</v>
+        <v>0.1449977858944894</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3141407762409212</v>
+        <v>0.2297330456376523</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06852339765520069</v>
+        <v>0.1460763389920548</v>
       </c>
       <c r="L156" t="n">
-        <v>0.5286469350976216</v>
+        <v>0.3851690010993862</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06562708932940266</v>
+        <v>0.145976618847439</v>
       </c>
       <c r="N156" t="n">
-        <v>0.7499028258071825</v>
+        <v>0.5448711459441102</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06920462311647575</v>
+        <v>0.1461635941185935</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1290671848722151</v>
+        <v>0.1007994098261294</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07056089973848095</v>
+        <v>0.1465911681570663</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3117980688295447</v>
+        <v>0.2336480677668982</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06927640202503806</v>
+        <v>0.147681573486473</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5298271989348704</v>
+        <v>0.3919761952537408</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06634826613522027</v>
+        <v>0.1475807575160922</v>
       </c>
       <c r="N157" t="n">
-        <v>0.7513368886773228</v>
+        <v>0.5485642360437673</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06996511348039305</v>
+        <v>0.1477697874605561</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1250534214158354</v>
+        <v>0.09501877449772361</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07132786603998618</v>
+        <v>0.1481845504196431</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3135512966661495</v>
+        <v>0.2368406189203048</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07002940639487543</v>
+        <v>0.1492868079808911</v>
       </c>
       <c r="L158" t="n">
-        <v>0.5333972184153887</v>
+        <v>0.3929669441605541</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06706944294103787</v>
+        <v>0.1491848961847454</v>
       </c>
       <c r="N158" t="n">
-        <v>0.754336890765388</v>
+        <v>0.5564003651474436</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07072560384431037</v>
+        <v>0.1493759808025186</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.134038772241403</v>
+        <v>0.103344117657529</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0720948323414914</v>
+        <v>0.1497779326822199</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3133004931630073</v>
+        <v>0.2395842481731992</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0707824107647128</v>
+        <v>0.1508920424753093</v>
       </c>
       <c r="L159" t="n">
-        <v>0.5349543602493151</v>
+        <v>0.4021298124765386</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06779061974685549</v>
+        <v>0.1507890348533986</v>
       </c>
       <c r="N159" t="n">
-        <v>0.7516991812317602</v>
+        <v>0.5570817132320638</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0714860942082277</v>
+        <v>0.1509821741444812</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1300232687577979</v>
+        <v>0.1037226763744257</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07286179864299663</v>
+        <v>0.1513713149447967</v>
       </c>
       <c r="J160" t="n">
-        <v>0.3134456917323901</v>
+        <v>0.2404525046009082</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07153541513455015</v>
+        <v>0.1524972769697275</v>
       </c>
       <c r="L160" t="n">
-        <v>0.5361959911467886</v>
+        <v>0.4059533648584071</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0685117965526731</v>
+        <v>0.1523931735220518</v>
       </c>
       <c r="N160" t="n">
-        <v>0.7507201092368205</v>
+        <v>0.5646104602745521</v>
       </c>
       <c r="O160" t="n">
-        <v>0.072246584572145</v>
+        <v>0.1525883674864437</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1240069423739003</v>
+        <v>0.09310168771729396</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07362876494450186</v>
+        <v>0.1529646972073735</v>
       </c>
       <c r="J161" t="n">
-        <v>0.3111869257865697</v>
+        <v>0.2456189372787588</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07228841950438754</v>
+        <v>0.1541025114641457</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5365194778179476</v>
+        <v>0.4126261659628716</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0692329733584907</v>
+        <v>0.1539973121907049</v>
       </c>
       <c r="N161" t="n">
-        <v>0.7502960239409509</v>
+        <v>0.5720887862518327</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07300707493606233</v>
+        <v>0.1541945608284063</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1279898244985904</v>
+        <v>0.09942838875501386</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0743957312460071</v>
+        <v>0.1545580794699503</v>
       </c>
       <c r="J162" t="n">
-        <v>0.3131242287378179</v>
+        <v>0.2485570952820778</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07304142387422491</v>
+        <v>0.1557077459585639</v>
       </c>
       <c r="L162" t="n">
-        <v>0.5383221869729313</v>
+        <v>0.4160367804466448</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06995415016430832</v>
+        <v>0.1556014508593581</v>
       </c>
       <c r="N162" t="n">
-        <v>0.7523232745045332</v>
+        <v>0.5812188711408302</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07376756529997965</v>
+        <v>0.1558007541703689</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1219719465407484</v>
+        <v>0.1056500165564656</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07516269754751233</v>
+        <v>0.1561514617325271</v>
       </c>
       <c r="J163" t="n">
-        <v>0.3135576339984066</v>
+        <v>0.252040527686192</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07379442824406228</v>
+        <v>0.1573129804529821</v>
       </c>
       <c r="L163" t="n">
-        <v>0.5350014853218781</v>
+        <v>0.4207737729664393</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07067532697012593</v>
+        <v>0.1572055895280113</v>
       </c>
       <c r="N163" t="n">
-        <v>0.7561982100879487</v>
+        <v>0.5927028949184692</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07452805566389695</v>
+        <v>0.1574069475123315</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1229533399092543</v>
+        <v>0.1057143000420665</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07592966384901755</v>
+        <v>0.1577448439951039</v>
       </c>
       <c r="J164" t="n">
-        <v>0.3118871749806077</v>
+        <v>0.2549427835664282</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07454743261389965</v>
+        <v>0.1589182149474002</v>
       </c>
       <c r="L164" t="n">
-        <v>0.535054739574927</v>
+        <v>0.4259257081789677</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07139650377594355</v>
+        <v>0.1588097281966644</v>
       </c>
       <c r="N164" t="n">
-        <v>0.753117179851579</v>
+        <v>0.5934430375616737</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07528854602781428</v>
+        <v>0.159013140854294</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1219340360129884</v>
+        <v>0.1056827598317496</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07669663015052278</v>
+        <v>0.1593382262576807</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3116128850966929</v>
+        <v>0.2550623729217984</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07530043698373701</v>
+        <v>0.1605234494418184</v>
       </c>
       <c r="L165" t="n">
-        <v>0.5401793164422165</v>
+        <v>0.429641979853166</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07211768058176116</v>
+        <v>0.1604138668653176</v>
       </c>
       <c r="N165" t="n">
-        <v>0.7554765329558055</v>
+        <v>0.5984810165850787</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07604903639173159</v>
+        <v>0.1606193341962566</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1299140662608308</v>
+        <v>0.1066277654860288</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07746359645202801</v>
+        <v>0.1609316085202575</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3119347977589342</v>
+        <v>0.2581340335661398</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07605344135357439</v>
+        <v>0.1621286839362366</v>
       </c>
       <c r="L166" t="n">
-        <v>0.5410725826338855</v>
+        <v>0.432839185300707</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07283885738757877</v>
+        <v>0.1620180055339708</v>
       </c>
       <c r="N166" t="n">
-        <v>0.7552726185610108</v>
+        <v>0.6037327636300753</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07680952675564889</v>
+        <v>0.1622255275382192</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1308934620616616</v>
+        <v>0.1025509908038842</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07823056275353323</v>
+        <v>0.1625249907828343</v>
       </c>
       <c r="J167" t="n">
-        <v>0.3119529463796034</v>
+        <v>0.2602509785790477</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07680644572341176</v>
+        <v>0.1637339184306548</v>
       </c>
       <c r="L167" t="n">
-        <v>0.5381319048600728</v>
+        <v>0.4355452886805823</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07356003419339638</v>
+        <v>0.163622144202624</v>
       </c>
       <c r="N167" t="n">
-        <v>0.7556017858275754</v>
+        <v>0.6098551674147801</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07757001711956622</v>
+        <v>0.1638317208801817</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1258714253347407</v>
+        <v>0.1014541095842962</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07899752905503846</v>
+        <v>0.1641183730454111</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3111673643709723</v>
+        <v>0.2619172193644426</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07755945009324913</v>
+        <v>0.165339152925073</v>
       </c>
       <c r="L168" t="n">
-        <v>0.540154649830917</v>
+        <v>0.4407669973582555</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07428121099921399</v>
+        <v>0.1652262828712772</v>
       </c>
       <c r="N168" t="n">
-        <v>0.7585603839158819</v>
+        <v>0.6144576756866991</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07833050748348354</v>
+        <v>0.1654379142221443</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.124826249958382</v>
+        <v>0.1133387956262445</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07976449535654369</v>
+        <v>0.165711755307988</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3108780851453128</v>
+        <v>0.2638367673262448</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07831245446308649</v>
+        <v>0.1669443874194912</v>
       </c>
       <c r="L169" t="n">
-        <v>0.5401381842565568</v>
+        <v>0.4426110186991905</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0750023878050316</v>
+        <v>0.1668304215399303</v>
       </c>
       <c r="N169" t="n">
-        <v>0.7605447619863113</v>
+        <v>0.6245497361933383</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07909099784740085</v>
+        <v>0.1670441075641069</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1227497269664528</v>
+        <v>0.1112067227287095</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08053146165804892</v>
+        <v>0.1673051375705648</v>
       </c>
       <c r="J170" t="n">
-        <v>0.3116851421148967</v>
+        <v>0.2678136338683753</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07906545883292386</v>
+        <v>0.1685496219139093</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5420798748471314</v>
+        <v>0.4486840600688506</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07572356461084921</v>
+        <v>0.1684345602085835</v>
       </c>
       <c r="N170" t="n">
-        <v>0.7587512691992453</v>
+        <v>0.6275407966822031</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07985148821131817</v>
+        <v>0.1686503009060694</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1216437377278778</v>
+        <v>0.1100595646906714</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08129842795955415</v>
+        <v>0.1688985198331416</v>
       </c>
       <c r="J171" t="n">
-        <v>0.3104885686919959</v>
+        <v>0.2704518303947543</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07981846320276124</v>
+        <v>0.1701548564083275</v>
       </c>
       <c r="L171" t="n">
-        <v>0.5404770883127789</v>
+        <v>0.4524928288327003</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07644474141666682</v>
+        <v>0.1700386988772367</v>
       </c>
       <c r="N171" t="n">
-        <v>0.7595762547150655</v>
+        <v>0.6341403049007996</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08061197857523549</v>
+        <v>0.170256494248032</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1275101636115812</v>
+        <v>0.1098989953111101</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08206539426105937</v>
+        <v>0.1704919020957184</v>
       </c>
       <c r="J172" t="n">
-        <v>0.3109883982888821</v>
+        <v>0.2715553683093026</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08057146757259862</v>
+        <v>0.1717600909027457</v>
       </c>
       <c r="L172" t="n">
-        <v>0.5446271913636385</v>
+        <v>0.4554440323562026</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07716591822248443</v>
+        <v>0.1716428375458899</v>
       </c>
       <c r="N172" t="n">
-        <v>0.7575160676941539</v>
+        <v>0.6397577085966335</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0813724689391528</v>
+        <v>0.1718626875899946</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1213508859864876</v>
+        <v>0.1097266883890058</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0828323605625646</v>
+        <v>0.1720852843582952</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3107846643178274</v>
+        <v>0.2720282590159406</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08132447194243599</v>
+        <v>0.1733653253971639</v>
       </c>
       <c r="L173" t="n">
-        <v>0.5439275507098487</v>
+        <v>0.4595443780048214</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07788709502830204</v>
+        <v>0.173246976214543</v>
       </c>
       <c r="N173" t="n">
-        <v>0.7612670572968918</v>
+        <v>0.6413024555172104</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08213295930307012</v>
+        <v>0.1734688809319571</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1271677862215213</v>
+        <v>0.1075443177233387</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08359932686406983</v>
+        <v>0.173678666620872</v>
       </c>
       <c r="J174" t="n">
-        <v>0.3118774001911035</v>
+        <v>0.2744745139185889</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08207747631227334</v>
+        <v>0.1749705598915821</v>
       </c>
       <c r="L174" t="n">
-        <v>0.5418755330615485</v>
+        <v>0.4588005731440207</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07860827183411966</v>
+        <v>0.1748511148831962</v>
       </c>
       <c r="N174" t="n">
-        <v>0.7618255726836611</v>
+        <v>0.6454839934100365</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08289344966698743</v>
+        <v>0.1750750742739197</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1299627456856068</v>
+        <v>0.1173535571130889</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08436629316557505</v>
+        <v>0.1752720488834488</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3110666393209823</v>
+        <v>0.276398144421168</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08283048068211071</v>
+        <v>0.1765757943860003</v>
       </c>
       <c r="L175" t="n">
-        <v>0.5452685051288764</v>
+        <v>0.4627193251392637</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07932944863993728</v>
+        <v>0.1764552535518494</v>
       </c>
       <c r="N175" t="n">
-        <v>0.760326012535848</v>
+        <v>0.651111770022617</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08365394003090475</v>
+        <v>0.1766812676158823</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1237376457476683</v>
+        <v>0.1151649709690917</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08513325946708028</v>
+        <v>0.1768654311460256</v>
       </c>
       <c r="J176" t="n">
-        <v>0.3097524151197356</v>
+        <v>0.2784031619275986</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08358348505194808</v>
+        <v>0.1781810288804185</v>
       </c>
       <c r="L176" t="n">
-        <v>0.5471038336219712</v>
+        <v>0.4694073413560146</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08005062544575488</v>
+        <v>0.1780593922205026</v>
       </c>
       <c r="N176" t="n">
-        <v>0.7602786470627756</v>
+        <v>0.6588952331024585</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08441443039482206</v>
+        <v>0.1782874609578448</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1284943677766305</v>
+        <v>0.1210226775762971</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08590022576858551</v>
+        <v>0.1784588134086024</v>
       </c>
       <c r="J177" t="n">
-        <v>0.3119347609996352</v>
+        <v>0.2820513966053583</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08433648942178547</v>
+        <v>0.1797862633748366</v>
       </c>
       <c r="L177" t="n">
-        <v>0.5461788852509718</v>
+        <v>0.4728813245051412</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08077180225157249</v>
+        <v>0.1796635308891558</v>
       </c>
       <c r="N177" t="n">
-        <v>0.7588940416849956</v>
+        <v>0.6619644775276556</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08517492075873938</v>
+        <v>0.1798936542998074</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1252347931414176</v>
+        <v>0.1199082531953845</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08666719207009073</v>
+        <v>0.1800521956711792</v>
       </c>
       <c r="J178" t="n">
-        <v>0.310613710372953</v>
+        <v>0.2821079340806052</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08508949379162283</v>
+        <v>0.1813914978692548</v>
       </c>
       <c r="L178" t="n">
-        <v>0.5475910267260169</v>
+        <v>0.4735320379035027</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08149297905739011</v>
+        <v>0.1812676695578089</v>
       </c>
       <c r="N178" t="n">
-        <v>0.7566838378225256</v>
+        <v>0.6642928239782544</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08593541112265669</v>
+        <v>0.18149984764177</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1289608032109542</v>
+        <v>0.1217929449120021</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08743415837159596</v>
+        <v>0.181645577933756</v>
       </c>
       <c r="J179" t="n">
-        <v>0.310189296651961</v>
+        <v>0.2859061245919359</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0858424981614602</v>
+        <v>0.182996732363673</v>
       </c>
       <c r="L179" t="n">
-        <v>0.5477376247572451</v>
+        <v>0.4760456767876041</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08221415586320772</v>
+        <v>0.1828718082264621</v>
       </c>
       <c r="N179" t="n">
-        <v>0.7567596768953824</v>
+        <v>0.6670275461688013</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08669590148657401</v>
+        <v>0.1831060409837325</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1196742793541645</v>
+        <v>0.1216479998117978</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08820112467310119</v>
+        <v>0.1832389601963328</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3102615532489308</v>
+        <v>0.2885770592950217</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08659550253129757</v>
+        <v>0.1846019668580912</v>
       </c>
       <c r="L180" t="n">
-        <v>0.5455160460547952</v>
+        <v>0.4801070204487488</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08293533266902532</v>
+        <v>0.1844759468951153</v>
       </c>
       <c r="N180" t="n">
-        <v>0.758333200323583</v>
+        <v>0.6713063484604065</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08745639185049132</v>
+        <v>0.1847122343256951</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1293771029399731</v>
+        <v>0.1154446649804197</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08896809097460641</v>
+        <v>0.1848323424589096</v>
       </c>
       <c r="J181" t="n">
-        <v>0.3092305135761345</v>
+        <v>0.2896518293455341</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08734850690113494</v>
+        <v>0.1862072013525094</v>
       </c>
       <c r="L181" t="n">
-        <v>0.5444116258720537</v>
+        <v>0.4864008481782403</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08365650947484295</v>
+        <v>0.1860800855637685</v>
       </c>
       <c r="N181" t="n">
-        <v>0.7519160495271455</v>
+        <v>0.6776669352141802</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08821688221440864</v>
+        <v>0.1863184276676576</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1230711553373044</v>
+        <v>0.1151541875035157</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08973505727611164</v>
+        <v>0.1864257247214864</v>
       </c>
       <c r="J182" t="n">
-        <v>0.3090962110458436</v>
+        <v>0.2914615258991446</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08810151127097231</v>
+        <v>0.1878124358469276</v>
       </c>
       <c r="L182" t="n">
-        <v>0.5463115492175732</v>
+        <v>0.4880119392673824</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08437768628066056</v>
+        <v>0.1876842242324216</v>
       </c>
       <c r="N182" t="n">
-        <v>0.7508198659260867</v>
+        <v>0.6817470107912325</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08897737257832596</v>
+        <v>0.1879246210096202</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1287583179150827</v>
+        <v>0.125747814466734</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09050202357761687</v>
+        <v>0.1880191069840633</v>
       </c>
       <c r="J183" t="n">
-        <v>0.3112586790703303</v>
+        <v>0.2910372401115247</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08885451564080968</v>
+        <v>0.1894176703413457</v>
       </c>
       <c r="L183" t="n">
-        <v>0.5439984319999291</v>
+        <v>0.4906250730074786</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08509886308647815</v>
+        <v>0.1892883629010748</v>
       </c>
       <c r="N183" t="n">
-        <v>0.7554562909404234</v>
+        <v>0.6840842795526734</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08973786294224327</v>
+        <v>0.1895308143515828</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1294404720422325</v>
+        <v>0.1261967929557224</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09126898987912209</v>
+        <v>0.1896124892466401</v>
       </c>
       <c r="J184" t="n">
-        <v>0.3086164467118002</v>
+        <v>0.2952100631383455</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08960752001064705</v>
+        <v>0.1910229048357639</v>
       </c>
       <c r="L184" t="n">
-        <v>0.5438844631060918</v>
+        <v>0.4900250286898323</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08582003989229578</v>
+        <v>0.190892501569728</v>
       </c>
       <c r="N184" t="n">
-        <v>0.7531369659901739</v>
+        <v>0.6928164458596127</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09049835330616059</v>
+        <v>0.1911370076935454</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1221194990876782</v>
+        <v>0.1185257067586556</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09203595618062732</v>
+        <v>0.1912058715092169</v>
       </c>
       <c r="J185" t="n">
-        <v>0.3104295087721891</v>
+        <v>0.2931177865114231</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09036052438048442</v>
+        <v>0.1926281393301821</v>
       </c>
       <c r="L185" t="n">
-        <v>0.5431818314230322</v>
+        <v>0.4937156339749779</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08654121669811339</v>
+        <v>0.1924966402383811</v>
       </c>
       <c r="N185" t="n">
-        <v>0.7496735324953545</v>
+        <v>0.6901897464107276</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0912588436700779</v>
+        <v>0.1927432010355079</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1297972804203441</v>
+        <v>0.1168432439704528</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09280292248213255</v>
+        <v>0.1927992537717937</v>
       </c>
       <c r="J186" t="n">
-        <v>0.3098821282429714</v>
+        <v>0.2950769799217133</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09111352875032179</v>
+        <v>0.1942333738246003</v>
       </c>
       <c r="L186" t="n">
-        <v>0.542302725837721</v>
+        <v>0.4970853499532099</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08726239350393099</v>
+        <v>0.1941007789070343</v>
       </c>
       <c r="N186" t="n">
-        <v>0.7485776318759829</v>
+        <v>0.6977774585349632</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09201933403399522</v>
+        <v>0.1943493943774705</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1284756974091549</v>
+        <v>0.1251538912047706</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09356988878363778</v>
+        <v>0.1943926360343705</v>
       </c>
       <c r="J187" t="n">
-        <v>0.3083771064772049</v>
+        <v>0.2951199288726039</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09186653312015916</v>
+        <v>0.1958386083190185</v>
       </c>
       <c r="L187" t="n">
-        <v>0.5404593352371286</v>
+        <v>0.4981278628393756</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08798357030974861</v>
+        <v>0.1957049175756875</v>
       </c>
       <c r="N187" t="n">
-        <v>0.7445609055520759</v>
+        <v>0.6936269619986855</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09277982439791253</v>
+        <v>0.1959555877194331</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1241566314230347</v>
+        <v>0.1194575426469935</v>
       </c>
       <c r="G188" t="n">
-        <v>0.094336855085143</v>
+        <v>0.1959860182969473</v>
       </c>
       <c r="J188" t="n">
-        <v>0.3099172448279472</v>
+        <v>0.2962463797702233</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09261953748999653</v>
+        <v>0.1974438428134367</v>
       </c>
       <c r="L188" t="n">
-        <v>0.5396638485082259</v>
+        <v>0.495242748605676</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08870474711556622</v>
+        <v>0.1973090562443407</v>
       </c>
       <c r="N188" t="n">
-        <v>0.7428349949436512</v>
+        <v>0.6975376595319827</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09354031476182985</v>
+        <v>0.1975617810613956</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1158419638309081</v>
+        <v>0.1267540924825059</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09510382138664823</v>
+        <v>0.1975794005595241</v>
       </c>
       <c r="J189" t="n">
-        <v>0.3081053446482558</v>
+        <v>0.2977560790206998</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0933725418598339</v>
+        <v>0.1990490773078548</v>
       </c>
       <c r="L189" t="n">
-        <v>0.5375284545379836</v>
+        <v>0.5007295832243115</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08942592392138383</v>
+        <v>0.1989131949129939</v>
       </c>
       <c r="N189" t="n">
-        <v>0.7384115414707262</v>
+        <v>0.6974089538649419</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09430080512574716</v>
+        <v>0.1991679744033582</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1165335760016995</v>
+        <v>0.1270434348966922</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09587078768815346</v>
+        <v>0.1991727828221009</v>
       </c>
       <c r="J190" t="n">
-        <v>0.3070442072911884</v>
+        <v>0.2988487730301619</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09412554622967127</v>
+        <v>0.200654311802273</v>
       </c>
       <c r="L190" t="n">
-        <v>0.5353653422133723</v>
+        <v>0.502087942667483</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09014710072720145</v>
+        <v>0.200517333581647</v>
       </c>
       <c r="N190" t="n">
-        <v>0.7388021865533176</v>
+        <v>0.7007402477276508</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09506129548966448</v>
+        <v>0.2007741677453208</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1212333493043333</v>
+        <v>0.1283254640749369</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09663775398965868</v>
+        <v>0.2007661650846777</v>
       </c>
       <c r="J191" t="n">
-        <v>0.3060366341098026</v>
+        <v>0.3003242082047378</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09487855059950863</v>
+        <v>0.2022595462966912</v>
       </c>
       <c r="L191" t="n">
-        <v>0.5366867004213628</v>
+        <v>0.5008174029073907</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09086827753301906</v>
+        <v>0.2021214722503002</v>
       </c>
       <c r="N191" t="n">
-        <v>0.7363185716114429</v>
+        <v>0.7015309438501973</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09582178585358181</v>
+        <v>0.2023803610872833</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1219431651077339</v>
+        <v>0.1156000742026244</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09740472029116391</v>
+        <v>0.2023595473472545</v>
       </c>
       <c r="J192" t="n">
-        <v>0.307685426457156</v>
+        <v>0.2985821309505558</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09563155496934601</v>
+        <v>0.2038647807911094</v>
       </c>
       <c r="L192" t="n">
-        <v>0.5349047180489255</v>
+        <v>0.4994175399162361</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09158945433883667</v>
+        <v>0.2037256109189534</v>
       </c>
       <c r="N192" t="n">
-        <v>0.7279723380651193</v>
+        <v>0.706680444962668</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09658227621749911</v>
+        <v>0.2039865544292459</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1246649047808257</v>
+        <v>0.1178671594651391</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09817168659266914</v>
+        <v>0.2039529296098313</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3063933856863062</v>
+        <v>0.3017222876737443</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09638455933918338</v>
+        <v>0.2054700152855276</v>
       </c>
       <c r="L193" t="n">
-        <v>0.5299315839830313</v>
+        <v>0.5030879296662192</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09231063114465428</v>
+        <v>0.2053297495876066</v>
       </c>
       <c r="N193" t="n">
-        <v>0.7282751273343642</v>
+        <v>0.7022881537951517</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09734276658141643</v>
+        <v>0.2055927477712085</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1154004496925331</v>
+        <v>0.1241266140478655</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09893865289417438</v>
+        <v>0.2055463118724081</v>
       </c>
       <c r="J194" t="n">
-        <v>0.3064633131503108</v>
+        <v>0.3023444247804315</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09713756370902075</v>
+        <v>0.2070752497799458</v>
       </c>
       <c r="L194" t="n">
-        <v>0.5314794871106507</v>
+        <v>0.5056281481295407</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09303180795047189</v>
+        <v>0.2069338882562597</v>
       </c>
       <c r="N194" t="n">
-        <v>0.7238385808391945</v>
+        <v>0.710153473077735</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09810325694533376</v>
+        <v>0.207198941113171</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1151516812117806</v>
+        <v>0.1243783321361878</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09970561919567961</v>
+        <v>0.207139694134985</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3057980102022274</v>
+        <v>0.300948288676746</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09789056807885813</v>
+        <v>0.2086804842743639</v>
       </c>
       <c r="L195" t="n">
-        <v>0.5253606163187547</v>
+        <v>0.5063377712784016</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0937529847562895</v>
+        <v>0.2085380269249129</v>
       </c>
       <c r="N195" t="n">
-        <v>0.7205743399996278</v>
+        <v>0.705875805540505</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09886374730925106</v>
+        <v>0.2088051344551336</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1159204807074925</v>
+        <v>0.1186222079154907</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1004725854971848</v>
+        <v>0.2087330763975618</v>
       </c>
       <c r="J196" t="n">
-        <v>0.3056002781951138</v>
+        <v>0.3013336257688158</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09864357244869548</v>
+        <v>0.2102857187687821</v>
       </c>
       <c r="L196" t="n">
-        <v>0.5263871604943138</v>
+        <v>0.5083163750850024</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09447416156210711</v>
+        <v>0.2101421655935661</v>
       </c>
       <c r="N196" t="n">
-        <v>0.7206940462356812</v>
+        <v>0.7094545539135506</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09962423767316837</v>
+        <v>0.2104113277970961</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1257087295485934</v>
+        <v>0.1238581355711585</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1012395517986901</v>
+        <v>0.2103264586601385</v>
       </c>
       <c r="J197" t="n">
-        <v>0.3021729184820272</v>
+        <v>0.3024001824627695</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09939657681853287</v>
+        <v>0.2118909532632003</v>
       </c>
       <c r="L197" t="n">
-        <v>0.5247713085242985</v>
+        <v>0.5083635355215436</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09519533836792472</v>
+        <v>0.2117463042622193</v>
       </c>
       <c r="N197" t="n">
-        <v>0.7136093409673721</v>
+        <v>0.7083891209269579</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1003847280370857</v>
+        <v>0.2120175211390587</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1255183091040075</v>
+        <v>0.1240860092885757</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1020065181001953</v>
+        <v>0.2119198409227154</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3020187324160256</v>
+        <v>0.3031477051647353</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1001495811883702</v>
+        <v>0.2134961877576185</v>
       </c>
       <c r="L198" t="n">
-        <v>0.5201252492956797</v>
+        <v>0.5065788285602263</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09591651517374233</v>
+        <v>0.2133504429308724</v>
       </c>
       <c r="N198" t="n">
-        <v>0.7095318656147174</v>
+        <v>0.7129789093108154</v>
       </c>
       <c r="O198" t="n">
-        <v>0.101145218401003</v>
+        <v>0.2136237144810213</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1233511007426593</v>
+        <v>0.1273057232531266</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1027734844017005</v>
+        <v>0.2135132231852922</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3034405213501664</v>
+        <v>0.3045759402808416</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1009025855582076</v>
+        <v>0.2151014222520367</v>
       </c>
       <c r="L199" t="n">
-        <v>0.521161171695428</v>
+        <v>0.5061618301732507</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09663769197955994</v>
+        <v>0.2149545815995256</v>
       </c>
       <c r="N199" t="n">
-        <v>0.7083732615977345</v>
+        <v>0.7119233217952103</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1019057087649203</v>
+        <v>0.2152299078229838</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1152089858334732</v>
+        <v>0.1265171716501957</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1035404507032057</v>
+        <v>0.215106605447869</v>
       </c>
       <c r="J200" t="n">
-        <v>0.3029410866375074</v>
+        <v>0.3035846342172166</v>
       </c>
       <c r="K200" t="n">
-        <v>0.101655589928045</v>
+        <v>0.2167066567464549</v>
       </c>
       <c r="L200" t="n">
-        <v>0.5160912646105141</v>
+        <v>0.5071121163328178</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09735886878537757</v>
+        <v>0.2165587202681788</v>
       </c>
       <c r="N200" t="n">
-        <v>0.7088451703364409</v>
+        <v>0.7121217611102304</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1026661991288376</v>
+        <v>0.2168361011649464</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1240938457453737</v>
+        <v>0.1207202486651675</v>
       </c>
       <c r="G201" t="n">
-        <v>0.104307417004711</v>
+        <v>0.2166999877104458</v>
       </c>
       <c r="J201" t="n">
-        <v>0.301723229631106</v>
+        <v>0.3037735333799887</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1024085942978823</v>
+        <v>0.2183118912408731</v>
       </c>
       <c r="L201" t="n">
-        <v>0.5166277169279088</v>
+        <v>0.5121292630111282</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09808004559119517</v>
+        <v>0.218162858936832</v>
       </c>
       <c r="N201" t="n">
-        <v>0.7018592332508535</v>
+        <v>0.7135736299859625</v>
       </c>
       <c r="O201" t="n">
-        <v>0.103426689492755</v>
+        <v>0.218442294506909</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1210075618472852</v>
+        <v>0.1239148484834262</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1050743833062162</v>
+        <v>0.2182933699730226</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3010897516840199</v>
+        <v>0.3045423841752864</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1031615986677197</v>
+        <v>0.2199171257352913</v>
       </c>
       <c r="L202" t="n">
-        <v>0.5129827175345825</v>
+        <v>0.5104128461803826</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09880122239701278</v>
+        <v>0.2197669976054852</v>
       </c>
       <c r="N202" t="n">
-        <v>0.7008270917609898</v>
+        <v>0.7208783311524949</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1041871798566723</v>
+        <v>0.2200484878488715</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.112952015508132</v>
+        <v>0.1241008652903565</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1058413496077214</v>
+        <v>0.2198867522355994</v>
       </c>
       <c r="J203" t="n">
-        <v>0.3004434541493067</v>
+        <v>0.3041909330092377</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1039146030375571</v>
+        <v>0.2215223602297094</v>
       </c>
       <c r="L203" t="n">
-        <v>0.509068455317506</v>
+        <v>0.5124624418127816</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0995223992028304</v>
+        <v>0.2213711362741383</v>
       </c>
       <c r="N203" t="n">
-        <v>0.6957603872868665</v>
+        <v>0.7156352673399149</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1049476702205896</v>
+        <v>0.2216546811908341</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1189290880968386</v>
+        <v>0.1212781932713426</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1066083159092266</v>
+        <v>0.2214801344981762</v>
       </c>
       <c r="J204" t="n">
-        <v>0.298987138380024</v>
+        <v>0.3071189262879712</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1046676074073945</v>
+        <v>0.2231275947241276</v>
       </c>
       <c r="L204" t="n">
-        <v>0.5076971191636501</v>
+        <v>0.5122776258805258</v>
       </c>
       <c r="M204" t="n">
-        <v>0.100243576008648</v>
+        <v>0.2229752749427915</v>
       </c>
       <c r="N204" t="n">
-        <v>0.6949707612485017</v>
+        <v>0.7220438412783097</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1057081605845069</v>
+        <v>0.2232608745327967</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.112929897100997</v>
+        <v>0.1184467266117691</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1073752822107319</v>
+        <v>0.223073516760753</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2980236057292294</v>
+        <v>0.3050261104176152</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1054206117772318</v>
+        <v>0.2247328292185458</v>
       </c>
       <c r="L205" t="n">
-        <v>0.5068808979599854</v>
+        <v>0.512057974355816</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1009647528144656</v>
+        <v>0.2245794136114447</v>
       </c>
       <c r="N205" t="n">
-        <v>0.6968698550659123</v>
+        <v>0.7183034556977668</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1064686509484242</v>
+        <v>0.2248670678747592</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1209351095086792</v>
+        <v>0.1296063594970203</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1081422485122371</v>
+        <v>0.2246668990233298</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2957556575499806</v>
+        <v>0.3064122318042979</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1061736161470692</v>
+        <v>0.226338063712964</v>
       </c>
       <c r="L206" t="n">
-        <v>0.5052319805934824</v>
+        <v>0.5156030632108529</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1016859296202832</v>
+        <v>0.2261835522800978</v>
       </c>
       <c r="N206" t="n">
-        <v>0.6937693101591151</v>
+        <v>0.7208135133283742</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1072291413123415</v>
+        <v>0.2264732612167218</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1239443763714558</v>
+        <v>0.1207569861124807</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1089092148137423</v>
+        <v>0.2262602812859066</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2960860951953351</v>
+        <v>0.3068770368541477</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1069266205169066</v>
+        <v>0.2279432982073822</v>
       </c>
       <c r="L207" t="n">
-        <v>0.503262555951112</v>
+        <v>0.5148124684178371</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1024071064261008</v>
+        <v>0.227787690948751</v>
       </c>
       <c r="N207" t="n">
-        <v>0.6930587670960286</v>
+        <v>0.7188734169002196</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1079896316762589</v>
+        <v>0.2280794545586844</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1139578098536791</v>
+        <v>0.1238985006435347</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1096761811152476</v>
+        <v>0.2278536635484834</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2941177200183507</v>
+        <v>0.307420271973293</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1076796248867439</v>
+        <v>0.2295485327018004</v>
       </c>
       <c r="L208" t="n">
-        <v>0.5028848129198449</v>
+        <v>0.5165857659489692</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1031282832319184</v>
+        <v>0.2293918296174042</v>
       </c>
       <c r="N208" t="n">
-        <v>0.6837522187150542</v>
+        <v>0.7217825691433895</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1087501220401762</v>
+        <v>0.2296856479006469</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1259755221197015</v>
+        <v>0.1240307972755668</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1104431474167528</v>
+        <v>0.2294470458110602</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2926442464620566</v>
+        <v>0.3089416835678619</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1084326292565813</v>
+        <v>0.2311537671962186</v>
       </c>
       <c r="L209" t="n">
-        <v>0.5005109403866517</v>
+        <v>0.5162225317764502</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1038494600377361</v>
+        <v>0.2309959682860574</v>
       </c>
       <c r="N209" t="n">
-        <v>0.6860396024035469</v>
+        <v>0.7217403727879721</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1095106124040935</v>
+        <v>0.2312918412426095</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1169976253338754</v>
+        <v>0.1281537701939612</v>
       </c>
       <c r="G210" t="n">
-        <v>0.111210113718258</v>
+        <v>0.2310404280736371</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2942444915341016</v>
+        <v>0.3074410180439832</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1091856336264187</v>
+        <v>0.2327590016906367</v>
       </c>
       <c r="L210" t="n">
-        <v>0.4969531272385029</v>
+        <v>0.5177223418724802</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1045706368435537</v>
+        <v>0.2326001069547106</v>
       </c>
       <c r="N210" t="n">
-        <v>0.6841208829491401</v>
+        <v>0.7251462305640552</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1102711027680108</v>
+        <v>0.2328980345845721</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1200242316605531</v>
+        <v>0.1202673135841026</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1119770800197633</v>
+        <v>0.2326338103362139</v>
       </c>
       <c r="J211" t="n">
-        <v>0.2916175319191286</v>
+        <v>0.3070180218077848</v>
       </c>
       <c r="K211" t="n">
-        <v>0.109938637996256</v>
+        <v>0.2343642361850549</v>
       </c>
       <c r="L211" t="n">
-        <v>0.4965235623623694</v>
+        <v>0.5150847722092605</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1052918136493713</v>
+        <v>0.2342042456233637</v>
       </c>
       <c r="N211" t="n">
-        <v>0.681096025139468</v>
+        <v>0.7238995452017256</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1110315931319281</v>
+        <v>0.2345042279265346</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1220554532640869</v>
+        <v>0.1223713216313752</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1127440463212685</v>
+        <v>0.2342271925987907</v>
       </c>
       <c r="J212" t="n">
-        <v>0.2918634840536826</v>
+        <v>0.308772441265395</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1106916423660934</v>
+        <v>0.2359694706794731</v>
       </c>
       <c r="L212" t="n">
-        <v>0.493334434645222</v>
+        <v>0.5159093987589913</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1060129904551889</v>
+        <v>0.2358083842920169</v>
       </c>
       <c r="N212" t="n">
-        <v>0.6812649937621633</v>
+        <v>0.7288997194310713</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1117920834958454</v>
+        <v>0.2361104212684972</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1250914023088293</v>
+        <v>0.1274656885211636</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1135110126227737</v>
+        <v>0.2358205748613675</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2889824643743081</v>
+        <v>0.3100040228229424</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1114446467359308</v>
+        <v>0.2375747051738913</v>
       </c>
       <c r="L213" t="n">
-        <v>0.493297932974031</v>
+        <v>0.5196957974938736</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1067341672610065</v>
+        <v>0.2374125229606701</v>
       </c>
       <c r="N213" t="n">
-        <v>0.6760277536048602</v>
+        <v>0.7249461559821799</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1125525738597628</v>
+        <v>0.2377166146104598</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1181321909591324</v>
+        <v>0.1265503084388522</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1142779789242789</v>
+        <v>0.2374139571239443</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2891745893175502</v>
+        <v>0.3100125128865553</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1121976511057682</v>
+        <v>0.2391799396683095</v>
       </c>
       <c r="L214" t="n">
-        <v>0.4905262462357673</v>
+        <v>0.5203435443861079</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1074553440668241</v>
+        <v>0.2390166616293233</v>
       </c>
       <c r="N214" t="n">
-        <v>0.6737842694551921</v>
+        <v>0.7279382575851387</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1133130642236801</v>
+        <v>0.2393228079524223</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1241779313793487</v>
+        <v>0.1326250755698253</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1150449452257842</v>
+        <v>0.2390073393865211</v>
       </c>
       <c r="J215" t="n">
-        <v>0.286539975319954</v>
+        <v>0.3099976578623618</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1129506554756055</v>
+        <v>0.2407851741627277</v>
       </c>
       <c r="L215" t="n">
-        <v>0.4909955083002295</v>
+        <v>0.5188522154078948</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1081765208726417</v>
+        <v>0.2406208002979764</v>
       </c>
       <c r="N215" t="n">
-        <v>0.6684345061007932</v>
+        <v>0.727375426970035</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1140735545875974</v>
+        <v>0.2409290012943849</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1162287357338305</v>
+        <v>0.1226898840994674</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1158119115272894</v>
+        <v>0.2406007216490979</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2874787388180641</v>
+        <v>0.3088592041564905</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1137036598454429</v>
+        <v>0.2423904086571458</v>
       </c>
       <c r="L216" t="n">
-        <v>0.4915792085678444</v>
+        <v>0.519421386531435</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1088976976784593</v>
+        <v>0.2422249389666296</v>
       </c>
       <c r="N216" t="n">
-        <v>0.6718784283292965</v>
+        <v>0.7280570668669568</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1148340449515147</v>
+        <v>0.2425351946363475</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1222847161869302</v>
+        <v>0.120744628213163</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1165788778287946</v>
+        <v>0.2421941039116747</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2844909962484253</v>
+        <v>0.3099968981750696</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1144566642152803</v>
+        <v>0.243995643151564</v>
       </c>
       <c r="L217" t="n">
-        <v>0.4903656827203844</v>
+        <v>0.5207506337289296</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1096188744842769</v>
+        <v>0.2438290776352828</v>
       </c>
       <c r="N217" t="n">
-        <v>0.6640160009283353</v>
+        <v>0.7302825800059913</v>
       </c>
       <c r="O217" t="n">
-        <v>0.115594535315432</v>
+        <v>0.2441413879783101</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.119345984903</v>
+        <v>0.1197892020962964</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1173458441302998</v>
+        <v>0.2437874861742515</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2840768640475828</v>
+        <v>0.3089104863242275</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1152096685851176</v>
+        <v>0.2456008776459822</v>
       </c>
       <c r="L218" t="n">
-        <v>0.4888555226545185</v>
+        <v>0.5200395329725787</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1103400512900946</v>
+        <v>0.245433216303936</v>
       </c>
       <c r="N218" t="n">
-        <v>0.6618471886855442</v>
+        <v>0.7277513691172262</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1163550256793493</v>
+        <v>0.2457475813202726</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1174126540463924</v>
+        <v>0.1308234999342521</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1181128104318051</v>
+        <v>0.2453808684368283</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2850364586520812</v>
+        <v>0.3090997150100925</v>
       </c>
       <c r="K219" t="n">
-        <v>0.115962672954955</v>
+        <v>0.2472061121404004</v>
       </c>
       <c r="L219" t="n">
-        <v>0.4908493202669156</v>
+        <v>0.5187876602345831</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1110612280959122</v>
+        <v>0.2470373549725892</v>
       </c>
       <c r="N219" t="n">
-        <v>0.6633719563885558</v>
+        <v>0.729362836930749</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1171155160432667</v>
+        <v>0.2473537746622352</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1234848357814597</v>
+        <v>0.1228474159124145</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1188797767333103</v>
+        <v>0.2469742506994051</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2836698964984656</v>
+        <v>0.3103643306387928</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1167156773247924</v>
+        <v>0.2488113466348186</v>
       </c>
       <c r="L220" t="n">
-        <v>0.4862476674542459</v>
+        <v>0.5211945914871438</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1117824049017298</v>
+        <v>0.2486414936412423</v>
       </c>
       <c r="N220" t="n">
-        <v>0.6574902688250048</v>
+        <v>0.730616386176647</v>
       </c>
       <c r="O220" t="n">
-        <v>0.117876006407184</v>
+        <v>0.2489599680041978</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1245626422725541</v>
+        <v>0.1318608442161681</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1196467430348155</v>
+        <v>0.2485676329619819</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2807772940232807</v>
+        <v>0.3101040796164568</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1174686816946297</v>
+        <v>0.2504165811292368</v>
       </c>
       <c r="L221" t="n">
-        <v>0.4849511561131777</v>
+        <v>0.5202599027024613</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1125035817075474</v>
+        <v>0.2502456323098955</v>
       </c>
       <c r="N221" t="n">
-        <v>0.6600020907825239</v>
+        <v>0.7316114195850081</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1186364967711013</v>
+        <v>0.2505661613461603</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1216461856840282</v>
+        <v>0.1208548188807166</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1204137093363208</v>
+        <v>0.2501610152245587</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2809587676630715</v>
+        <v>0.310418708349213</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1182216860644671</v>
+        <v>0.2520218156236549</v>
       </c>
       <c r="L222" t="n">
-        <v>0.4876603781403807</v>
+        <v>0.5198831698527357</v>
       </c>
       <c r="M222" t="n">
-        <v>0.113224758513365</v>
+        <v>0.2518497709785487</v>
       </c>
       <c r="N222" t="n">
-        <v>0.652707387048747</v>
+        <v>0.7292473398859198</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1193969871350186</v>
+        <v>0.2521723546881229</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1137355781802342</v>
+        <v>0.1226172424268697</v>
       </c>
       <c r="G223" t="n">
-        <v>0.121180675637826</v>
+        <v>0.2517543974871355</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2780144338543828</v>
+        <v>0.3105876752359171</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1189746904343045</v>
+        <v>0.2536270501180731</v>
       </c>
       <c r="L223" t="n">
-        <v>0.4841759254325242</v>
+        <v>0.5196948024651279</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1139459353191826</v>
+        <v>0.2534539096472019</v>
       </c>
       <c r="N223" t="n">
-        <v>0.6555061224113079</v>
+        <v>0.7285094159684025</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1201574774989359</v>
+        <v>0.2537785480300854</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1148309319255245</v>
+        <v>0.1230825669378904</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1219476419393312</v>
+        <v>0.2533477797497123</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2766444090337596</v>
+        <v>0.3087283271531034</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1197276948041418</v>
+        <v>0.2552322846124913</v>
       </c>
       <c r="L224" t="n">
-        <v>0.4849983898862772</v>
+        <v>0.5172891202160456</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1146671121250002</v>
+        <v>0.255058048315855</v>
       </c>
       <c r="N224" t="n">
-        <v>0.6457982616578399</v>
+        <v>0.7253567911906635</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1209179678628532</v>
+        <v>0.255384741372048</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1239323590842513</v>
+        <v>0.1232837794199562</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1227146082408364</v>
+        <v>0.2549411620122892</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2769488096377466</v>
+        <v>0.306817336845473</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1204806991739792</v>
+        <v>0.2568375191069095</v>
       </c>
       <c r="L225" t="n">
-        <v>0.4823283633983091</v>
+        <v>0.5126967114405062</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1153882889308179</v>
+        <v>0.2566621869845082</v>
       </c>
       <c r="N225" t="n">
-        <v>0.6477837695759769</v>
+        <v>0.7178658742899444</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1216784582267705</v>
+        <v>0.2569909347140106</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1180399718207671</v>
+        <v>0.1302538668792451</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1234815745423417</v>
+        <v>0.2565345442748659</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2741277521028889</v>
+        <v>0.3054337605243629</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1212337035438166</v>
+        <v>0.2584427536013277</v>
       </c>
       <c r="L226" t="n">
-        <v>0.485266437865289</v>
+        <v>0.5101497639989491</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1161094657366355</v>
+        <v>0.2582663256531614</v>
       </c>
       <c r="N226" t="n">
-        <v>0.6466626109533522</v>
+        <v>0.7126228602090305</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1224389485906879</v>
+        <v>0.2585971280559731</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1141538822994242</v>
+        <v>0.1190258163219348</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1242485408438469</v>
+        <v>0.2581279265374428</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2728813528657311</v>
+        <v>0.3008566544011103</v>
       </c>
       <c r="K227" t="n">
-        <v>0.121986707913654</v>
+        <v>0.2600479880957459</v>
       </c>
       <c r="L227" t="n">
-        <v>0.4838132051838865</v>
+        <v>0.5069804657518127</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1168306425424531</v>
+        <v>0.2598704643218146</v>
       </c>
       <c r="N227" t="n">
-        <v>0.6407347505775998</v>
+        <v>0.7130139438907079</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1231994389546052</v>
+        <v>0.2602033213979357</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1182742026845749</v>
+        <v>0.1186326147542032</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1250155071453521</v>
+        <v>0.2597213088000196</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2723097283628183</v>
+        <v>0.2999650746870524</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1227397122834913</v>
+        <v>0.261653222590164</v>
       </c>
       <c r="L228" t="n">
-        <v>0.4840692572507705</v>
+        <v>0.4985210045595366</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1175518193482707</v>
+        <v>0.2614746029904678</v>
       </c>
       <c r="N228" t="n">
-        <v>0.6415001532363529</v>
+        <v>0.6985253202777615</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1239599293185225</v>
+        <v>0.2618095147398983</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1164010451405716</v>
+        <v>0.1241072491822278</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1257824734468574</v>
+        <v>0.2613146910625964</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2710129950306955</v>
+        <v>0.2957380775935262</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1234927166533287</v>
+        <v>0.2632584570845822</v>
       </c>
       <c r="L229" t="n">
-        <v>0.4837351859626103</v>
+        <v>0.4920035682825598</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1182729961540883</v>
+        <v>0.2630787416591209</v>
       </c>
       <c r="N229" t="n">
-        <v>0.6361587837172451</v>
+        <v>0.6915431843129778</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1247204196824398</v>
+        <v>0.2634157080818608</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1275345218317666</v>
+        <v>0.1174827066121867</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1265494397483626</v>
+        <v>0.2629080733251732</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2676912693059072</v>
+        <v>0.2906547193318691</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1242457210231661</v>
+        <v>0.2648636915790004</v>
       </c>
       <c r="L230" t="n">
-        <v>0.4796115832160752</v>
+        <v>0.4896603447813213</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1189941729599059</v>
+        <v>0.2646828803277741</v>
       </c>
       <c r="N230" t="n">
-        <v>0.6332106068079106</v>
+        <v>0.6837537309391419</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1254809100463571</v>
+        <v>0.2650219014238234</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1146747449225122</v>
+        <v>0.1157919740502576</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1273164060498678</v>
+        <v>0.26450145558775</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2682446676249986</v>
+        <v>0.2870940561134182</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1249987253930034</v>
+        <v>0.2664689260734186</v>
       </c>
       <c r="L231" t="n">
-        <v>0.4800990409078346</v>
+        <v>0.4790235219162601</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1197153497657235</v>
+        <v>0.2662870189964273</v>
       </c>
       <c r="N231" t="n">
-        <v>0.6324555872959825</v>
+        <v>0.6776431550990394</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1262414004102744</v>
+        <v>0.266628094765786</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1258218265771609</v>
+        <v>0.1160680385026181</v>
       </c>
       <c r="G232" t="n">
-        <v>0.128083372351373</v>
+        <v>0.2660948378503268</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2652733064245144</v>
+        <v>0.2841351441495105</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1257517297628408</v>
+        <v>0.2680741605678368</v>
       </c>
       <c r="L232" t="n">
-        <v>0.4770981509345573</v>
+        <v>0.4734252875478155</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1204365265715411</v>
+        <v>0.2678911576650805</v>
       </c>
       <c r="N232" t="n">
-        <v>0.6264936899690947</v>
+        <v>0.6625976517354562</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1270018907741917</v>
+        <v>0.2682342881077485</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1279758789600649</v>
+        <v>0.1123438869754462</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1288503386528783</v>
+        <v>0.2676882201129036</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2646773021409997</v>
+        <v>0.2789570396514833</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1265047341326782</v>
+        <v>0.269679395062255</v>
       </c>
       <c r="L233" t="n">
-        <v>0.4761095051929131</v>
+        <v>0.4692978295364263</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1211577033773587</v>
+        <v>0.2694952963337336</v>
       </c>
       <c r="N233" t="n">
-        <v>0.6250248796148805</v>
+        <v>0.6580034157911778</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1277623811381091</v>
+        <v>0.2698404814497111</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1201370142355766</v>
+        <v>0.1046525064749196</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1296173049543835</v>
+        <v>0.2692816023754804</v>
       </c>
       <c r="J234" t="n">
-        <v>0.262056771210999</v>
+        <v>0.2736387988306738</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1272577385025155</v>
+        <v>0.2712846295566732</v>
       </c>
       <c r="L234" t="n">
-        <v>0.4766336955795709</v>
+        <v>0.4584733357425318</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1218788801831763</v>
+        <v>0.2710994350023868</v>
       </c>
       <c r="N234" t="n">
-        <v>0.6282491210209737</v>
+        <v>0.6484466422089896</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1285228715020264</v>
+        <v>0.2714466747916737</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1273053445680483</v>
+        <v>0.104026884007216</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1303842712558887</v>
+        <v>0.2708749846380572</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2612118300710575</v>
+        <v>0.271759477898419</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1280107428723529</v>
+        <v>0.2728898640510913</v>
       </c>
       <c r="L235" t="n">
-        <v>0.4769713139912</v>
+        <v>0.4561839940265711</v>
       </c>
       <c r="M235" t="n">
-        <v>0.122600056988994</v>
+        <v>0.27270357367104</v>
       </c>
       <c r="N235" t="n">
-        <v>0.6195663789750079</v>
+        <v>0.6384135259316777</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1292833618659437</v>
+        <v>0.2730528681336362</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1254809821218325</v>
+        <v>0.1105000065785134</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1311512375573939</v>
+        <v>0.272468366900634</v>
       </c>
       <c r="J236" t="n">
-        <v>0.26034259515772</v>
+        <v>0.2688981330660561</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1287637472421903</v>
+        <v>0.2744950985455095</v>
       </c>
       <c r="L236" t="n">
-        <v>0.4779229523244698</v>
+        <v>0.4486619922489831</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1233212337948116</v>
+        <v>0.2743077123396931</v>
       </c>
       <c r="N236" t="n">
-        <v>0.6206766182646168</v>
+        <v>0.6269902619020273</v>
       </c>
       <c r="O236" t="n">
-        <v>0.130043852229861</v>
+        <v>0.2746590614755988</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1176640390612813</v>
+        <v>0.102100880129298</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1319182038588992</v>
+        <v>0.2740617491632109</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2577491829075315</v>
+        <v>0.2648337520253096</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1295167516120277</v>
+        <v>0.2761003330399277</v>
       </c>
       <c r="L237" t="n">
-        <v>0.4764892024760493</v>
+        <v>0.4402390679755198</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1240424106006292</v>
+        <v>0.2759118510083464</v>
       </c>
       <c r="N237" t="n">
-        <v>0.6165798036774337</v>
+        <v>0.621763041764116</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1308043425937783</v>
+        <v>0.2762652548175614</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1208546275507471</v>
+        <v>0.09974362642394788</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1326851701604044</v>
+        <v>0.2756551314257876</v>
       </c>
       <c r="J238" t="n">
-        <v>0.2564317097570367</v>
+        <v>0.2613311429673034</v>
       </c>
       <c r="K238" t="n">
-        <v>0.130269755981865</v>
+        <v>0.2777055675343459</v>
       </c>
       <c r="L238" t="n">
-        <v>0.4754706563426081</v>
+        <v>0.4378763917059406</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1247635874064468</v>
+        <v>0.2775159896769995</v>
       </c>
       <c r="N238" t="n">
-        <v>0.6149759000010924</v>
+        <v>0.614429627832465</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1315648329576956</v>
+        <v>0.2778714481595239</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1260528597545825</v>
+        <v>0.09938136198078915</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1334521364619096</v>
+        <v>0.2772485136883645</v>
       </c>
       <c r="J239" t="n">
-        <v>0.2555902921427805</v>
+        <v>0.2592166498625652</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1310227603517024</v>
+        <v>0.2793108020287641</v>
       </c>
       <c r="L239" t="n">
-        <v>0.476067905820815</v>
+        <v>0.4338938252906253</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1254847642122644</v>
+        <v>0.2791201283456527</v>
       </c>
       <c r="N239" t="n">
-        <v>0.6161648720232269</v>
+        <v>0.6026682478856502</v>
       </c>
       <c r="O239" t="n">
-        <v>0.132325323321613</v>
+        <v>0.2794776415014865</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1182588478371395</v>
+        <v>0.1060140086523809</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1342191027634149</v>
+        <v>0.2788418959509413</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2521250465013078</v>
+        <v>0.2557900854239987</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1317757647215398</v>
+        <v>0.2809160365231823</v>
       </c>
       <c r="L240" t="n">
-        <v>0.4725815428073395</v>
+        <v>0.4238910555716301</v>
       </c>
       <c r="M240" t="n">
-        <v>0.126205941018082</v>
+        <v>0.2807242670143059</v>
       </c>
       <c r="N240" t="n">
-        <v>0.6115466845314701</v>
+        <v>0.6014784608209476</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1330858136855303</v>
+        <v>0.2810838348434491</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1274727039627707</v>
+        <v>0.1036414882912822</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1349860690649201</v>
+        <v>0.2804352782135181</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2514360892691636</v>
+        <v>0.2506512623645074</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1325287690913771</v>
+        <v>0.2825212710176004</v>
       </c>
       <c r="L241" t="n">
-        <v>0.4753121591988509</v>
+        <v>0.421467769391012</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1269271178238996</v>
+        <v>0.2823284056829591</v>
       </c>
       <c r="N241" t="n">
-        <v>0.6098213023134562</v>
+        <v>0.5902598255356331</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1338463040494476</v>
+        <v>0.2826900281854116</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1176945402958282</v>
+        <v>0.1052637227500522</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1357530353664253</v>
+        <v>0.2820286604760949</v>
       </c>
       <c r="J242" t="n">
-        <v>0.2508235368828927</v>
+        <v>0.2477999933969949</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1332817734612145</v>
+        <v>0.2841265055120186</v>
       </c>
       <c r="L242" t="n">
-        <v>0.4733603468920184</v>
+        <v>0.4131236535908275</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1276482946297172</v>
+        <v>0.2839325443516122</v>
       </c>
       <c r="N242" t="n">
-        <v>0.6025886901568185</v>
+        <v>0.5826119009269826</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1346067944133649</v>
+        <v>0.2842962215273742</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1169244690006646</v>
+        <v>0.10188063388125</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1365200016679305</v>
+        <v>0.2836220427386717</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2488875057790398</v>
+        <v>0.2440360912343652</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1340347778310519</v>
+        <v>0.2857317400064368</v>
       </c>
       <c r="L243" t="n">
-        <v>0.4729266977835113</v>
+        <v>0.4074583950131333</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1283694714355349</v>
+        <v>0.2855366830202654</v>
       </c>
       <c r="N243" t="n">
-        <v>0.5997488128491903</v>
+        <v>0.5728342458922715</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1353672847772822</v>
+        <v>0.2859024148693368</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1201626022416321</v>
+        <v>0.1004921435374347</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1372869679694358</v>
+        <v>0.2852154250012485</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2455281123941501</v>
+        <v>0.2409593685895217</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1347877822008892</v>
+        <v>0.287336974500855</v>
       </c>
       <c r="L244" t="n">
-        <v>0.4710118037699986</v>
+        <v>0.4060716804999861</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1290906482413525</v>
+        <v>0.2871408216889186</v>
       </c>
       <c r="N244" t="n">
-        <v>0.5998016351782061</v>
+        <v>0.5687264193287755</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1361277751411996</v>
+        <v>0.2875086082112993</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.128409052183083</v>
+        <v>0.09409817357116529</v>
       </c>
       <c r="G245" t="n">
-        <v>0.138053934270941</v>
+        <v>0.2868088072638253</v>
       </c>
       <c r="J245" t="n">
-        <v>0.2446454731647682</v>
+        <v>0.2385696381753682</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1355407865707266</v>
+        <v>0.2889422089952732</v>
       </c>
       <c r="L245" t="n">
-        <v>0.4707162567481497</v>
+        <v>0.3991631968934424</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1298118250471701</v>
+        <v>0.2887449603575717</v>
       </c>
       <c r="N245" t="n">
-        <v>0.5995471219314989</v>
+        <v>0.5585879801337712</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1368882655051168</v>
+        <v>0.2891148015532619</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1186639309893698</v>
+        <v>0.0986986458350009</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1388209005724462</v>
+        <v>0.2884021895264021</v>
       </c>
       <c r="J246" t="n">
-        <v>0.2423397045274392</v>
+        <v>0.2354667127048082</v>
       </c>
       <c r="K246" t="n">
-        <v>0.136293790940564</v>
+        <v>0.2905474434896914</v>
       </c>
       <c r="L246" t="n">
-        <v>0.472240648614634</v>
+        <v>0.3946326310355589</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1305330018529877</v>
+        <v>0.2903490990262249</v>
       </c>
       <c r="N246" t="n">
-        <v>0.5957852378967021</v>
+        <v>0.5546184872045337</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1376487558690342</v>
+        <v>0.2907209948952245</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1289273508248447</v>
+        <v>0.09429348218150072</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1395878668739514</v>
+        <v>0.2899955717889789</v>
       </c>
       <c r="J247" t="n">
-        <v>0.2416109229187079</v>
+        <v>0.2306504048907455</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1370467953104014</v>
+        <v>0.2921526779841095</v>
       </c>
       <c r="L247" t="n">
-        <v>0.4682855712661204</v>
+        <v>0.3888796697683918</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1312541786588053</v>
+        <v>0.2919532376948781</v>
       </c>
       <c r="N247" t="n">
-        <v>0.5911159478614501</v>
+        <v>0.5425174994383388</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1384092462329515</v>
+        <v>0.292327188237187</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1221994238538602</v>
+        <v>0.08888260446322371</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1403548331754567</v>
+        <v>0.2915889540515557</v>
       </c>
       <c r="J248" t="n">
-        <v>0.2410592447751191</v>
+        <v>0.2298205274460837</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1377997996802388</v>
+        <v>0.2937579124785277</v>
       </c>
       <c r="L248" t="n">
-        <v>0.4705516165992785</v>
+        <v>0.3804039999339984</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1319753554646229</v>
+        <v>0.2935573763635312</v>
       </c>
       <c r="N248" t="n">
-        <v>0.5904392166133756</v>
+        <v>0.5371845757324625</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1391697365968688</v>
+        <v>0.2939333815791496</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1204802622407684</v>
+        <v>0.08446593453272905</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1411217994769619</v>
+        <v>0.2931823363141325</v>
       </c>
       <c r="J249" t="n">
-        <v>0.2380847865332179</v>
+        <v>0.2236768930837265</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1385528040500761</v>
+        <v>0.2953631469729459</v>
       </c>
       <c r="L249" t="n">
-        <v>0.4686393765107775</v>
+        <v>0.3769053083744353</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1326965322704405</v>
+        <v>0.2951615150321844</v>
       </c>
       <c r="N249" t="n">
-        <v>0.588555008940113</v>
+        <v>0.5320192749841803</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1399302269607861</v>
+        <v>0.2955395749211121</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1187699781499219</v>
+        <v>0.08404339424257579</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1418887657784671</v>
+        <v>0.2947757185767093</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2362876646295489</v>
+        <v>0.2218193145165775</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1393058084199135</v>
+        <v>0.2969683814673641</v>
       </c>
       <c r="L250" t="n">
-        <v>0.4688494428972861</v>
+        <v>0.3714832819317586</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1334177090762581</v>
+        <v>0.2967656537008376</v>
       </c>
       <c r="N250" t="n">
-        <v>0.5879632896292954</v>
+        <v>0.5208211560907685</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1406907173247035</v>
+        <v>0.2971457682630747</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1300686837456728</v>
+        <v>0.08561490544532299</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1426557320799724</v>
+        <v>0.2963691008392861</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2346679955006572</v>
+        <v>0.2171476044575404</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1400588127897509</v>
+        <v>0.2985736159617823</v>
       </c>
       <c r="L251" t="n">
-        <v>0.4695824076554744</v>
+        <v>0.3662376074480251</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1341388858820757</v>
+        <v>0.2983697923694908</v>
       </c>
       <c r="N251" t="n">
-        <v>0.5795640234685566</v>
+        <v>0.5157897779495024</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1414512076886207</v>
+        <v>0.2987519616050373</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1233764911923737</v>
+        <v>0.09018038999352987</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1434226983814776</v>
+        <v>0.297962483101863</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2332258955830876</v>
+        <v>0.2138615756195189</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1408118171595882</v>
+        <v>0.3001788504562005</v>
       </c>
       <c r="L252" t="n">
-        <v>0.4659388626820112</v>
+        <v>0.3584679717652919</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1348600626878934</v>
+        <v>0.299973931038144</v>
       </c>
       <c r="N252" t="n">
-        <v>0.5789571752455303</v>
+        <v>0.504724699457658</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1422116980525381</v>
+        <v>0.3003581549469998</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1206935126543767</v>
+        <v>0.08573976973975536</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1441896646829828</v>
+        <v>0.2995558653644398</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2301614813133848</v>
+        <v>0.2111610407154166</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1415648215294256</v>
+        <v>0.3017840849506186</v>
       </c>
       <c r="L253" t="n">
-        <v>0.4659193998735657</v>
+        <v>0.3567740617256152</v>
       </c>
       <c r="M253" t="n">
-        <v>0.135581239493711</v>
+        <v>0.3015780697067971</v>
       </c>
       <c r="N253" t="n">
-        <v>0.57574270974785</v>
+        <v>0.4999254795125109</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1429721884164554</v>
+        <v>0.3019643482889624</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1290198602960344</v>
+        <v>0.08329296653655865</v>
       </c>
       <c r="G254" t="n">
-        <v>0.144956630984488</v>
+        <v>0.3011492476270166</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2292748691280941</v>
+        <v>0.2081458124581372</v>
       </c>
       <c r="K254" t="n">
-        <v>0.142317825899263</v>
+        <v>0.3033893194450368</v>
       </c>
       <c r="L254" t="n">
-        <v>0.4696246111268072</v>
+        <v>0.3485555641710517</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1363024162995286</v>
+        <v>0.3031822083754503</v>
       </c>
       <c r="N254" t="n">
-        <v>0.5760205917631491</v>
+        <v>0.4899916770113371</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1437326787803727</v>
+        <v>0.303570541630925</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1243556462816988</v>
+        <v>0.08083990223649887</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1457235972859933</v>
+        <v>0.3027426298895934</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2251661754637601</v>
+        <v>0.2061157035605845</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1430708302691003</v>
+        <v>0.304994553939455</v>
       </c>
       <c r="L255" t="n">
-        <v>0.4697550883384052</v>
+        <v>0.3401121659436581</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1370235931053462</v>
+        <v>0.3047863470441035</v>
       </c>
       <c r="N255" t="n">
-        <v>0.5702907860790618</v>
+        <v>0.4844228508514124</v>
       </c>
       <c r="O255" t="n">
-        <v>0.14449316914429</v>
+        <v>0.3051767349728875</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1207009827757226</v>
+        <v>0.07538049869213495</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1464905635874985</v>
+        <v>0.3043360121521702</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2238355167569276</v>
+        <v>0.2025705267356619</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1438238346389377</v>
+        <v>0.3065997884338732</v>
       </c>
       <c r="L256" t="n">
-        <v>0.4650114234050284</v>
+        <v>0.3372435538854909</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1377447699111638</v>
+        <v>0.3063904857127567</v>
       </c>
       <c r="N256" t="n">
-        <v>0.5699532574832211</v>
+        <v>0.4712185599300124</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1452536595082073</v>
+        <v>0.3067829283148501</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.125055981942458</v>
+        <v>0.07191467775602617</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1472575298890037</v>
+        <v>0.305929394414747</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2210830094441417</v>
+        <v>0.1966100946962732</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1445768390087751</v>
+        <v>0.3082050229282914</v>
       </c>
       <c r="L257" t="n">
-        <v>0.4661942082233467</v>
+        <v>0.3295494148386068</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1384659467169814</v>
+        <v>0.3079946243814098</v>
       </c>
       <c r="N257" t="n">
-        <v>0.5645079707632608</v>
+        <v>0.461378363144413</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1460141498721247</v>
+        <v>0.3083891216568126</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1314207559462573</v>
+        <v>0.07044236128073145</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1480244961905089</v>
+        <v>0.3075227766773238</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2195087699619471</v>
+        <v>0.194634220155322</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1453298433786125</v>
+        <v>0.3098102574227096</v>
       </c>
       <c r="L258" t="n">
-        <v>0.4654040346900289</v>
+        <v>0.3231294356450626</v>
       </c>
       <c r="M258" t="n">
-        <v>0.139187123522799</v>
+        <v>0.309598763050063</v>
       </c>
       <c r="N258" t="n">
-        <v>0.5634548907068146</v>
+        <v>0.4593018193918897</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1467746402360419</v>
+        <v>0.3099953149987753</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1337954169514728</v>
+        <v>0.07896347111881005</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1487914624920142</v>
+        <v>0.3091161589399006</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2191129147468889</v>
+        <v>0.190942715825712</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1460828477484498</v>
+        <v>0.3114154919171278</v>
       </c>
       <c r="L259" t="n">
-        <v>0.4654414947017442</v>
+        <v>0.3193833031469148</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1399083003286166</v>
+        <v>0.3112029017187162</v>
       </c>
       <c r="N259" t="n">
-        <v>0.5595939821015161</v>
+        <v>0.4447884875697188</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1475351305999593</v>
+        <v>0.3116015083407378</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.122180077122457</v>
+        <v>0.07247792912282094</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1495584287935194</v>
+        <v>0.3107095412024775</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2148955602355119</v>
+        <v>0.186635394420347</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1468358521182872</v>
+        <v>0.3130207264115459</v>
       </c>
       <c r="L260" t="n">
-        <v>0.4656071801551622</v>
+        <v>0.3148107041862199</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1406294771344342</v>
+        <v>0.3128070403873694</v>
       </c>
       <c r="N260" t="n">
-        <v>0.559125209734999</v>
+        <v>0.4371379265751758</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1482956209638766</v>
+        <v>0.3132077016827004</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1355748486235621</v>
+        <v>0.06598565714532323</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1503253950950247</v>
+        <v>0.3123029234650542</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2141568228643607</v>
+        <v>0.1826120686521304</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1475888564881246</v>
+        <v>0.3146259609059641</v>
       </c>
       <c r="L261" t="n">
-        <v>0.4689016829469519</v>
+        <v>0.3056113256050347</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1413506539402519</v>
+        <v>0.3144111790560226</v>
       </c>
       <c r="N261" t="n">
-        <v>0.5564485383948967</v>
+        <v>0.4304496953055365</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1490561113277939</v>
+        <v>0.3148138950246629</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1299798436191406</v>
+        <v>0.07248657703887609</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1510923613965299</v>
+        <v>0.313896305727631</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2103968190699805</v>
+        <v>0.178872551233966</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1483418608579619</v>
+        <v>0.3162311954003823</v>
       </c>
       <c r="L262" t="n">
-        <v>0.4689255949737827</v>
+        <v>0.301184854245416</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1420718307460695</v>
+        <v>0.3160153177246757</v>
       </c>
       <c r="N262" t="n">
-        <v>0.556363932868843</v>
+        <v>0.4219233526580768</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1498166016917112</v>
+        <v>0.3164200883666255</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1333951742735446</v>
+        <v>0.07498061065603853</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1518593276980351</v>
+        <v>0.3154896879902078</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2106156652889161</v>
+        <v>0.1773166548787575</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1490948652277993</v>
+        <v>0.3178364298948005</v>
       </c>
       <c r="L263" t="n">
-        <v>0.4688795081323236</v>
+        <v>0.2944309769494199</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1427930075518871</v>
+        <v>0.3176194563933289</v>
       </c>
       <c r="N263" t="n">
-        <v>0.5492713579444715</v>
+        <v>0.4184584575300722</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1505770920556286</v>
+        <v>0.3180262817085881</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1328209527511267</v>
+        <v>0.06346767984936966</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1526262939995403</v>
+        <v>0.3170830702527846</v>
       </c>
       <c r="J264" t="n">
-        <v>0.2069134779577125</v>
+        <v>0.1727441922994085</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1498478695976367</v>
+        <v>0.3194416643892187</v>
       </c>
       <c r="L264" t="n">
-        <v>0.4651640143192441</v>
+        <v>0.2888493805591037</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1435141843577047</v>
+        <v>0.3192235950619821</v>
       </c>
       <c r="N264" t="n">
-        <v>0.5484707784094158</v>
+        <v>0.4047545688187987</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1513375824195458</v>
+        <v>0.3196324750505506</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1347.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1347.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.4849619250899458</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06210732788333905</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06210732788333905</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09937172461334248</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1951423141140062</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06707591411400618</v>
+        <v>0.1572186923972334</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002220861735534151</v>
+        <v>0.005205459853476989</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,10 +9250,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.03726439673000343</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0007402872451780503</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.06707591411400618</v>
+        <v>0.02657598702934016</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.002220861735534151</v>
+        <v>0.0004563177762977474</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.07683984000000002</v>
+        <v>0.02657598702934016</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001526485290656064</v>
+        <v>0.0004563177762977474</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.13683984</v>
+        <v>0.0968115034968158</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001453795514910537</v>
+        <v>0.0009899695223131767</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.19683984</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001590088844433401</v>
+        <v>0.001482024554035014</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.07241008281017386</v>
+        <v>0.05114749422062903</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003186764525153615</v>
+        <v>0.0009126355525954947</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1305093831333794</v>
+        <v>0.05114749422062903</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003210468988836368</v>
+        <v>0.0009126355525954947</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.2281039333805236</v>
+        <v>0.13683984</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003208277337306353</v>
+        <v>0.001511371574906994</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.3061419774842364</v>
+        <v>0.2352833346702396</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003212386683925132</v>
+        <v>0.001977819890067897</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.07030055330831533</v>
+        <v>0.07683984000000002</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004780146787730422</v>
+        <v>0.001526485290656064</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1572186923972334</v>
+        <v>0.07683984000000002</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004579455871968193</v>
+        <v>0.001526485290656064</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.2634204472699546</v>
+        <v>0.2075072976047338</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004361386544731611</v>
+        <v>0.00296990856693953</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.369622202142676</v>
+        <v>0.2935450197576789</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004770266533300201</v>
+        <v>0.002966729835101846</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.08714185962153173</v>
+        <v>0.08636722611756187</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006373529050307229</v>
+        <v>0.001825271105190989</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1742195815197974</v>
+        <v>0.08636722611756187</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006420937977672737</v>
+        <v>0.001825271105190989</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2949668920524086</v>
+        <v>0.236811916633791</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006416554674612706</v>
+        <v>0.003959878089252707</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.4035539205546981</v>
+        <v>0.3409801851612604</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006424773367850264</v>
+        <v>0.003955639780135794</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0007402872451780503</v>
+        <v>0.001526485290656064</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03726439673000343</v>
+        <v>0.07683984000000002</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.09002910662995181</v>
+        <v>0.1003989942728287</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007966911312884037</v>
+        <v>0.002281588881488737</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1894340861276664</v>
+        <v>0.1003989942728287</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008026172472090922</v>
+        <v>0.002281588881488737</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.3233946500996148</v>
+        <v>0.2634204472699546</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008020693343265882</v>
+        <v>0.004849052929969031</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.4392218046414925</v>
+        <v>0.369622202142676</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008030966709812831</v>
+        <v>0.004638197051402627</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.08905739921370442</v>
+        <v>0.1135510512450656</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009560293575460843</v>
+        <v>0.002737906657786484</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.2037459663460265</v>
+        <v>0.1135510512450656</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009631406966509106</v>
+        <v>0.002737906657786484</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.3483719897930747</v>
+        <v>0.2788885827556679</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009624832011919058</v>
+        <v>0.005939817133879061</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.4736736775944195</v>
+        <v>0.4032417639475284</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009637160051775395</v>
+        <v>0.005933459670203691</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.09132184225291842</v>
+        <v>0.1255379177006071</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01115367583803765</v>
+        <v>0.003194224434084231</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.2173666807319958</v>
+        <v>0.1255379177006071</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01123664146092729</v>
+        <v>0.003194224434084231</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.3672842840829192</v>
+        <v>0.3009990159096734</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01122897068057224</v>
+        <v>0.006929786656192237</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.5045143297766483</v>
+        <v>0.4256630588523172</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01124335339373796</v>
+        <v>0.00692236961523764</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1039175406277225</v>
+        <v>0.1360741143057879</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01274705810061446</v>
+        <v>0.003650542210381979</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.227707687842693</v>
+        <v>0.1360741143057879</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01284187595534547</v>
+        <v>0.003650542210381979</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.385016905919278</v>
+        <v>0.3160390667056485</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01283310934922541</v>
+        <v>0.007919756178505414</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.5335485515513476</v>
+        <v>0.4457421179835597</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01284954673570053</v>
+        <v>0.007911279560271588</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1089395992182456</v>
+        <v>0.1448741617269426</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01434044036319126</v>
+        <v>0.004106859986679726</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.2391804462352363</v>
+        <v>0.1448741617269426</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01444711044976366</v>
+        <v>0.004106859986679726</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.3988552282522811</v>
+        <v>0.3320952591289301</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01443724801787859</v>
+        <v>0.008909725700818591</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.5564811332816864</v>
+        <v>0.4692627278959811</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01445574007766309</v>
+        <v>0.008900189505305536</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1054831229046164</v>
+        <v>0.1516525806304058</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01593382262576807</v>
+        <v>0.004563177762977474</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.2446964144667441</v>
+        <v>0.1516525806304058</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01605234494418184</v>
+        <v>0.004563177762977474</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.4131846240320592</v>
+        <v>0.3473541171648543</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01604138668653176</v>
+        <v>0.009899695223131767</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.5753168653308331</v>
+        <v>0.4982086751443069</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01606193341962566</v>
+        <v>0.009889099450339486</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1076432165669638</v>
+        <v>0.1572186923972334</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01752720488834488</v>
+        <v>0.005205459853476989</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.2548670510943348</v>
+        <v>0.1572186923972334</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01765757943860003</v>
+        <v>0.005205459853476989</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.4266904662087422</v>
+        <v>0.3635021647987573</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01764552535518494</v>
+        <v>0.01088966474544494</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.5913605380619575</v>
+        <v>0.5153637462832623</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01766812676158823</v>
+        <v>0.01087800939537343</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1155149850854166</v>
+        <v>0.1584815800804575</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01912058715092169</v>
+        <v>0.005475813315572968</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2587038146751268</v>
+        <v>0.1584815800804575</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01926281393301821</v>
+        <v>0.005475813315572968</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4388581277324598</v>
+        <v>0.3796259260159754</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01924966402383812</v>
+        <v>0.01187963426775812</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6066169418382275</v>
+        <v>0.5381117278675733</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01927432010355079</v>
+        <v>0.01186691934040738</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1151935333401035</v>
+        <v>0.1605843614125071</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02071396941349849</v>
+        <v>0.005932131091870715</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2655181637662383</v>
+        <v>0.1605843614125071</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0208680484274364</v>
+        <v>0.005932131091870715</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4461729815533426</v>
+        <v>0.392611924801845</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02085380269249129</v>
+        <v>0.0128696037900713</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6239908670228127</v>
+        <v>0.553336406451965</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02088051344551336</v>
+        <v>0.01285582928544133</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1077739662111534</v>
+        <v>0.1626512179113883</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0223073516760753</v>
+        <v>0.006388448868168462</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2707215569247879</v>
+        <v>0.1626512179113883</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02247328292185458</v>
+        <v>0.006388448868168462</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4550204006215208</v>
+        <v>0.4067466851417021</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02245794136114447</v>
+        <v>0.01385957331238447</v>
       </c>
       <c r="N79" t="n">
-        <v>0.6371871039788812</v>
+        <v>0.5775215685911628</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02248670678747592</v>
+        <v>0.01384473923047528</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.116343007725506</v>
+        <v>0.1646824212812711</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02390073393865211</v>
+        <v>0.006844766644466211</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2743254527078937</v>
+        <v>0.1646824212812711</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02407851741627276</v>
+        <v>0.006844766644466211</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4635857578871243</v>
+        <v>0.4188167310208836</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02406208002979764</v>
+        <v>0.01484954283469765</v>
       </c>
       <c r="N80" t="n">
-        <v>0.648210443069603</v>
+        <v>0.5956510008398921</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02409290012943849</v>
+        <v>0.01483364917550923</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1168861693475616</v>
+        <v>0.1666782432263256</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02549411620122892</v>
+        <v>0.007301084420763958</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2788416187182801</v>
+        <v>0.1666782432263256</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02568375191069095</v>
+        <v>0.007301084420763958</v>
       </c>
       <c r="L81" t="n">
-        <v>0.4669616387657654</v>
+        <v>0.4334085864247252</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02566621869845082</v>
+        <v>0.01583951235701083</v>
       </c>
       <c r="N81" t="n">
-        <v>0.6588656746581458</v>
+        <v>0.6072084897528784</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02569909347140106</v>
+        <v>0.01582255912054318</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1213821214328316</v>
+        <v>0.1686389554507218</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02708749846380572</v>
+        <v>0.007757402197061704</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2835198225393232</v>
+        <v>0.1686389554507218</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02728898640510913</v>
+        <v>0.007757402197061704</v>
       </c>
       <c r="L82" t="n">
-        <v>0.475400666074991</v>
+        <v>0.4460087753385634</v>
       </c>
       <c r="M82" t="n">
-        <v>0.027270357367104</v>
+        <v>0.01682948187932401</v>
       </c>
       <c r="N82" t="n">
-        <v>0.6616437057174571</v>
+        <v>0.6253778218848474</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02730528681336362</v>
+        <v>0.01681146906557713</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1178211869823919</v>
+        <v>0.17056482965863</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02868088072638253</v>
+        <v>0.008213719973359452</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2857938644562962</v>
+        <v>0.17056482965863</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02889422089952732</v>
+        <v>0.008213719973359452</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4805605867047297</v>
+        <v>0.4554038217477347</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02887449603575717</v>
+        <v>0.01781945140163718</v>
       </c>
       <c r="N83" t="n">
-        <v>0.6719805203888045</v>
+        <v>0.6382427837905238</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02891148015532619</v>
+        <v>0.01780037901061107</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1231936889973183</v>
+        <v>0.1724561375542202</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03027426298895934</v>
+        <v>0.008670037749657199</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2894405527049047</v>
+        <v>0.1724561375542202</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0304994553939455</v>
+        <v>0.008670037749657199</v>
       </c>
       <c r="L84" t="n">
-        <v>0.4877026223015791</v>
+        <v>0.4650802496375749</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03047863470441035</v>
+        <v>0.01880942092395036</v>
       </c>
       <c r="N84" t="n">
-        <v>0.6771234698899149</v>
+        <v>0.6564871620246338</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03051767349728876</v>
+        <v>0.01878928895564502</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1234899504786868</v>
+        <v>0.1743131508416626</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03186764525153615</v>
+        <v>0.009126355525954947</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2939366955208544</v>
+        <v>0.1743131508416626</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03210468988836369</v>
+        <v>0.009126355525954947</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4900879945121366</v>
+        <v>0.4716245829934209</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03208277337306353</v>
+        <v>0.01979939044626353</v>
       </c>
       <c r="N85" t="n">
-        <v>0.6895179324630185</v>
+        <v>0.6641947431419026</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03212386683925132</v>
+        <v>0.01977819890067897</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1267002944275733</v>
+        <v>0.1761361412251272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03346102751411295</v>
+        <v>0.009582673302252695</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2973591011398508</v>
+        <v>0.1761361412251272</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03370992438278187</v>
+        <v>0.009582673302252695</v>
       </c>
       <c r="L86" t="n">
-        <v>0.496677924983</v>
+        <v>0.4803233458006088</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03368691204171671</v>
+        <v>0.02078935996857671</v>
       </c>
       <c r="N86" t="n">
-        <v>0.6980092863503444</v>
+        <v>0.6816493136970554</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03373006018121388</v>
+        <v>0.02076710884571292</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1208150438450536</v>
+        <v>0.1779253804087841</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03505440977668976</v>
+        <v>0.01003899107855044</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3005845777975996</v>
+        <v>0.1779253804087841</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03531515887720005</v>
+        <v>0.01003899107855044</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5028336353607668</v>
+        <v>0.4882630620444747</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03529105071036989</v>
+        <v>0.02177932949088989</v>
       </c>
       <c r="N87" t="n">
-        <v>0.702042909794123</v>
+        <v>0.6896346602448182</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03533625352317645</v>
+        <v>0.02175601879074687</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1238245217322036</v>
+        <v>0.1796811400968035</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03664779203926657</v>
+        <v>0.01049530885484819</v>
       </c>
       <c r="J88" t="n">
-        <v>0.301389933729806</v>
+        <v>0.1796811400968035</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03692039337161824</v>
+        <v>0.01049530885484819</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5061163472920345</v>
+        <v>0.4988302557103548</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03689518937902305</v>
+        <v>0.02276929901320306</v>
       </c>
       <c r="N88" t="n">
-        <v>0.708764181036583</v>
+        <v>0.7013345693399158</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03694244686513901</v>
+        <v>0.02274492873578082</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1197190510900992</v>
+        <v>0.1814036919933555</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03824117430184337</v>
+        <v>0.01095162663114594</v>
       </c>
       <c r="J89" t="n">
-        <v>0.305651977172176</v>
+        <v>0.1814036919933555</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03852562786603642</v>
+        <v>0.01095162663114594</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5108872824234011</v>
+        <v>0.5044114507835858</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03849932804767623</v>
+        <v>0.02375926853551624</v>
       </c>
       <c r="N89" t="n">
-        <v>0.7156184783199548</v>
+        <v>0.7054328275370738</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03854864020710158</v>
+        <v>0.02373383868081477</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1314889549198164</v>
+        <v>0.1830933078026101</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03983455656442018</v>
+        <v>0.01140794440744368</v>
       </c>
       <c r="J90" t="n">
-        <v>0.3055475163604149</v>
+        <v>0.1830933078026101</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04013086236045461</v>
+        <v>0.01140794440744368</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5151076624014636</v>
+        <v>0.5072931712495038</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04010346671632941</v>
+        <v>0.02474923805782942</v>
       </c>
       <c r="N90" t="n">
-        <v>0.7239511798864682</v>
+        <v>0.7175132213910178</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04015483354906415</v>
+        <v>0.02472274862584871</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1301245562224309</v>
+        <v>0.1847502592287374</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04142793882699699</v>
+        <v>0.01186426218374143</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3084533595302285</v>
+        <v>0.1847502592287374</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04173609685487279</v>
+        <v>0.01186426218374143</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5149387088728202</v>
+        <v>0.5123619410934452</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04170760538498258</v>
+        <v>0.0257392075801426</v>
       </c>
       <c r="N91" t="n">
-        <v>0.7237076639783522</v>
+        <v>0.718859537456473</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04176102689102672</v>
+        <v>0.02571165857088266</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1336161779990187</v>
+        <v>0.1863748179759077</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04302132108957379</v>
+        <v>0.01232057996003918</v>
       </c>
       <c r="J92" t="n">
-        <v>0.3098463149173221</v>
+        <v>0.1863748179759077</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04334133134929097</v>
+        <v>0.01232057996003918</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5194416434840681</v>
+        <v>0.516304284300746</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04331174405363576</v>
+        <v>0.02672917710245577</v>
       </c>
       <c r="N92" t="n">
-        <v>0.728533308837837</v>
+        <v>0.7297555622881653</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04336722023298928</v>
+        <v>0.02670056851591661</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1259541432506557</v>
+        <v>0.1879672557482909</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04461470335215061</v>
+        <v>0.01277689773633692</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3098031907574015</v>
+        <v>0.1879672557482909</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04494656584370916</v>
+        <v>0.01277689773633692</v>
       </c>
       <c r="L93" t="n">
-        <v>0.523177687881805</v>
+        <v>0.5230067248567429</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04491588272228894</v>
+        <v>0.02771914662476895</v>
       </c>
       <c r="N93" t="n">
-        <v>0.7331734927071518</v>
+        <v>0.7330850824408197</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04497341357495185</v>
+        <v>0.02768947846095056</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1341518282280124</v>
+        <v>0.1895278442500573</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04620808561472741</v>
+        <v>0.01323321551263467</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3111007952861722</v>
+        <v>0.1895278442500573</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04655180033812734</v>
+        <v>0.01323321551263467</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5207080637126286</v>
+        <v>0.5234557867467718</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04652002139094211</v>
+        <v>0.02870911614708212</v>
       </c>
       <c r="N94" t="n">
-        <v>0.733673593828527</v>
+        <v>0.7310318844691617</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04657960691691441</v>
+        <v>0.02867838840598451</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1211415150699854</v>
+        <v>0.1910568551853769</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04780146787730422</v>
+        <v>0.01368953328893242</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3144373847944668</v>
+        <v>0.1910568551853769</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04815703483254553</v>
+        <v>0.01368953328893242</v>
       </c>
       <c r="L95" t="n">
         <v>0.5268408945399092</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04812416005959529</v>
+        <v>0.0296990856693953</v>
       </c>
       <c r="N95" t="n">
         <v>0.7392444042853519</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04818580025887698</v>
+        <v>0.02966729835101846</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1330579889118464</v>
+        <v>0.1925545602584197</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04939485013988103</v>
+        <v>0.01414585106523017</v>
       </c>
       <c r="J96" t="n">
-        <v>0.3113315745783108</v>
+        <v>0.1925545602584197</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04976226932696371</v>
+        <v>0.01414585106523017</v>
       </c>
       <c r="L96" t="n">
-        <v>0.5223195185722143</v>
+        <v>0.5220405890676274</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04972829872824847</v>
+        <v>0.03068905519170848</v>
       </c>
       <c r="N96" t="n">
-        <v>0.7379398484307396</v>
+        <v>0.7388344871053281</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04979199360083954</v>
+        <v>0.03065620829605241</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1268948312830771</v>
+        <v>0.1940212311733559</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05098823240245783</v>
+        <v>0.01460216884152792</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3131824389873232</v>
+        <v>0.1940212311733559</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05136750382138189</v>
+        <v>0.01460216884152792</v>
       </c>
       <c r="L97" t="n">
-        <v>0.5250319437317248</v>
+        <v>0.5259980963455392</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05133243739690165</v>
+        <v>0.03167902471402165</v>
       </c>
       <c r="N97" t="n">
-        <v>0.7343358816037004</v>
+        <v>0.7363635206491754</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05139818694280211</v>
+        <v>0.03164511824108635</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1316571422411798</v>
+        <v>0.1954571396343557</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05258161466503464</v>
+        <v>0.01505848661782566</v>
       </c>
       <c r="J98" t="n">
-        <v>0.3122409301225689</v>
+        <v>0.1954571396343557</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05297273831580009</v>
+        <v>0.01505848661782566</v>
       </c>
       <c r="L98" t="n">
-        <v>0.5220248182694808</v>
+        <v>0.5214089116622141</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05293657606555482</v>
+        <v>0.03266899423633483</v>
       </c>
       <c r="N98" t="n">
-        <v>0.7370762335403955</v>
+        <v>0.7333425574515793</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05300438028476467</v>
+        <v>0.0326340281861203</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1303500218436566</v>
+        <v>0.1968625573455891</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05417499692761145</v>
+        <v>0.01551480439412341</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3127192707126448</v>
+        <v>0.1968625573455891</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05457797281021827</v>
+        <v>0.01551480439412341</v>
       </c>
       <c r="L99" t="n">
-        <v>0.522418579496031</v>
+        <v>0.5224922182310414</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05454071473420799</v>
+        <v>0.03365896375864801</v>
       </c>
       <c r="N99" t="n">
-        <v>0.7324896914823742</v>
+        <v>0.7324991679732971</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05461057362672724</v>
+        <v>0.03362293813115425</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1249785701480098</v>
+        <v>0.1982377560112263</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05576837919018826</v>
+        <v>0.01597112217042116</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3117296834861472</v>
+        <v>0.1982377560112263</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05618320730463645</v>
+        <v>0.01597112217042116</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5233336647219244</v>
+        <v>0.5202671992654097</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05614485340286117</v>
+        <v>0.03464893328096118</v>
       </c>
       <c r="N100" t="n">
-        <v>0.7319050426711851</v>
+        <v>0.7308609226750857</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0562167669686898</v>
+        <v>0.0346118480761882</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1295478872117415</v>
+        <v>0.1995830073354372</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05736176145276506</v>
+        <v>0.0164274399467189</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3118843911716727</v>
+        <v>0.1995830073354372</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05778844179905464</v>
+        <v>0.0164274399467189</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5174905112577096</v>
+        <v>0.5222530379787083</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05774899207151435</v>
+        <v>0.03563890280327436</v>
       </c>
       <c r="N101" t="n">
-        <v>0.7274510743483782</v>
+        <v>0.7313553920177027</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05782296031065237</v>
+        <v>0.03560075802122215</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.126063073092354</v>
+        <v>0.2008985830223921</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05895514371534187</v>
+        <v>0.01688375772301665</v>
       </c>
       <c r="J102" t="n">
-        <v>0.310795616497818</v>
+        <v>0.2008985830223921</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05939367629347282</v>
+        <v>0.01688375772301665</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5196095564139355</v>
+        <v>0.5185689175843261</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05935313074016752</v>
+        <v>0.03662887232558754</v>
       </c>
       <c r="N102" t="n">
-        <v>0.730456573755502</v>
+        <v>0.7257101464619056</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05942915365261494</v>
+        <v>0.0365896679662561</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1315292278473493</v>
+        <v>0.2021847547762611</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06054852597791868</v>
+        <v>0.0173400754993144</v>
       </c>
       <c r="J103" t="n">
-        <v>0.3089755821931794</v>
+        <v>0.2021847547762611</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06099891078789101</v>
+        <v>0.0173400754993144</v>
       </c>
       <c r="L103" t="n">
-        <v>0.5170112375011506</v>
+        <v>0.5184340212956519</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0609572694088207</v>
+        <v>0.03761884184790072</v>
       </c>
       <c r="N103" t="n">
-        <v>0.7228503281341057</v>
+        <v>0.7283527564684511</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06103534699457751</v>
+        <v>0.03757857791129005</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1269514515342297</v>
+        <v>0.2034417943012142</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06214190824049548</v>
+        <v>0.01779639327561214</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3084365109863538</v>
+        <v>0.2034417943012142</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06260414528230919</v>
+        <v>0.01779639327561214</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5151159918299041</v>
+        <v>0.5171675323260749</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06256140807747387</v>
+        <v>0.03860881137021389</v>
       </c>
       <c r="N104" t="n">
-        <v>0.7219611247257385</v>
+        <v>0.7250107924980969</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06264154033654008</v>
+        <v>0.038567487856324</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1173348442104973</v>
+        <v>0.2046699733014216</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06373529050307229</v>
+        <v>0.01825271105190989</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3056906256059375</v>
+        <v>0.2046699733014216</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06420937977672737</v>
+        <v>0.01825271105190989</v>
       </c>
       <c r="L105" t="n">
-        <v>0.5104442567107444</v>
+        <v>0.5143886338889841</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06416554674612705</v>
+        <v>0.03959878089252707</v>
       </c>
       <c r="N105" t="n">
-        <v>0.7160177507719498</v>
+        <v>0.7223118250116001</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06424773367850264</v>
+        <v>0.03955639780135795</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1256845059336544</v>
+        <v>0.2058695634810533</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0653286727656491</v>
+        <v>0.01870902882820764</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3045501487805272</v>
+        <v>0.2058695634810533</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06581461427114556</v>
+        <v>0.01870902882820764</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5118164694542205</v>
+        <v>0.5160165091977684</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06576968541478023</v>
+        <v>0.04058875041484025</v>
       </c>
       <c r="N106" t="n">
-        <v>0.7168489935142883</v>
+        <v>0.7225834244697178</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06585392702046521</v>
+        <v>0.04054530774639189</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.129005536761203</v>
+        <v>0.2070408365442796</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0669220550282259</v>
+        <v>0.01916534660450539</v>
       </c>
       <c r="J107" t="n">
-        <v>0.3026273032387194</v>
+        <v>0.2070408365442796</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06741984876556374</v>
+        <v>0.01916534660450539</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5070530673708811</v>
+        <v>0.5110703414658168</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06737382408343341</v>
+        <v>0.04157871993715342</v>
       </c>
       <c r="N107" t="n">
-        <v>0.7123836401943031</v>
+        <v>0.7168531613332079</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06746012036242777</v>
+        <v>0.04153421769142584</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1153030367506455</v>
+        <v>0.2081840641952704</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06851543729080271</v>
+        <v>0.01962166438080314</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2998343117091107</v>
+        <v>0.2081840641952704</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06902508325998193</v>
+        <v>0.01962166438080314</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5037744877712749</v>
+        <v>0.5089693139065182</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06897796275208659</v>
+        <v>0.0425686894594666</v>
       </c>
       <c r="N108" t="n">
-        <v>0.7063504780535437</v>
+        <v>0.7130486060628267</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06906631370439034</v>
+        <v>0.04252312763645979</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.122582105959484</v>
+        <v>0.2092995181381959</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07010881955337953</v>
+        <v>0.02007798215710088</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2994833969202977</v>
+        <v>0.2092995181381959</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07063031775440011</v>
+        <v>0.02007798215710088</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5011011679659507</v>
+        <v>0.5062326097332618</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07058210142073977</v>
+        <v>0.04355865898177978</v>
       </c>
       <c r="N109" t="n">
-        <v>0.7049782943335594</v>
+        <v>0.7132973291193323</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0706725070463529</v>
+        <v>0.04351203758149374</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1238478444452206</v>
+        <v>0.2103874700772262</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07170220181595632</v>
+        <v>0.02053429993339863</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2971867816008769</v>
+        <v>0.2103874700772262</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07223555224881829</v>
+        <v>0.02053429993339863</v>
       </c>
       <c r="L110" t="n">
-        <v>0.5011535452654575</v>
+        <v>0.5058794121594364</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07218624008939294</v>
+        <v>0.04454862850409295</v>
       </c>
       <c r="N110" t="n">
-        <v>0.7033958762758985</v>
+        <v>0.7106269009634814</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07227870038831546</v>
+        <v>0.04450094752652769</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1261053522653576</v>
+        <v>0.2114481917165315</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07329558407853314</v>
+        <v>0.02099061770969638</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2945566884794448</v>
+        <v>0.2114481917165315</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07384078674323648</v>
+        <v>0.02099061770969638</v>
       </c>
       <c r="L111" t="n">
-        <v>0.4935520569803438</v>
+        <v>0.504728904398431</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0737903787580461</v>
+        <v>0.04553859802640613</v>
       </c>
       <c r="N111" t="n">
-        <v>0.6928320111221105</v>
+        <v>0.7064648920560315</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07388489373027803</v>
+        <v>0.04548985747156163</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1203597294773971</v>
+        <v>0.2124819547602818</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07488896634110995</v>
+        <v>0.02144693548599412</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2929053402845981</v>
+        <v>0.2124819547602818</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07544602123765466</v>
+        <v>0.02144693548599412</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4939171404211586</v>
+        <v>0.5041002696636345</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07539451742669928</v>
+        <v>0.04652856754871931</v>
       </c>
       <c r="N112" t="n">
-        <v>0.6899154861137449</v>
+        <v>0.7035388728577399</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0754910870722406</v>
+        <v>0.04647876741659558</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1236160761388413</v>
+        <v>0.213489030912647</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07648234860368675</v>
+        <v>0.02190325326229187</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2926449597449333</v>
+        <v>0.213489030912647</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07705125573207285</v>
+        <v>0.02190325326229187</v>
       </c>
       <c r="L113" t="n">
-        <v>0.4922692328984504</v>
+        <v>0.5038126911684363</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07699865609535246</v>
+        <v>0.04751853707103249</v>
       </c>
       <c r="N113" t="n">
-        <v>0.6853750884923504</v>
+        <v>0.7054764138293639</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07709728041420316</v>
+        <v>0.04746767736162953</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1198794923071924</v>
+        <v>0.2144696918777977</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07807573086626356</v>
+        <v>0.02235957103858962</v>
       </c>
       <c r="J114" t="n">
-        <v>0.291387769589047</v>
+        <v>0.2144696918777977</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07865649022649103</v>
+        <v>0.02235957103858962</v>
       </c>
       <c r="L114" t="n">
-        <v>0.4880287717227683</v>
+        <v>0.5020853521262248</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07860279476400564</v>
+        <v>0.04850850659334566</v>
       </c>
       <c r="N114" t="n">
-        <v>0.6808396054994761</v>
+        <v>0.7009050854316607</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07870347375616574</v>
+        <v>0.04845658730666348</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1161192191228156</v>
+        <v>0.2154242093599036</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07966911312884037</v>
+        <v>0.02281588881488737</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2892459925455357</v>
+        <v>0.2154242093599036</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08026172472090921</v>
+        <v>0.02281588881488737</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4865161942046606</v>
+        <v>0.4960374357503895</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08020693343265882</v>
+        <v>0.04949847611565884</v>
       </c>
       <c r="N115" t="n">
-        <v>0.6824378243766716</v>
+        <v>0.6984524581253875</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0803096670981283</v>
+        <v>0.04944549725169742</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1212547124982523</v>
+        <v>0.216352855063135</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08126249539141717</v>
+        <v>0.02327220659118511</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2856690385236032</v>
+        <v>0.216352855063135</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0818669592153274</v>
+        <v>0.02327220659118511</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4829107723364454</v>
+        <v>0.4975881252543191</v>
       </c>
       <c r="M116" t="n">
-        <v>0.081811072101312</v>
+        <v>0.05048844563797201</v>
       </c>
       <c r="N116" t="n">
-        <v>0.6762890020882739</v>
+        <v>0.6942461023713016</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08191586044009087</v>
+        <v>0.05043440719673137</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1152979163735549</v>
+        <v>0.2172559006916619</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08285587765399398</v>
+        <v>0.02372852436748286</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2844509466788639</v>
+        <v>0.2172559006916619</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08347219370974558</v>
+        <v>0.02372852436748286</v>
       </c>
       <c r="L117" t="n">
-        <v>0.4748911010446105</v>
+        <v>0.4974566038514026</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08341521076996516</v>
+        <v>0.05147841516028519</v>
       </c>
       <c r="N117" t="n">
-        <v>0.6709923846243004</v>
+        <v>0.6944135886301601</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08352205378205343</v>
+        <v>0.05142331714176532</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.110265447345702</v>
+        <v>0.2181336179496545</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08444925991657079</v>
+        <v>0.02418484214378061</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2814096142994861</v>
+        <v>0.2181336179496545</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08507742820416377</v>
+        <v>0.02418484214378061</v>
       </c>
       <c r="L118" t="n">
-        <v>0.4712045866318516</v>
+        <v>0.495762054755029</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08501934943861834</v>
+        <v>0.05246838468259837</v>
       </c>
       <c r="N118" t="n">
-        <v>0.6637620692875636</v>
+        <v>0.6894824873627208</v>
       </c>
       <c r="O118" t="n">
-        <v>0.085128247124016</v>
+        <v>0.05241222708679927</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1061739220116723</v>
+        <v>0.2189862785412827</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08604264217914759</v>
+        <v>0.02464115992007836</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2805848644962836</v>
+        <v>0.2189862785412827</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08668266269858195</v>
+        <v>0.02464115992007836</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4700178162989158</v>
+        <v>0.4920236611785874</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08662348810727152</v>
+        <v>0.05345835420491155</v>
       </c>
       <c r="N119" t="n">
-        <v>0.6576918483521201</v>
+        <v>0.6927803690297405</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08673444046597856</v>
+        <v>0.05340113703183322</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1120399569684443</v>
+        <v>0.2198141541707169</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0876360244417244</v>
+        <v>0.0250974776963761</v>
       </c>
       <c r="J120" t="n">
-        <v>0.277516520380071</v>
+        <v>0.2198141541707169</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08828789719300013</v>
+        <v>0.0250974776963761</v>
       </c>
       <c r="L120" t="n">
-        <v>0.4639973772465494</v>
+        <v>0.4924606063354666</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0882276267759247</v>
+        <v>0.05444832372722472</v>
       </c>
       <c r="N120" t="n">
-        <v>0.6548755140920259</v>
+        <v>0.6896348040919766</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08834063380794113</v>
+        <v>0.05439004697686717</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1118801688129968</v>
+        <v>0.2206175165421271</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08922940670430121</v>
+        <v>0.02555379547267385</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2764444050616623</v>
+        <v>0.2206175165421271</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08989313168741832</v>
+        <v>0.02555379547267385</v>
       </c>
       <c r="L121" t="n">
-        <v>0.4627098566754986</v>
+        <v>0.4928920734390559</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08983176544457788</v>
+        <v>0.0554382932495379</v>
       </c>
       <c r="N121" t="n">
-        <v>0.6457068587813377</v>
+        <v>0.6847733630101864</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08994682714990369</v>
+        <v>0.05537895692190112</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1047111741423082</v>
+        <v>0.2213966373596834</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09082278896687801</v>
+        <v>0.0260101132489716</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2739083416518718</v>
+        <v>0.2213966373596834</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0914983661818365</v>
+        <v>0.0260101132489716</v>
       </c>
       <c r="L122" t="n">
-        <v>0.45492184178651</v>
+        <v>0.4909372457027439</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09143590411323106</v>
+        <v>0.05642826277185108</v>
       </c>
       <c r="N122" t="n">
-        <v>0.6433796746941116</v>
+        <v>0.683823616245127</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09155302049186625</v>
+        <v>0.05636786686693507</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1045495895533573</v>
+        <v>0.2221517883275558</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09241617122945482</v>
+        <v>0.02646643102526934</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2701481532615138</v>
+        <v>0.2221517883275558</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09310360067625469</v>
+        <v>0.02646643102526934</v>
       </c>
       <c r="L123" t="n">
-        <v>0.45119991978033</v>
+        <v>0.4905153063399198</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09304004278188423</v>
+        <v>0.05741823229416425</v>
       </c>
       <c r="N123" t="n">
-        <v>0.6314877541044046</v>
+        <v>0.6885131342575557</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09315921383382882</v>
+        <v>0.05735677681196902</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1094120316431227</v>
+        <v>0.2228832411499145</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09400955349203163</v>
+        <v>0.02692274880156709</v>
       </c>
       <c r="J124" t="n">
-        <v>0.2677036630014022</v>
+        <v>0.2228832411499145</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09470883517067287</v>
+        <v>0.02692274880156709</v>
       </c>
       <c r="L124" t="n">
-        <v>0.4468106778577048</v>
+        <v>0.4885386064212758</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09464418145053739</v>
+        <v>0.05840820181647743</v>
       </c>
       <c r="N124" t="n">
-        <v>0.6302248892862723</v>
+        <v>0.6876417739313405</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09476540717579141</v>
+        <v>0.05834568675700296</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.108315117008583</v>
+        <v>0.2235912675309297</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09560293575460843</v>
+        <v>0.02737906657786484</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2643146939823514</v>
+        <v>0.2235912675309297</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09631406966509105</v>
+        <v>0.02737906657786484</v>
       </c>
       <c r="L125" t="n">
-        <v>0.4414207032193812</v>
+        <v>0.4884497281262506</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09624832011919057</v>
+        <v>0.0593981713387906</v>
       </c>
       <c r="N125" t="n">
-        <v>0.6202848725137722</v>
+        <v>0.6836496012704047</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09637160051775397</v>
+        <v>0.05933459670203691</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1092624805849488</v>
+        <v>0.2242761391747713</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09719631801718524</v>
+        <v>0.02783538435416259</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2602210693151756</v>
+        <v>0.2242761391747713</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09791930415950924</v>
+        <v>0.02783538435416259</v>
       </c>
       <c r="L126" t="n">
-        <v>0.4385965830661054</v>
+        <v>0.4917750132248663</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09785245878784375</v>
+        <v>0.06038814086110378</v>
       </c>
       <c r="N126" t="n">
-        <v>0.6148614960609595</v>
+        <v>0.6843656349108578</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09797779385971653</v>
+        <v>0.06032350664707087</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1061354125675504</v>
+        <v>0.2249381277856095</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09878970027976205</v>
+        <v>0.02829170213046034</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2582352156041204</v>
+        <v>0.2249381277856095</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09952453865392742</v>
+        <v>0.02829170213046034</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4364313184302382</v>
+        <v>0.4876132031015564</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09945659745649693</v>
+        <v>0.06137811038341696</v>
       </c>
       <c r="N127" t="n">
-        <v>0.6065106733006946</v>
+        <v>0.6834891366288294</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09958398720167909</v>
+        <v>0.06131241659210481</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.09692026070403847</v>
+        <v>0.2255775050676145</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1003830825423389</v>
+        <v>0.02874801990675808</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2578775034887024</v>
+        <v>0.2255775050676145</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1011297731483456</v>
+        <v>0.02874801990675808</v>
       </c>
       <c r="L128" t="n">
-        <v>0.4311445188985982</v>
+        <v>0.4882630391407551</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1010607361251501</v>
+        <v>0.06236807990573013</v>
       </c>
       <c r="N128" t="n">
-        <v>0.6023048785464111</v>
+        <v>0.6881193682004469</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1011901805436417</v>
+        <v>0.06230132653713875</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1056408116578558</v>
+        <v>0.2261945427249564</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1019764648049157</v>
+        <v>0.02920433768305583</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2536095917347858</v>
+        <v>0.2261945427249564</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1027350076427638</v>
+        <v>0.02920433768305583</v>
       </c>
       <c r="L129" t="n">
-        <v>0.4230148655084929</v>
+        <v>0.487623262726896</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1026648747938033</v>
+        <v>0.06335804942804331</v>
       </c>
       <c r="N129" t="n">
-        <v>0.6002934119111898</v>
+        <v>0.6885555914018398</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1027963738856042</v>
+        <v>0.0632902364821727</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09732085209244523</v>
+        <v>0.2267895124618051</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1035698470674925</v>
+        <v>0.02966065545935358</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2496884871371673</v>
+        <v>0.2267895124618051</v>
       </c>
       <c r="K130" t="n">
-        <v>0.104340242137182</v>
+        <v>0.02966065545935358</v>
       </c>
       <c r="L130" t="n">
-        <v>0.4184376778572978</v>
+        <v>0.4899926152444132</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1042690134624565</v>
+        <v>0.06434801895035649</v>
       </c>
       <c r="N130" t="n">
-        <v>0.5878105370628184</v>
+        <v>0.6894970680091368</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1044025672275668</v>
+        <v>0.06427914642720667</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.09198416867124937</v>
+        <v>0.2273626859823308</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1051632293300693</v>
+        <v>0.03011697323565132</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2490711964906437</v>
+        <v>0.2273626859823308</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1059454766316002</v>
+        <v>0.03011697323565132</v>
       </c>
       <c r="L131" t="n">
-        <v>0.4152082755423881</v>
+        <v>0.4893698380777408</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1058731521311096</v>
+        <v>0.06533798847266965</v>
       </c>
       <c r="N131" t="n">
-        <v>0.5834905176690861</v>
+        <v>0.6861430597984661</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1060087605695293</v>
+        <v>0.0652680563722406</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.09065454805771103</v>
+        <v>0.2279143349907037</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1067566115926461</v>
+        <v>0.03057329101194907</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2452147265900118</v>
+        <v>0.2279143349907037</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1075507111260184</v>
+        <v>0.03057329101194907</v>
       </c>
       <c r="L132" t="n">
-        <v>0.4069219781611392</v>
+        <v>0.4904536726113123</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1074772907997628</v>
+        <v>0.06632795799498284</v>
       </c>
       <c r="N132" t="n">
-        <v>0.5788676173977805</v>
+        <v>0.6843928285459568</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1076149539114919</v>
+        <v>0.06625696631727455</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1023557769152731</v>
+        <v>0.2284447311910939</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1083499938552229</v>
+        <v>0.03102960878824682</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2397760842300684</v>
+        <v>0.2284447311910939</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1091559456204365</v>
+        <v>0.03102960878824682</v>
       </c>
       <c r="L133" t="n">
-        <v>0.405974105310926</v>
+        <v>0.4914428602295621</v>
       </c>
       <c r="M133" t="n">
-        <v>0.109081429468416</v>
+        <v>0.06731792751729603</v>
       </c>
       <c r="N133" t="n">
-        <v>0.5659760999166901</v>
+        <v>0.6895456360277374</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1092211472534545</v>
+        <v>0.0672458762623085</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.09911164190737809</v>
+        <v>0.2289541462876715</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1099433761177997</v>
+        <v>0.03148592656454457</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2377122762056101</v>
+        <v>0.2289541462876715</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1107611801148547</v>
+        <v>0.03148592656454457</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3980599765891242</v>
+        <v>0.4898361423169235</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1106855681370692</v>
+        <v>0.0683078970396092</v>
       </c>
       <c r="N134" t="n">
-        <v>0.5609502288936037</v>
+        <v>0.6837007440199363</v>
       </c>
       <c r="O134" t="n">
-        <v>0.110827340595417</v>
+        <v>0.06823478620734245</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09594592969746893</v>
+        <v>0.2294428519846065</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1115367583803765</v>
+        <v>0.03194224434084231</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2354803093114338</v>
+        <v>0.2294428519846065</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1123664146092729</v>
+        <v>0.03194224434084231</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3961749115931089</v>
+        <v>0.489432260257831</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1122897068057223</v>
+        <v>0.06929786656192237</v>
       </c>
       <c r="N135" t="n">
-        <v>0.554024267996309</v>
+        <v>0.6828574142986827</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1124335339373796</v>
+        <v>0.0692236961523764</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.09088242694898835</v>
+        <v>0.2299111199860691</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1131301406429533</v>
+        <v>0.03239856211714006</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2317371903423363</v>
+        <v>0.2299111199860691</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1139716491036911</v>
+        <v>0.03239856211714006</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3902142299202555</v>
+        <v>0.4904299554367182</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1138938454743755</v>
+        <v>0.07028783608423554</v>
       </c>
       <c r="N136" t="n">
-        <v>0.5471324808925946</v>
+        <v>0.6861149086401048</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1140397272793422</v>
+        <v>0.07021260609741034</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.08594492032537912</v>
+        <v>0.2303592219962293</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1147235229055301</v>
+        <v>0.03285487989343781</v>
       </c>
       <c r="J137" t="n">
-        <v>0.2292399260931142</v>
+        <v>0.2303592219962293</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1155768835981093</v>
+        <v>0.03285487989343781</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3853732511679391</v>
+        <v>0.4902279692380191</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1154979841430287</v>
+        <v>0.07127780560654873</v>
       </c>
       <c r="N137" t="n">
-        <v>0.5442091312502491</v>
+        <v>0.6881724888203316</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1156459206213047</v>
+        <v>0.07120151604244429</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09315719649008394</v>
+        <v>0.2307874297192574</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1163169051681069</v>
+        <v>0.03331119766973555</v>
       </c>
       <c r="J138" t="n">
-        <v>0.2294455233585645</v>
+        <v>0.2307874297192574</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1171821180925275</v>
+        <v>0.03331119766973555</v>
       </c>
       <c r="L138" t="n">
-        <v>0.383547294933535</v>
+        <v>0.4901250430461678</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1171021228116819</v>
+        <v>0.0722677751288619</v>
       </c>
       <c r="N138" t="n">
-        <v>0.5368884827370601</v>
+        <v>0.6890294166154913</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1172521139632673</v>
+        <v>0.07219042598747825</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09454304210654563</v>
+        <v>0.2311960148593233</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1179102874306837</v>
+        <v>0.03376751544603331</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2273109889334838</v>
+        <v>0.2311960148593233</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1187873525869456</v>
+        <v>0.03376751544603331</v>
       </c>
       <c r="L139" t="n">
-        <v>0.3781316808144189</v>
+        <v>0.4918199182455977</v>
       </c>
       <c r="M139" t="n">
-        <v>0.118706261480335</v>
+        <v>0.07325774465117507</v>
       </c>
       <c r="N139" t="n">
-        <v>0.5337047990208166</v>
+        <v>0.6885849538017135</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1188583073052299</v>
+        <v>0.07317933593251219</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.08812624383820689</v>
+        <v>0.2315852491205973</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1195036696932606</v>
+        <v>0.03422383322233105</v>
       </c>
       <c r="J140" t="n">
-        <v>0.225793329612669</v>
+        <v>0.2315852491205973</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1203925870813638</v>
+        <v>0.03422383322233105</v>
       </c>
       <c r="L140" t="n">
-        <v>0.3740217284079658</v>
+        <v>0.4902113362207434</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1203104001489882</v>
+        <v>0.07424771417348826</v>
       </c>
       <c r="N140" t="n">
-        <v>0.5262923437693068</v>
+        <v>0.6873383621551259</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1204645006471925</v>
+        <v>0.07416824587754614</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.09393058834851054</v>
+        <v>0.2319554042072494</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1210970519558374</v>
+        <v>0.0346801509986288</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2229495521909167</v>
+        <v>0.2319554042072494</v>
       </c>
       <c r="K141" t="n">
-        <v>0.121997821575782</v>
+        <v>0.0346801509986288</v>
       </c>
       <c r="L141" t="n">
-        <v>0.3742127573115508</v>
+        <v>0.4901980383560383</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1219145388176414</v>
+        <v>0.07523768369580143</v>
       </c>
       <c r="N141" t="n">
-        <v>0.5247853806503189</v>
+        <v>0.6841889034518573</v>
       </c>
       <c r="O141" t="n">
-        <v>0.122070693989155</v>
+        <v>0.07515715582258009</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.08592721146847787</v>
+        <v>0.2323067518234496</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1226904342184141</v>
+        <v>0.03513646877492654</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2240366634630238</v>
+        <v>0.2323067518234496</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1236030560702002</v>
+        <v>0.03513646877492654</v>
       </c>
       <c r="L142" t="n">
-        <v>0.3746000871225496</v>
+        <v>0.4933787660359163</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1235186774862946</v>
+        <v>0.0762276532181146</v>
       </c>
       <c r="N142" t="n">
-        <v>0.5213181733316412</v>
+        <v>0.6872358394680367</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1236768873311176</v>
+        <v>0.07614606576761404</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.08496967184817031</v>
+        <v>0.2326395636733681</v>
       </c>
       <c r="G143" t="n">
-        <v>0.124283816480991</v>
+        <v>0.03559278655122429</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2217492780138793</v>
+        <v>0.2326395636733681</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1252082905646184</v>
+        <v>0.03559278655122429</v>
       </c>
       <c r="L143" t="n">
-        <v>0.3734455176756742</v>
+        <v>0.4904522606448117</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1251228161549477</v>
+        <v>0.07721762274042779</v>
       </c>
       <c r="N143" t="n">
-        <v>0.5251112431617533</v>
+        <v>0.6862784319797928</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1252830806730802</v>
+        <v>0.07713497571264799</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09304597084827923</v>
+        <v>0.2329541114611752</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1258771987435678</v>
+        <v>0.03604910432752204</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2248580138052994</v>
+        <v>0.2329541114611752</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1268135250590366</v>
+        <v>0.03604910432752204</v>
       </c>
       <c r="L144" t="n">
-        <v>0.3721388714336129</v>
+        <v>0.490017263567158</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1267269548236009</v>
+        <v>0.07820759226274096</v>
       </c>
       <c r="N144" t="n">
-        <v>0.5222530993119938</v>
+        <v>0.6891159427632538</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1268892740150427</v>
+        <v>0.07812388565768193</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.09015436063343951</v>
+        <v>0.2332506668910407</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1274705810061446</v>
+        <v>0.03650542210381979</v>
       </c>
       <c r="J145" t="n">
-        <v>0.22484680147412</v>
+        <v>0.2332506668910407</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1284187595534547</v>
+        <v>0.03650542210381979</v>
       </c>
       <c r="L145" t="n">
-        <v>0.3759655951614633</v>
+        <v>0.4927725161873895</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1283310934922541</v>
+        <v>0.07919756178505413</v>
       </c>
       <c r="N145" t="n">
-        <v>0.5231840896053928</v>
+        <v>0.6842476335945493</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1284954673570053</v>
+        <v>0.07911279560271589</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.08629309336828614</v>
+        <v>0.233529501667135</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1290639632687214</v>
+        <v>0.03696173988011753</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2250114521818252</v>
+        <v>0.233529501667135</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1300239940478729</v>
+        <v>0.03696173988011753</v>
       </c>
       <c r="L146" t="n">
-        <v>0.3749186848099316</v>
+        <v>0.4913167598899397</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1299352321609073</v>
+        <v>0.08018753130736732</v>
       </c>
       <c r="N146" t="n">
-        <v>0.5250943483965484</v>
+        <v>0.6903727662498067</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1301016606989679</v>
+        <v>0.08010170554774984</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.09246042121745404</v>
+        <v>0.2337908874936279</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1306573455312982</v>
+        <v>0.03741805765641528</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2237477770898992</v>
+        <v>0.2337908874936279</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1316292285422911</v>
+        <v>0.03741805765641528</v>
       </c>
       <c r="L147" t="n">
-        <v>0.3739911363297249</v>
+        <v>0.4920487360592429</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1315393708295605</v>
+        <v>0.08117750082968049</v>
       </c>
       <c r="N147" t="n">
-        <v>0.5275740100400601</v>
+        <v>0.6862906025051558</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1317078540409304</v>
+        <v>0.08109061549278378</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.09565459634557819</v>
+        <v>0.2340350960746898</v>
       </c>
       <c r="G148" t="n">
-        <v>0.132250727793875</v>
+        <v>0.03787437543271303</v>
       </c>
       <c r="J148" t="n">
-        <v>0.223451587359826</v>
+        <v>0.2340350960746898</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1332344630367093</v>
+        <v>0.03787437543271303</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3771759456715499</v>
+        <v>0.4939671860797329</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1331435094982136</v>
+        <v>0.08216747035199366</v>
       </c>
       <c r="N148" t="n">
-        <v>0.5280132088905265</v>
+        <v>0.6873004041367243</v>
       </c>
       <c r="O148" t="n">
-        <v>0.133314047382893</v>
+        <v>0.08207952543781773</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.08487387091729348</v>
+        <v>0.2342623991144905</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1338441100564518</v>
+        <v>0.03833069320901078</v>
       </c>
       <c r="J149" t="n">
-        <v>0.2255186941530896</v>
+        <v>0.2342623991144905</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1348396975311275</v>
+        <v>0.03833069320901078</v>
       </c>
       <c r="L149" t="n">
-        <v>0.3772661087861133</v>
+        <v>0.4926712114128172</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1347476481668668</v>
+        <v>0.08315743987430685</v>
       </c>
       <c r="N149" t="n">
-        <v>0.5290020793025465</v>
+        <v>0.6902979869802792</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1349202407248555</v>
+        <v>0.08306843538285168</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.08411649709723493</v>
+        <v>0.2344730683172004</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1354374923190286</v>
+        <v>0.03878701098530852</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2259449086311742</v>
+        <v>0.2344730683172004</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1364449320255457</v>
+        <v>0.03878701098530852</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3782546216241219</v>
+        <v>0.490267210756181</v>
       </c>
       <c r="M150" t="n">
-        <v>0.13635178683552</v>
+        <v>0.08414740939662002</v>
       </c>
       <c r="N150" t="n">
-        <v>0.5339307556307189</v>
+        <v>0.6836490386520264</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1365264340668181</v>
+        <v>0.08405734532788563</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0973807270500375</v>
+        <v>0.2346673753869893</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1370308745816054</v>
+        <v>0.03924332876160627</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2249260419555638</v>
+        <v>0.2346673753869893</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1380501665199639</v>
+        <v>0.03924332876160627</v>
       </c>
       <c r="L151" t="n">
-        <v>0.3815344801362823</v>
+        <v>0.4894579725416334</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1379559255041732</v>
+        <v>0.08513737891893319</v>
       </c>
       <c r="N151" t="n">
-        <v>0.5316893722296427</v>
+        <v>0.6868461811215718</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1381326274087807</v>
+        <v>0.08504625527291958</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.08666481294033604</v>
+        <v>0.2348455920280276</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1386242568441822</v>
+        <v>0.03969964653790402</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2270579052877426</v>
+        <v>0.2348455920280276</v>
       </c>
       <c r="K152" t="n">
-        <v>0.139655401014382</v>
+        <v>0.03969964653790402</v>
       </c>
       <c r="L152" t="n">
-        <v>0.3774986802733016</v>
+        <v>0.4939435192614432</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1395600641728263</v>
+        <v>0.08612734844124638</v>
       </c>
       <c r="N152" t="n">
-        <v>0.535768063453917</v>
+        <v>0.6862910031067972</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1397388207507432</v>
+        <v>0.08603516521795351</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0909670069327656</v>
+        <v>0.2350079899444854</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1402176391067591</v>
+        <v>0.04015596431420176</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2290363097891947</v>
+        <v>0.2350079899444854</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1412606355088002</v>
+        <v>0.04015596431420176</v>
       </c>
       <c r="L153" t="n">
-        <v>0.3835402179858862</v>
+        <v>0.490023873407879</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1411642028414795</v>
+        <v>0.08711731796355955</v>
       </c>
       <c r="N153" t="n">
-        <v>0.5368569636581404</v>
+        <v>0.6855850933255838</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1413450140927058</v>
+        <v>0.08702407516298748</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.09830481605181265</v>
+        <v>0.2351548408405325</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1418110213693358</v>
+        <v>0.04061228209049952</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2279570666214041</v>
+        <v>0.2351548408405325</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1428658700032184</v>
+        <v>0.04061228209049952</v>
       </c>
       <c r="L154" t="n">
-        <v>0.380152089224743</v>
+        <v>0.4892990574732097</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1427683415101327</v>
+        <v>0.08810728748587272</v>
       </c>
       <c r="N154" t="n">
-        <v>0.5356462071969117</v>
+        <v>0.686630040495813</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1429512074346684</v>
+        <v>0.08801298510802143</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.08788966767205408</v>
+        <v>0.2352864164203393</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1434044036319126</v>
+        <v>0.04106859986679726</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2284220034572406</v>
+        <v>0.2352864164203393</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1444711044976366</v>
+        <v>0.04106859986679726</v>
       </c>
       <c r="L155" t="n">
-        <v>0.3848567970407781</v>
+        <v>0.4929690939497041</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1443724801787859</v>
+        <v>0.08909725700818591</v>
       </c>
       <c r="N155" t="n">
-        <v>0.5408189148715481</v>
+        <v>0.6838274333353667</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1445574007766309</v>
+        <v>0.08900189505305538</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0907387865738663</v>
+        <v>0.2354029883880758</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1449977858944894</v>
+        <v>0.04152491764309501</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2297330456376523</v>
+        <v>0.2354029883880758</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1460763389920548</v>
+        <v>0.04152491764309501</v>
       </c>
       <c r="L156" t="n">
-        <v>0.3851690010993862</v>
+        <v>0.491634005329631</v>
       </c>
       <c r="M156" t="n">
-        <v>0.145976618847439</v>
+        <v>0.09008722653049908</v>
       </c>
       <c r="N156" t="n">
-        <v>0.5448711459441102</v>
+        <v>0.6837788605621258</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1461635941185935</v>
+        <v>0.08999080499808931</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1007994098261294</v>
+        <v>0.235504828447912</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1465911681570663</v>
+        <v>0.04198123541939276</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2336480677668982</v>
+        <v>0.235504828447912</v>
       </c>
       <c r="K157" t="n">
-        <v>0.147681573486473</v>
+        <v>0.04198123541939276</v>
       </c>
       <c r="L157" t="n">
-        <v>0.3919761952537408</v>
+        <v>0.4924938141052588</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1475807575160922</v>
+        <v>0.09107719605281225</v>
       </c>
       <c r="N157" t="n">
-        <v>0.5485642360437673</v>
+        <v>0.6830859108939722</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1477697874605561</v>
+        <v>0.09097971494312326</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.09501877449772361</v>
+        <v>0.2355922083040183</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1481845504196431</v>
+        <v>0.0424375531956905</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2368406189203048</v>
+        <v>0.2355922083040183</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1492868079808911</v>
+        <v>0.0424375531956905</v>
       </c>
       <c r="L158" t="n">
-        <v>0.3929669441605541</v>
+        <v>0.4924485427688569</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1491848961847454</v>
+        <v>0.09206716557512544</v>
       </c>
       <c r="N158" t="n">
-        <v>0.5564003651474436</v>
+        <v>0.6816501730487872</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1493759808025186</v>
+        <v>0.09196862488815723</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.103344117657529</v>
+        <v>0.2356653996605646</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1497779326822199</v>
+        <v>0.04289387097198825</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2395842481731992</v>
+        <v>0.2356653996605646</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1508920424753093</v>
+        <v>0.04289387097198825</v>
       </c>
       <c r="L159" t="n">
-        <v>0.4021298124765386</v>
+        <v>0.4887982138126934</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1507890348533986</v>
+        <v>0.09305713509743861</v>
       </c>
       <c r="N159" t="n">
-        <v>0.5570817132320638</v>
+        <v>0.6824732357444518</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1509821741444812</v>
+        <v>0.09295753483319116</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1037226763744257</v>
+        <v>0.235724674221721</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1513713149447967</v>
+        <v>0.04335018874828599</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2404525046009082</v>
+        <v>0.235724674221721</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1524972769697275</v>
+        <v>0.04335018874828599</v>
       </c>
       <c r="L160" t="n">
-        <v>0.4059533648584071</v>
+        <v>0.4927428497290376</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1523931735220518</v>
+        <v>0.09404710461975178</v>
       </c>
       <c r="N160" t="n">
-        <v>0.5646104602745521</v>
+        <v>0.6810566876988482</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1525883674864437</v>
+        <v>0.09394644477822511</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.09310168771729396</v>
+        <v>0.2357703036916576</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1529646972073735</v>
+        <v>0.04380650652458375</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2456189372787588</v>
+        <v>0.2357703036916576</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1541025114641457</v>
+        <v>0.04380650652458375</v>
       </c>
       <c r="L161" t="n">
-        <v>0.4126261659628716</v>
+        <v>0.4888824730101581</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1539973121907049</v>
+        <v>0.09503707414206497</v>
       </c>
       <c r="N161" t="n">
-        <v>0.5720887862518327</v>
+        <v>0.6815021176298575</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1541945608284063</v>
+        <v>0.09493535472325906</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.09942838875501386</v>
+        <v>0.2358025597745447</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1545580794699503</v>
+        <v>0.04426282430088149</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2485570952820778</v>
+        <v>0.2358025597745447</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1557077459585639</v>
+        <v>0.04426282430088149</v>
       </c>
       <c r="L162" t="n">
-        <v>0.4160367804466448</v>
+        <v>0.4897171061483235</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1556014508593581</v>
+        <v>0.09602704366437814</v>
       </c>
       <c r="N162" t="n">
-        <v>0.5812188711408302</v>
+        <v>0.6789111142553612</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1558007541703689</v>
+        <v>0.09592426466829301</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1056500165564656</v>
+        <v>0.2358217141745521</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1561514617325271</v>
+        <v>0.04471914207717924</v>
       </c>
       <c r="J163" t="n">
-        <v>0.252040527686192</v>
+        <v>0.2358217141745521</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1573129804529821</v>
+        <v>0.04471914207717924</v>
       </c>
       <c r="L163" t="n">
-        <v>0.4207737729664393</v>
+        <v>0.492946771635803</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1572055895280113</v>
+        <v>0.09701701318669131</v>
       </c>
       <c r="N163" t="n">
-        <v>0.5927028949184692</v>
+        <v>0.6783852662932408</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1574069475123315</v>
+        <v>0.09691317461332696</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1057143000420665</v>
+        <v>0.2358280385958502</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1577448439951039</v>
+        <v>0.04517545985347698</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2549427835664282</v>
+        <v>0.2358280385958502</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1589182149474002</v>
+        <v>0.04517545985347698</v>
       </c>
       <c r="L164" t="n">
-        <v>0.4259257081789677</v>
+        <v>0.490771491964865</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1588097281966644</v>
+        <v>0.09800698270900449</v>
       </c>
       <c r="N164" t="n">
-        <v>0.5934430375616737</v>
+        <v>0.6824261624613779</v>
       </c>
       <c r="O164" t="n">
-        <v>0.159013140854294</v>
+        <v>0.0979020845583609</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1056827598317496</v>
+        <v>0.2358280385958501</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1593382262576807</v>
+        <v>0.04517545985347698</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2550623729217984</v>
+        <v>0.2358280385958501</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1605234494418184</v>
+        <v>0.04517545985347698</v>
       </c>
       <c r="L165" t="n">
-        <v>0.429641979853166</v>
+        <v>0.4912912896277783</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1604138668653176</v>
+        <v>0.09899695223131767</v>
       </c>
       <c r="N165" t="n">
-        <v>0.5984810165850787</v>
+        <v>0.6778353914776536</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1606193341962566</v>
+        <v>0.09889099450339485</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1066277654860288</v>
+        <v>0.2321685837602165</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1609316085202575</v>
+        <v>0.04517519132501297</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2581340335661398</v>
+        <v>0.2321685837602165</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1621286839362366</v>
+        <v>0.04517519132501297</v>
       </c>
       <c r="L166" t="n">
-        <v>0.432839185300707</v>
+        <v>0.4885061871168119</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1620180055339708</v>
+        <v>0.09998692175363084</v>
       </c>
       <c r="N166" t="n">
-        <v>0.6037327636300753</v>
+        <v>0.6794145420599493</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1622255275382192</v>
+        <v>0.09987990444842881</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1025509908038842</v>
+        <v>0.2285484773442709</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1625249907828343</v>
+        <v>0.04517492279654895</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2602509785790477</v>
+        <v>0.2285484773442709</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1637339184306548</v>
+        <v>0.04517492279654895</v>
       </c>
       <c r="L167" t="n">
-        <v>0.4355452886805823</v>
+        <v>0.4893162069242344</v>
       </c>
       <c r="M167" t="n">
-        <v>0.163622144202624</v>
+        <v>0.100976891275944</v>
       </c>
       <c r="N167" t="n">
-        <v>0.6098551674147801</v>
+        <v>0.6820652029261471</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1638317208801817</v>
+        <v>0.1008688143934627</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1014541095842962</v>
+        <v>0.2249693000509235</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1641183730454111</v>
+        <v>0.04517465426808494</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2619172193644426</v>
+        <v>0.2249693000509235</v>
       </c>
       <c r="K168" t="n">
-        <v>0.165339152925073</v>
+        <v>0.04517465426808494</v>
       </c>
       <c r="L168" t="n">
-        <v>0.4407669973582555</v>
+        <v>0.4899213715423146</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1652262828712772</v>
+        <v>0.1019668607982572</v>
       </c>
       <c r="N168" t="n">
-        <v>0.6144576756866991</v>
+        <v>0.6772889627941279</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1654379142221443</v>
+        <v>0.1018577243384967</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1133387956262445</v>
+        <v>0.2214326325827713</v>
       </c>
       <c r="G169" t="n">
-        <v>0.165711755307988</v>
+        <v>0.04517438573962092</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2638367673262448</v>
+        <v>0.2214326325827713</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1669443874194912</v>
+        <v>0.04517438573962092</v>
       </c>
       <c r="L169" t="n">
-        <v>0.4426110186991905</v>
+        <v>0.4881217034633211</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1668304215399303</v>
+        <v>0.1029568303205704</v>
       </c>
       <c r="N169" t="n">
-        <v>0.6245497361933383</v>
+        <v>0.6746874103817733</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1670441075641069</v>
+        <v>0.1028466342835306</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1112067227287095</v>
+        <v>0.2179400556427212</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1673051375705648</v>
+        <v>0.0451741172111569</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2678136338683753</v>
+        <v>0.2179400556427212</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1685496219139093</v>
+        <v>0.0451741172111569</v>
       </c>
       <c r="L170" t="n">
-        <v>0.4486840600688506</v>
+        <v>0.4907172251795231</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1684345602085835</v>
+        <v>0.1039467998428835</v>
       </c>
       <c r="N170" t="n">
-        <v>0.6275407966822031</v>
+        <v>0.6798621344069646</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1686503009060694</v>
+        <v>0.1038355442285646</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1100595646906714</v>
+        <v>0.2144931499333738</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1688985198331416</v>
+        <v>0.04517384868269288</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2704518303947543</v>
+        <v>0.2144931499333738</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1701548564083275</v>
+        <v>0.04517384868269288</v>
       </c>
       <c r="L171" t="n">
-        <v>0.4524928288327003</v>
+        <v>0.488607959183189</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1700386988772367</v>
+        <v>0.1049367693651967</v>
       </c>
       <c r="N171" t="n">
-        <v>0.6341403049007996</v>
+        <v>0.6754147235875836</v>
       </c>
       <c r="O171" t="n">
-        <v>0.170256494248032</v>
+        <v>0.1048244541735985</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1098989953111101</v>
+        <v>0.2110934961576321</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1704919020957184</v>
+        <v>0.04517358015422887</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2715553683093026</v>
+        <v>0.2110934961576321</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1717600909027457</v>
+        <v>0.04517358015422887</v>
       </c>
       <c r="L172" t="n">
-        <v>0.4554440323562026</v>
+        <v>0.4921939279665878</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1716428375458899</v>
+        <v>0.1059267388875099</v>
       </c>
       <c r="N172" t="n">
-        <v>0.6397577085966335</v>
+        <v>0.6771467666415116</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1718626875899946</v>
+        <v>0.1058133641186325</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1097266883890058</v>
+        <v>0.2077426750181008</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1720852843582952</v>
+        <v>0.04517331162576485</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2720282590159406</v>
+        <v>0.2077426750181008</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1733653253971639</v>
+        <v>0.04517331162576485</v>
       </c>
       <c r="L173" t="n">
-        <v>0.4595443780048214</v>
+        <v>0.4923751540219881</v>
       </c>
       <c r="M173" t="n">
-        <v>0.173246976214543</v>
+        <v>0.1069167084098231</v>
       </c>
       <c r="N173" t="n">
-        <v>0.6413024555172104</v>
+        <v>0.6749598522866302</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1734688809319571</v>
+        <v>0.1068022740636664</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1075443177233387</v>
+        <v>0.2044422672176786</v>
       </c>
       <c r="G174" t="n">
-        <v>0.173678666620872</v>
+        <v>0.04517304309730084</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2744745139185889</v>
+        <v>0.2044422672176786</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1749705598915821</v>
+        <v>0.04517304309730084</v>
       </c>
       <c r="L174" t="n">
-        <v>0.4588005731440207</v>
+        <v>0.4918516598416587</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1748511148831962</v>
+        <v>0.1079066779321362</v>
       </c>
       <c r="N174" t="n">
-        <v>0.6454839934100365</v>
+        <v>0.6732555692408204</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1750750742739197</v>
+        <v>0.1077911840087004</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1173535571130889</v>
+        <v>0.2011938534589746</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1752720488834488</v>
+        <v>0.04517277456883682</v>
       </c>
       <c r="J175" t="n">
-        <v>0.276398144421168</v>
+        <v>0.2011938534589746</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1765757943860003</v>
+        <v>0.04517277456883682</v>
       </c>
       <c r="L175" t="n">
-        <v>0.4627193251392637</v>
+        <v>0.4871234679178685</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1764552535518494</v>
+        <v>0.1088966474544494</v>
       </c>
       <c r="N175" t="n">
-        <v>0.651111770022617</v>
+        <v>0.6691355062219642</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1766812676158823</v>
+        <v>0.1087800939537343</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1151649709690917</v>
+        <v>0.1979990144448829</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1768654311460256</v>
+        <v>0.0451725060403728</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2784031619275986</v>
+        <v>0.1979990144448829</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1781810288804185</v>
+        <v>0.0451725060403728</v>
       </c>
       <c r="L176" t="n">
-        <v>0.4694073413560146</v>
+        <v>0.4907906007428863</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1780593922205026</v>
+        <v>0.1098866169767626</v>
       </c>
       <c r="N176" t="n">
-        <v>0.6588952331024585</v>
+        <v>0.6716012519479428</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1782874609578448</v>
+        <v>0.1097690038987683</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1210226775762971</v>
+        <v>0.1948593308780175</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1784588134086024</v>
+        <v>0.04517223751190878</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2820513966053583</v>
+        <v>0.1948593308780175</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1797862633748366</v>
+        <v>0.04517223751190878</v>
       </c>
       <c r="L177" t="n">
-        <v>0.4728813245051412</v>
+        <v>0.4904530808089804</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1796635308891558</v>
+        <v>0.1108765864990758</v>
       </c>
       <c r="N177" t="n">
-        <v>0.6619644775276556</v>
+        <v>0.6728543951366375</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1798936542998074</v>
+        <v>0.1107579138438022</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1199082531953845</v>
+        <v>0.1917763834612677</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1800521956711792</v>
+        <v>0.04517196898344476</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2821079340806052</v>
+        <v>0.1917763834612677</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1813914978692548</v>
+        <v>0.04517196898344476</v>
       </c>
       <c r="L178" t="n">
-        <v>0.4735320379035027</v>
+        <v>0.4879109306084204</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1812676695578089</v>
+        <v>0.111866556021389</v>
       </c>
       <c r="N178" t="n">
-        <v>0.6642928239782544</v>
+        <v>0.6660965245059303</v>
       </c>
       <c r="O178" t="n">
-        <v>0.18149984764177</v>
+        <v>0.1117468237888362</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1217929449120021</v>
+        <v>0.1887517528972521</v>
       </c>
       <c r="G179" t="n">
-        <v>0.181645577933756</v>
+        <v>0.04517170045498074</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2859061245919359</v>
+        <v>0.1887517528972521</v>
       </c>
       <c r="K179" t="n">
-        <v>0.182996732363673</v>
+        <v>0.04517170045498074</v>
       </c>
       <c r="L179" t="n">
-        <v>0.4760456767876041</v>
+        <v>0.4877641726334744</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1828718082264621</v>
+        <v>0.1128565255437022</v>
       </c>
       <c r="N179" t="n">
-        <v>0.6670275461688013</v>
+        <v>0.6711292287737021</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1831060409837325</v>
+        <v>0.1127357337338701</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1216479998117978</v>
+        <v>0.1857870198888552</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1832389601963328</v>
+        <v>0.04517143192651673</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2885770592950217</v>
+        <v>0.1857870198888552</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1846019668580912</v>
+        <v>0.04517143192651673</v>
       </c>
       <c r="L180" t="n">
-        <v>0.4801070204487488</v>
+        <v>0.4867128293764115</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1844759468951153</v>
+        <v>0.1138464950660153</v>
       </c>
       <c r="N180" t="n">
-        <v>0.6713063484604065</v>
+        <v>0.6644540966578345</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1847122343256951</v>
+        <v>0.1137246436789041</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1154446649804197</v>
+        <v>0.1828837651387007</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1848323424589096</v>
+        <v>0.04517116339805271</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2896518293455341</v>
+        <v>0.1828837651387007</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1862072013525094</v>
+        <v>0.04517116339805271</v>
       </c>
       <c r="L181" t="n">
-        <v>0.4864008481782403</v>
+        <v>0.4881569233295002</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1860800855637685</v>
+        <v>0.1148364645883285</v>
       </c>
       <c r="N181" t="n">
-        <v>0.6776669352141802</v>
+        <v>0.6677727168762093</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1863184276676576</v>
+        <v>0.114713553623938</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1151541875035157</v>
+        <v>0.1800435693496678</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1864257247214864</v>
+        <v>0.0451708948695887</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2914615258991446</v>
+        <v>0.1800435693496678</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1878124358469276</v>
+        <v>0.0451708948695887</v>
       </c>
       <c r="L182" t="n">
-        <v>0.4880119392673824</v>
+        <v>0.4888964769850096</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1876842242324216</v>
+        <v>0.1158264341106417</v>
       </c>
       <c r="N182" t="n">
-        <v>0.6817470107912325</v>
+        <v>0.6661866781467074</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1879246210096202</v>
+        <v>0.115702463568972</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.125747814466734</v>
+        <v>0.1772680132244454</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1880191069840633</v>
+        <v>0.04517062634112468</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2910372401115247</v>
+        <v>0.1772680132244454</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1894176703413457</v>
+        <v>0.04517062634112468</v>
       </c>
       <c r="L183" t="n">
-        <v>0.4906250730074786</v>
+        <v>0.4867315128352083</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1892883629010748</v>
+        <v>0.1168164036329549</v>
       </c>
       <c r="N183" t="n">
-        <v>0.6840842795526734</v>
+        <v>0.6644975691872106</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1895308143515828</v>
+        <v>0.1166913735140059</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1261967929557224</v>
+        <v>0.174558677465728</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1896124892466401</v>
+        <v>0.04517035781266066</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2952100631383455</v>
+        <v>0.174558677465728</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1910229048357639</v>
+        <v>0.04517035781266066</v>
       </c>
       <c r="L184" t="n">
-        <v>0.4900250286898323</v>
+        <v>0.4876620533723649</v>
       </c>
       <c r="M184" t="n">
-        <v>0.190892501569728</v>
+        <v>0.117806373155268</v>
       </c>
       <c r="N184" t="n">
-        <v>0.6928164458596127</v>
+        <v>0.6624069787156004</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1911370076935454</v>
+        <v>0.1176802834590399</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1185257067586556</v>
+        <v>0.1719171427763863</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1912058715092169</v>
+        <v>0.04517008928419665</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2931177865114231</v>
+        <v>0.1719171427763863</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1926281393301821</v>
+        <v>0.04517008928419665</v>
       </c>
       <c r="L185" t="n">
-        <v>0.4937156339749779</v>
+        <v>0.4886881210887485</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1924966402383811</v>
+        <v>0.1187963426775812</v>
       </c>
       <c r="N185" t="n">
-        <v>0.6901897464107276</v>
+        <v>0.6619164954497581</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1927432010355079</v>
+        <v>0.1186691934040738</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1168432439704528</v>
+        <v>0.169344989859058</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1927992537717937</v>
+        <v>0.04516982075573263</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2950769799217133</v>
+        <v>0.169344989859058</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1942333738246003</v>
+        <v>0.04516982075573263</v>
       </c>
       <c r="L186" t="n">
-        <v>0.4970853499532099</v>
+        <v>0.4868097384766278</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1941007789070343</v>
+        <v>0.1197863121998944</v>
       </c>
       <c r="N186" t="n">
-        <v>0.6977774585349632</v>
+        <v>0.6618277081075652</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1943493943774705</v>
+        <v>0.1196581033491078</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1251538912047706</v>
+        <v>0.166843799416608</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1943926360343705</v>
+        <v>0.04516955222726862</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2951199288726039</v>
+        <v>0.166843799416608</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1958386083190185</v>
+        <v>0.04516955222726862</v>
       </c>
       <c r="L187" t="n">
-        <v>0.4981278628393756</v>
+        <v>0.4863079122961246</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1957049175756875</v>
+        <v>0.1207762817222076</v>
       </c>
       <c r="N187" t="n">
-        <v>0.6936269619986855</v>
+        <v>0.6610272377715638</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1959555877194331</v>
+        <v>0.1206470132941417</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1194575426469935</v>
+        <v>0.1644151521516804</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1959860182969473</v>
+        <v>0.0451692836988046</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2962463797702233</v>
+        <v>0.1644151521516804</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1974438428134367</v>
+        <v>0.0451692836988046</v>
       </c>
       <c r="L188" t="n">
-        <v>0.495242748605676</v>
+        <v>0.487245315223222</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1973090562443407</v>
+        <v>0.1217662512445207</v>
       </c>
       <c r="N188" t="n">
-        <v>0.6975376595319827</v>
+        <v>0.6598930422216474</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1975617810613956</v>
+        <v>0.1216359232391757</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1267540924825059</v>
+        <v>0.1620606287671333</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1975794005595241</v>
+        <v>0.04516901517034057</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2977560790206998</v>
+        <v>0.1620606287671333</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1990490773078548</v>
+        <v>0.04516901517034057</v>
       </c>
       <c r="L189" t="n">
-        <v>0.5007295832243115</v>
+        <v>0.4861666154692272</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1989131949129939</v>
+        <v>0.1227562207668339</v>
       </c>
       <c r="N189" t="n">
-        <v>0.6974089538649419</v>
+        <v>0.6616067247680586</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1991679744033582</v>
+        <v>0.1226248331842096</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1270434348966922</v>
+        <v>0.159775355429377</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1991727828221009</v>
+        <v>0.04516874664187655</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2988487730301619</v>
+        <v>0.159775355429377</v>
       </c>
       <c r="K190" t="n">
-        <v>0.200654311802273</v>
+        <v>0.04516874664187655</v>
       </c>
       <c r="L190" t="n">
-        <v>0.502087942667483</v>
+        <v>0.4829921335536016</v>
       </c>
       <c r="M190" t="n">
-        <v>0.200517333581647</v>
+        <v>0.1237461902891471</v>
       </c>
       <c r="N190" t="n">
-        <v>0.7007402477276508</v>
+        <v>0.6556791883302366</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2007741677453208</v>
+        <v>0.1236137431292436</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1283254640749369</v>
+        <v>0.1575221856238204</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2007661650846777</v>
+        <v>0.04516847811341254</v>
       </c>
       <c r="J191" t="n">
-        <v>0.3003242082047378</v>
+        <v>0.1575221856238204</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2022595462966912</v>
+        <v>0.04516847811341254</v>
       </c>
       <c r="L191" t="n">
-        <v>0.5008174029073907</v>
+        <v>0.4819421899958064</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2021214722503002</v>
+        <v>0.1247361598114603</v>
       </c>
       <c r="N191" t="n">
-        <v>0.7015309438501973</v>
+        <v>0.6566213358276214</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2023803610872833</v>
+        <v>0.1246026530742775</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1156000742026244</v>
+        <v>0.1552962455168774</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2023595473472545</v>
+        <v>0.04516820958494852</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2985821309505558</v>
+        <v>0.1552962455168774</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2038647807911094</v>
+        <v>0.04516820958494852</v>
       </c>
       <c r="L192" t="n">
-        <v>0.4994175399162361</v>
+        <v>0.4821371053153034</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2037256109189534</v>
+        <v>0.1257261293337734</v>
       </c>
       <c r="N192" t="n">
-        <v>0.706680444962668</v>
+        <v>0.6515440701796522</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2039865544292459</v>
+        <v>0.1255915630193115</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1178671594651391</v>
+        <v>0.1530991158113975</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2039529296098313</v>
+        <v>0.04516794105648451</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3017222876737443</v>
+        <v>0.1530991158113975</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2054700152855276</v>
+        <v>0.04516794105648451</v>
       </c>
       <c r="L193" t="n">
-        <v>0.5030879296662192</v>
+        <v>0.4808972000315537</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2053297495876066</v>
+        <v>0.1267160988560866</v>
       </c>
       <c r="N193" t="n">
-        <v>0.7022881537951517</v>
+        <v>0.6544582943057689</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2055927477712085</v>
+        <v>0.1265804729643454</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1241266140478655</v>
+        <v>0.1509323772100381</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2055463118724081</v>
+        <v>0.04516767252802049</v>
       </c>
       <c r="J194" t="n">
-        <v>0.3023444247804315</v>
+        <v>0.1509323772100381</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2070752497799458</v>
+        <v>0.04516767252802049</v>
       </c>
       <c r="L194" t="n">
-        <v>0.5056281481295407</v>
+        <v>0.4776427946640186</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2069338882562597</v>
+        <v>0.1277060683783998</v>
       </c>
       <c r="N194" t="n">
-        <v>0.710153473077735</v>
+        <v>0.6520749111254107</v>
       </c>
       <c r="O194" t="n">
-        <v>0.207198941113171</v>
+        <v>0.1275693829093794</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1243783321361878</v>
+        <v>0.1487976104156462</v>
       </c>
       <c r="G195" t="n">
-        <v>0.207139694134985</v>
+        <v>0.04516740399955647</v>
       </c>
       <c r="J195" t="n">
-        <v>0.300948288676746</v>
+        <v>0.1487976104156462</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2086804842743639</v>
+        <v>0.04516740399955647</v>
       </c>
       <c r="L195" t="n">
-        <v>0.5063377712784016</v>
+        <v>0.4741942097321599</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2085380269249129</v>
+        <v>0.128696037900713</v>
       </c>
       <c r="N195" t="n">
-        <v>0.705875805540505</v>
+        <v>0.6464048235580173</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2088051344551336</v>
+        <v>0.1285582928544133</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1186222079154907</v>
+        <v>0.1466963961308818</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2087330763975618</v>
+        <v>0.04516713547109245</v>
       </c>
       <c r="J196" t="n">
-        <v>0.3013336257688158</v>
+        <v>0.1466963961308818</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2102857187687821</v>
+        <v>0.04516713547109245</v>
       </c>
       <c r="L196" t="n">
-        <v>0.5083163750850024</v>
+        <v>0.4756717657554388</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2101421655935661</v>
+        <v>0.1296860074230261</v>
       </c>
       <c r="N196" t="n">
-        <v>0.7094545539135506</v>
+        <v>0.6478589345230281</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2104113277970961</v>
+        <v>0.1295472027994473</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1238581355711585</v>
+        <v>0.1446303150585889</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2103264586601385</v>
+        <v>0.04516686694262844</v>
       </c>
       <c r="J197" t="n">
-        <v>0.3024001824627695</v>
+        <v>0.1446303150585889</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2118909532632003</v>
+        <v>0.04516686694262844</v>
       </c>
       <c r="L197" t="n">
-        <v>0.5083635355215436</v>
+        <v>0.4731957832533167</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2117463042622193</v>
+        <v>0.1306759769453393</v>
       </c>
       <c r="N197" t="n">
-        <v>0.7083891209269579</v>
+        <v>0.642948146939883</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2120175211390587</v>
+        <v>0.1305361127444812</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1240860092885757</v>
+        <v>0.1426009479014743</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2119198409227154</v>
+        <v>0.04516659841416443</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3031477051647353</v>
+        <v>0.1426009479014743</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2134961877576185</v>
+        <v>0.04516659841416443</v>
       </c>
       <c r="L198" t="n">
-        <v>0.5065788285602263</v>
+        <v>0.4670865827452552</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2133504429308724</v>
+        <v>0.1316659464676525</v>
       </c>
       <c r="N198" t="n">
-        <v>0.7129789093108154</v>
+        <v>0.6430833637280211</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2136237144810213</v>
+        <v>0.1315250226895152</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1273057232531266</v>
+        <v>0.1406098753622479</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2135132231852922</v>
+        <v>0.04516632988570041</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3045759402808416</v>
+        <v>0.1406098753622479</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2151014222520367</v>
+        <v>0.04516632988570041</v>
       </c>
       <c r="L199" t="n">
-        <v>0.5061618301732507</v>
+        <v>0.4649644847507154</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2149545815995256</v>
+        <v>0.1326559159899657</v>
       </c>
       <c r="N199" t="n">
-        <v>0.7119233217952103</v>
+        <v>0.6421754878068824</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2152299078229838</v>
+        <v>0.1325139326345491</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1265171716501957</v>
+        <v>0.138658678143749</v>
       </c>
       <c r="G200" t="n">
-        <v>0.215106605447869</v>
+        <v>0.04516606135723639</v>
       </c>
       <c r="J200" t="n">
-        <v>0.3035846342172166</v>
+        <v>0.138658678143749</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2167066567464549</v>
+        <v>0.04516606135723639</v>
       </c>
       <c r="L200" t="n">
-        <v>0.5071121163328178</v>
+        <v>0.4603498097891588</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2165587202681788</v>
+        <v>0.1336458855122789</v>
       </c>
       <c r="N200" t="n">
-        <v>0.7121217611102304</v>
+        <v>0.6386354220959061</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2168361011649464</v>
+        <v>0.1335028425795831</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1207202486651675</v>
+        <v>0.1367489369486457</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2166999877104458</v>
+        <v>0.04516579282877237</v>
       </c>
       <c r="J201" t="n">
-        <v>0.3037735333799887</v>
+        <v>0.1367489369486457</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2183118912408731</v>
+        <v>0.04516579282877237</v>
       </c>
       <c r="L201" t="n">
-        <v>0.5121292630111282</v>
+        <v>0.4625628783800471</v>
       </c>
       <c r="M201" t="n">
-        <v>0.218162858936832</v>
+        <v>0.1346358550345921</v>
       </c>
       <c r="N201" t="n">
-        <v>0.7135736299859625</v>
+        <v>0.6382740695145317</v>
       </c>
       <c r="O201" t="n">
-        <v>0.218442294506909</v>
+        <v>0.134491752524617</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1239148484834262</v>
+        <v>0.1348822324797737</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2182933699730226</v>
+        <v>0.04516552430030835</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3045423841752864</v>
+        <v>0.1348822324797737</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2199171257352913</v>
+        <v>0.04516552430030835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.5104128461803826</v>
+        <v>0.4563240110428414</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2197669976054852</v>
+        <v>0.1356258245569052</v>
       </c>
       <c r="N202" t="n">
-        <v>0.7208783311524949</v>
+        <v>0.630602332982199</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2200484878488715</v>
+        <v>0.135480662469651</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1241008652903565</v>
+        <v>0.1330601454398047</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2198867522355994</v>
+        <v>0.04516525577184433</v>
       </c>
       <c r="J203" t="n">
-        <v>0.3041909330092377</v>
+        <v>0.1330601454398047</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2215223602297094</v>
+        <v>0.04516525577184433</v>
       </c>
       <c r="L203" t="n">
-        <v>0.5124624418127816</v>
+        <v>0.4561535282970033</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2213711362741383</v>
+        <v>0.1366157940792184</v>
       </c>
       <c r="N203" t="n">
-        <v>0.7156352673399149</v>
+        <v>0.6282311154183475</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2216546811908341</v>
+        <v>0.1364695724146849</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1212781932713426</v>
+        <v>0.1312842565315707</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2214801344981762</v>
+        <v>0.04516498724338032</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3071189262879712</v>
+        <v>0.1312842565315707</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2231275947241276</v>
+        <v>0.04516498724338032</v>
       </c>
       <c r="L204" t="n">
-        <v>0.5122776258805258</v>
+        <v>0.4483717506619939</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2229752749427915</v>
+        <v>0.1376057636015316</v>
       </c>
       <c r="N204" t="n">
-        <v>0.7220438412783097</v>
+        <v>0.6280713197424168</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2232608745327967</v>
+        <v>0.1374584823597188</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1184467266117691</v>
+        <v>0.1295561464577473</v>
       </c>
       <c r="G205" t="n">
-        <v>0.223073516760753</v>
+        <v>0.0451647187149163</v>
       </c>
       <c r="J205" t="n">
-        <v>0.3050261104176152</v>
+        <v>0.1295561464577473</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2247328292185458</v>
+        <v>0.0451647187149163</v>
       </c>
       <c r="L205" t="n">
-        <v>0.512057974355816</v>
+        <v>0.4479989986572751</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2245794136114447</v>
+        <v>0.1385957331238447</v>
       </c>
       <c r="N205" t="n">
-        <v>0.7183034556977668</v>
+        <v>0.6278338488738464</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2248670678747592</v>
+        <v>0.1384473923047528</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1296063594970203</v>
+        <v>0.1278773959211624</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2246668990233298</v>
+        <v>0.04516445018645229</v>
       </c>
       <c r="J206" t="n">
-        <v>0.3064122318042979</v>
+        <v>0.1278773959211624</v>
       </c>
       <c r="K206" t="n">
-        <v>0.226338063712964</v>
+        <v>0.04516445018645229</v>
       </c>
       <c r="L206" t="n">
-        <v>0.5156030632108529</v>
+        <v>0.4456555928023078</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2261835522800978</v>
+        <v>0.1395857026461579</v>
       </c>
       <c r="N206" t="n">
-        <v>0.7208135133283742</v>
+        <v>0.6262296057320755</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2264732612167218</v>
+        <v>0.1394363022497868</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1207569861124807</v>
+        <v>0.1262495856244959</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2262602812859066</v>
+        <v>0.04516418165798827</v>
       </c>
       <c r="J207" t="n">
-        <v>0.3068770368541477</v>
+        <v>0.1262495856244959</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2279432982073822</v>
+        <v>0.04516418165798827</v>
       </c>
       <c r="L207" t="n">
-        <v>0.5148124684178371</v>
+        <v>0.4419618536165539</v>
       </c>
       <c r="M207" t="n">
-        <v>0.227787690948751</v>
+        <v>0.1405756721684711</v>
       </c>
       <c r="N207" t="n">
-        <v>0.7188734169002196</v>
+        <v>0.6212694932365441</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2280794545586844</v>
+        <v>0.1404252121948207</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1238985006435347</v>
+        <v>0.1246742962705713</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2278536635484834</v>
+        <v>0.04516391312952425</v>
       </c>
       <c r="J208" t="n">
-        <v>0.307420271973293</v>
+        <v>0.1246742962705713</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2295485327018004</v>
+        <v>0.04516391312952425</v>
       </c>
       <c r="L208" t="n">
-        <v>0.5165857659489692</v>
+        <v>0.4401381016194745</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2293918296174042</v>
+        <v>0.1415656416907843</v>
       </c>
       <c r="N208" t="n">
-        <v>0.7217825691433895</v>
+        <v>0.6208644143066917</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2296856479006469</v>
+        <v>0.1414141221398546</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1240307972755668</v>
+        <v>0.1231531085620729</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2294470458110602</v>
+        <v>0.04516364460106023</v>
       </c>
       <c r="J209" t="n">
-        <v>0.3089416835678619</v>
+        <v>0.1231531085620729</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2311537671962186</v>
+        <v>0.04516364460106023</v>
       </c>
       <c r="L209" t="n">
-        <v>0.5162225317764502</v>
+        <v>0.4346046573305311</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2309959682860574</v>
+        <v>0.1425556112130975</v>
       </c>
       <c r="N209" t="n">
-        <v>0.7217403727879721</v>
+        <v>0.6153252718619575</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2312918412426095</v>
+        <v>0.1424030320848886</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1281537701939612</v>
+        <v>0.1216876032018197</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2310404280736371</v>
+        <v>0.04516337607259622</v>
       </c>
       <c r="J210" t="n">
-        <v>0.3074410180439832</v>
+        <v>0.1216876032018197</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2327590016906367</v>
+        <v>0.04516337607259622</v>
       </c>
       <c r="L210" t="n">
-        <v>0.5177223418724802</v>
+        <v>0.4314818412691851</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2326001069547106</v>
+        <v>0.1435455807354106</v>
       </c>
       <c r="N210" t="n">
-        <v>0.7251462305640552</v>
+        <v>0.6125629688217817</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2328980345845721</v>
+        <v>0.1433919420299226</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1202673135841026</v>
+        <v>0.1202793608925009</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2326338103362139</v>
+        <v>0.0451631075441322</v>
       </c>
       <c r="J211" t="n">
-        <v>0.3070180218077848</v>
+        <v>0.1202793608925009</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2343642361850549</v>
+        <v>0.0451631075441322</v>
       </c>
       <c r="L211" t="n">
-        <v>0.5150847722092605</v>
+        <v>0.4314899739548979</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2342042456233637</v>
+        <v>0.1445355502577238</v>
       </c>
       <c r="N211" t="n">
-        <v>0.7238995452017256</v>
+        <v>0.6117884081056033</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2345042279265346</v>
+        <v>0.1443808519749565</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1223713216313752</v>
+        <v>0.1189299623369302</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2342271925987907</v>
+        <v>0.04516283901566818</v>
       </c>
       <c r="J212" t="n">
-        <v>0.308772441265395</v>
+        <v>0.1189299623369302</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2359694706794731</v>
+        <v>0.04516283901566818</v>
       </c>
       <c r="L212" t="n">
-        <v>0.5159093987589913</v>
+        <v>0.430649375907131</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2358083842920169</v>
+        <v>0.145525519780037</v>
       </c>
       <c r="N212" t="n">
-        <v>0.7288997194310713</v>
+        <v>0.6142124926328618</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2361104212684972</v>
+        <v>0.1453697619199904</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1274656885211636</v>
+        <v>0.117640988237802</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2358205748613675</v>
+        <v>0.04516257048720416</v>
       </c>
       <c r="J213" t="n">
-        <v>0.3100040228229424</v>
+        <v>0.117640988237802</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2375747051738913</v>
+        <v>0.04516257048720416</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5196957974938736</v>
+        <v>0.4254803676453457</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2374125229606701</v>
+        <v>0.1465154893023501</v>
       </c>
       <c r="N213" t="n">
-        <v>0.7249461559821799</v>
+        <v>0.6107461253229971</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2377166146104598</v>
+        <v>0.1463586718650244</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1265503084388522</v>
+        <v>0.1164140192979251</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2374139571239443</v>
+        <v>0.04516230195874014</v>
       </c>
       <c r="J214" t="n">
-        <v>0.3100125128865553</v>
+        <v>0.1164140192979251</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2391799396683095</v>
+        <v>0.04516230195874014</v>
       </c>
       <c r="L214" t="n">
-        <v>0.5203435443861079</v>
+        <v>0.4233032696890034</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2390166616293233</v>
+        <v>0.1475054588246633</v>
       </c>
       <c r="N214" t="n">
-        <v>0.7279382575851387</v>
+        <v>0.6108002090954485</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2393228079524223</v>
+        <v>0.1473475818100583</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1326250755698253</v>
+        <v>0.116414019297925</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2390073393865211</v>
+        <v>0.04516230195874014</v>
       </c>
       <c r="J215" t="n">
-        <v>0.3099976578623618</v>
+        <v>0.116414019297925</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2407851741627277</v>
+        <v>0.04516230195874014</v>
       </c>
       <c r="L215" t="n">
-        <v>0.5188522154078948</v>
+        <v>0.4244384025575658</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2406208002979764</v>
+        <v>0.1484954283469765</v>
       </c>
       <c r="N215" t="n">
-        <v>0.727375426970035</v>
+        <v>0.6103856468696558</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2409290012943849</v>
+        <v>0.1483364917550923</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1226898840994674</v>
+        <v>0.1133829291222435</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2406007216490979</v>
+        <v>0.04514465165267859</v>
       </c>
       <c r="J216" t="n">
-        <v>0.3088592041564905</v>
+        <v>0.1133829291222435</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2423904086571458</v>
+        <v>0.04514465165267859</v>
       </c>
       <c r="L216" t="n">
-        <v>0.519421386531435</v>
+        <v>0.4216060867704939</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2422249389666296</v>
+        <v>0.1494853978692897</v>
       </c>
       <c r="N216" t="n">
-        <v>0.7280570668669568</v>
+        <v>0.6032133415650582</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2425351946363475</v>
+        <v>0.1493254017001262</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.120744628213163</v>
+        <v>0.1103786119969158</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2421941039116747</v>
+        <v>0.04512700134661704</v>
       </c>
       <c r="J217" t="n">
-        <v>0.3099968981750696</v>
+        <v>0.1103786119969158</v>
       </c>
       <c r="K217" t="n">
-        <v>0.243995643151564</v>
+        <v>0.04512700134661704</v>
       </c>
       <c r="L217" t="n">
-        <v>0.5207506337289296</v>
+        <v>0.4215266428472494</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2438290776352828</v>
+        <v>0.1504753673916029</v>
       </c>
       <c r="N217" t="n">
-        <v>0.7302825800059913</v>
+        <v>0.6082941961010953</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2441413879783101</v>
+        <v>0.1503143116451602</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1197892020962964</v>
+        <v>0.1074017203983302</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2437874861742515</v>
+        <v>0.04510935104055549</v>
       </c>
       <c r="J218" t="n">
-        <v>0.3089104863242275</v>
+        <v>0.1074017203983302</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2456008776459822</v>
+        <v>0.04510935104055549</v>
       </c>
       <c r="L218" t="n">
-        <v>0.5200395329725787</v>
+        <v>0.4174203913072936</v>
       </c>
       <c r="M218" t="n">
-        <v>0.245433216303936</v>
+        <v>0.1514653369139161</v>
       </c>
       <c r="N218" t="n">
-        <v>0.7277513691172262</v>
+        <v>0.6024391133972071</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2457475813202726</v>
+        <v>0.1513032215901941</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1308234999342521</v>
+        <v>0.1044529068028751</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2453808684368283</v>
+        <v>0.04509170073449393</v>
       </c>
       <c r="J219" t="n">
-        <v>0.3090997150100925</v>
+        <v>0.1044529068028751</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2472061121404004</v>
+        <v>0.04509170073449393</v>
       </c>
       <c r="L219" t="n">
-        <v>0.5187876602345831</v>
+        <v>0.4155076526700878</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2470373549725892</v>
+        <v>0.1524553064362292</v>
       </c>
       <c r="N219" t="n">
-        <v>0.729362836930749</v>
+        <v>0.6013589963728327</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2473537746622352</v>
+        <v>0.1522921315352281</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1228474159124145</v>
+        <v>0.1015328236869399</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2469742506994051</v>
+        <v>0.04507405042843238</v>
       </c>
       <c r="J220" t="n">
-        <v>0.3103643306387928</v>
+        <v>0.1015328236869399</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2488113466348186</v>
+        <v>0.04507405042843238</v>
       </c>
       <c r="L220" t="n">
-        <v>0.5211945914871438</v>
+        <v>0.4169087474550938</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2486414936412423</v>
+        <v>0.1534452759585424</v>
       </c>
       <c r="N220" t="n">
-        <v>0.730616386176647</v>
+        <v>0.5993647479474118</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2489599680041978</v>
+        <v>0.153281041480262</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1318608442161681</v>
+        <v>0.09864212352691076</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2485676329619819</v>
+        <v>0.04505640012237083</v>
       </c>
       <c r="J221" t="n">
-        <v>0.3101040796164568</v>
+        <v>0.09864212352691076</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2504165811292368</v>
+        <v>0.04505640012237083</v>
       </c>
       <c r="L221" t="n">
-        <v>0.5202599027024613</v>
+        <v>0.4141438793397504</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2502456323098955</v>
+        <v>0.1544352454808556</v>
       </c>
       <c r="N221" t="n">
-        <v>0.7316114195850081</v>
+        <v>0.603866752371836</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2505661613461603</v>
+        <v>0.154269951425296</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1208548188807166</v>
+        <v>0.0957814587991771</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2501610152245587</v>
+        <v>0.04503874981630927</v>
       </c>
       <c r="J222" t="n">
-        <v>0.310418708349213</v>
+        <v>0.0957814587991771</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2520218156236549</v>
+        <v>0.04503874981630927</v>
       </c>
       <c r="L222" t="n">
-        <v>0.5198831698527357</v>
+        <v>0.4163439821172602</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2518497709785487</v>
+        <v>0.1554252150031687</v>
       </c>
       <c r="N222" t="n">
-        <v>0.7292473398859198</v>
+        <v>0.6041597830728243</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2521723546881229</v>
+        <v>0.1552588613703299</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1226172424268697</v>
+        <v>0.09295148198012723</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2517543974871355</v>
+        <v>0.04502109951024772</v>
       </c>
       <c r="J223" t="n">
-        <v>0.3105876752359171</v>
+        <v>0.09295148198012723</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2536270501180731</v>
+        <v>0.04502109951024772</v>
       </c>
       <c r="L223" t="n">
-        <v>0.5196948024651279</v>
+        <v>0.4154446710669624</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2534539096472019</v>
+        <v>0.1564151845254819</v>
       </c>
       <c r="N223" t="n">
-        <v>0.7285094159684025</v>
+        <v>0.6043587485682804</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2537785480300854</v>
+        <v>0.1562477713153639</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1230825669378904</v>
+        <v>0.0901528455461495</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2533477797497123</v>
+        <v>0.04500344920418617</v>
       </c>
       <c r="J224" t="n">
-        <v>0.3087283271531034</v>
+        <v>0.0901528455461495</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2552322846124913</v>
+        <v>0.04500344920418617</v>
       </c>
       <c r="L224" t="n">
-        <v>0.5172891202160456</v>
+        <v>0.4157465176803044</v>
       </c>
       <c r="M224" t="n">
-        <v>0.255058048315855</v>
+        <v>0.1574051540477951</v>
       </c>
       <c r="N224" t="n">
-        <v>0.7253567911906635</v>
+        <v>0.6015637109340326</v>
       </c>
       <c r="O224" t="n">
-        <v>0.255384741372048</v>
+        <v>0.1572366812603978</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1232837794199562</v>
+        <v>0.08738620197363225</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2549411620122892</v>
+        <v>0.04498579889812462</v>
       </c>
       <c r="J225" t="n">
-        <v>0.306817336845473</v>
+        <v>0.08738620197363225</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2568375191069095</v>
+        <v>0.04498579889812462</v>
       </c>
       <c r="L225" t="n">
-        <v>0.5126967114405062</v>
+        <v>0.4175500934487343</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2566621869845082</v>
+        <v>0.1583951235701083</v>
       </c>
       <c r="N225" t="n">
-        <v>0.7178658742899444</v>
+        <v>0.6036747322459082</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2569909347140106</v>
+        <v>0.1582255912054318</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1302538668792451</v>
+        <v>0.08465220373896379</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2565345442748659</v>
+        <v>0.04496814859206306</v>
       </c>
       <c r="J226" t="n">
-        <v>0.3054337605243629</v>
+        <v>0.08465220373896379</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2584427536013277</v>
+        <v>0.04496814859206306</v>
       </c>
       <c r="L226" t="n">
-        <v>0.5101497639989491</v>
+        <v>0.4138559698636997</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2582663256531614</v>
+        <v>0.1593850930924214</v>
       </c>
       <c r="N226" t="n">
-        <v>0.7126228602090305</v>
+        <v>0.6033918745797346</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2585971280559731</v>
+        <v>0.1592145011504657</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1190258163219348</v>
+        <v>0.08195150331853246</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2581279265374428</v>
+        <v>0.04495049828600151</v>
       </c>
       <c r="J227" t="n">
-        <v>0.3008566544011103</v>
+        <v>0.08195150331853246</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2600479880957459</v>
+        <v>0.04495049828600151</v>
       </c>
       <c r="L227" t="n">
-        <v>0.5069804657518127</v>
+        <v>0.4168647184166485</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2598704643218146</v>
+        <v>0.1603750626147346</v>
       </c>
       <c r="N227" t="n">
-        <v>0.7130139438907079</v>
+        <v>0.6022152000113405</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2602033213979357</v>
+        <v>0.1602034110954997</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1186326147542032</v>
+        <v>0.07928475318872658</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2597213088000196</v>
+        <v>0.04493284797993995</v>
       </c>
       <c r="J228" t="n">
-        <v>0.2999650746870524</v>
+        <v>0.07928475318872658</v>
       </c>
       <c r="K228" t="n">
-        <v>0.261653222590164</v>
+        <v>0.04493284797993995</v>
       </c>
       <c r="L228" t="n">
-        <v>0.4985210045595366</v>
+        <v>0.4153769105990286</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2614746029904678</v>
+        <v>0.1613650321370478</v>
       </c>
       <c r="N228" t="n">
-        <v>0.6985253202777615</v>
+        <v>0.6020447706165533</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2618095147398983</v>
+        <v>0.1611923210405336</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1241072491822278</v>
+        <v>0.07665260582593447</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2613146910625964</v>
+        <v>0.04491519767387839</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2957380775935262</v>
+        <v>0.07665260582593447</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2632584570845822</v>
+        <v>0.04491519767387839</v>
       </c>
       <c r="L229" t="n">
-        <v>0.4920035682825598</v>
+        <v>0.4163931179022876</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2630787416591209</v>
+        <v>0.162355001659361</v>
       </c>
       <c r="N229" t="n">
-        <v>0.6915431843129778</v>
+        <v>0.6016806484712001</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2634157080818608</v>
+        <v>0.1621812309855676</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1174827066121867</v>
+        <v>0.07405571370654532</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2629080733251732</v>
+        <v>0.04489754736781685</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2906547193318691</v>
+        <v>0.07405571370654532</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2648636915790004</v>
+        <v>0.04489754736781685</v>
       </c>
       <c r="L230" t="n">
-        <v>0.4896603447813213</v>
+        <v>0.4187139118178735</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2646828803277741</v>
+        <v>0.1633449711816742</v>
       </c>
       <c r="N230" t="n">
-        <v>0.6837537309391419</v>
+        <v>0.6016228956511096</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2650219014238234</v>
+        <v>0.1631701409306015</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1157919740502576</v>
+        <v>0.07149472930694573</v>
       </c>
       <c r="G231" t="n">
-        <v>0.26450145558775</v>
+        <v>0.0448798970617553</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2870940561134182</v>
+        <v>0.07149472930694573</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2664689260734186</v>
+        <v>0.0448798970617553</v>
       </c>
       <c r="L231" t="n">
-        <v>0.4790235219162601</v>
+        <v>0.4145398638372341</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2662870189964273</v>
+        <v>0.1643349407039873</v>
       </c>
       <c r="N231" t="n">
-        <v>0.6776431550990394</v>
+        <v>0.5954715742321091</v>
       </c>
       <c r="O231" t="n">
-        <v>0.266628094765786</v>
+        <v>0.1641590508756355</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1160680385026181</v>
+        <v>0.06897030510352492</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2660948378503268</v>
+        <v>0.04486224675569375</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2841351441495105</v>
+        <v>0.06897030510352492</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2680741605678368</v>
+        <v>0.04486224675569375</v>
       </c>
       <c r="L232" t="n">
-        <v>0.4734252875478155</v>
+        <v>0.414571545451817</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2678911576650805</v>
+        <v>0.1653249102263005</v>
       </c>
       <c r="N232" t="n">
-        <v>0.6625976517354562</v>
+        <v>0.5982267462900264</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2682342881077485</v>
+        <v>0.1651479608206694</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1123438869754462</v>
+        <v>0.06648309357267124</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2676882201129036</v>
+        <v>0.04484459644963219</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2789570396514833</v>
+        <v>0.06648309357267124</v>
       </c>
       <c r="K233" t="n">
-        <v>0.269679395062255</v>
+        <v>0.04484459644963219</v>
       </c>
       <c r="L233" t="n">
-        <v>0.4692978295364263</v>
+        <v>0.4173095281530699</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2694952963337336</v>
+        <v>0.1663148797486137</v>
       </c>
       <c r="N233" t="n">
-        <v>0.6580034157911778</v>
+        <v>0.5952884739006894</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2698404814497111</v>
+        <v>0.1661368707657034</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1046525064749196</v>
+        <v>0.06403374719077298</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2692816023754804</v>
+        <v>0.04482694614357063</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2736387988306738</v>
+        <v>0.06403374719077298</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2712846295566732</v>
+        <v>0.04482694614357063</v>
       </c>
       <c r="L234" t="n">
-        <v>0.4584733357425318</v>
+        <v>0.4154543834324409</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2710994350023868</v>
+        <v>0.1673048492709269</v>
       </c>
       <c r="N234" t="n">
-        <v>0.6484466422089896</v>
+        <v>0.5998568191399258</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2714466747916737</v>
+        <v>0.1671257807107373</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.104026884007216</v>
+        <v>0.06162291843421849</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2708749846380572</v>
+        <v>0.04480929583750908</v>
       </c>
       <c r="J235" t="n">
-        <v>0.271759477898419</v>
+        <v>0.06162291843421849</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2728898640510913</v>
+        <v>0.04480929583750908</v>
       </c>
       <c r="L235" t="n">
-        <v>0.4561839940265711</v>
+        <v>0.4141066827813777</v>
       </c>
       <c r="M235" t="n">
-        <v>0.27270357367104</v>
+        <v>0.16829481879324</v>
       </c>
       <c r="N235" t="n">
-        <v>0.6384135259316777</v>
+        <v>0.5959318440835635</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2730528681336362</v>
+        <v>0.1681146906557713</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1105000065785134</v>
+        <v>0.05925125977939608</v>
       </c>
       <c r="G236" t="n">
-        <v>0.272468366900634</v>
+        <v>0.04479164553144752</v>
       </c>
       <c r="J236" t="n">
-        <v>0.2688981330660561</v>
+        <v>0.05925125977939608</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2744950985455095</v>
+        <v>0.04479164553144752</v>
       </c>
       <c r="L236" t="n">
-        <v>0.4486619922489831</v>
+        <v>0.4144669976913281</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2743077123396931</v>
+        <v>0.1692847883155532</v>
       </c>
       <c r="N236" t="n">
-        <v>0.6269902619020273</v>
+        <v>0.5971136108074302</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2746590614755988</v>
+        <v>0.1691036006008052</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.102100880129298</v>
+        <v>0.05691942370269409</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2740617491632109</v>
+        <v>0.04477399522538597</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2648337520253096</v>
+        <v>0.05691942370269409</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2761003330399277</v>
+        <v>0.04477399522538597</v>
       </c>
       <c r="L237" t="n">
-        <v>0.4402390679755198</v>
+        <v>0.41593589965374</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2759118510083464</v>
+        <v>0.1702747578378664</v>
       </c>
       <c r="N237" t="n">
-        <v>0.621763041764116</v>
+        <v>0.5967021813873534</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2762652548175614</v>
+        <v>0.1700925105458392</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09974362642394788</v>
+        <v>0.05462806268050086</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2756551314257876</v>
+        <v>0.04475634491932442</v>
       </c>
       <c r="J238" t="n">
-        <v>0.2613311429673034</v>
+        <v>0.05462806268050086</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2777055675343459</v>
+        <v>0.04475634491932442</v>
       </c>
       <c r="L238" t="n">
-        <v>0.4378763917059406</v>
+        <v>0.4183139601600609</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2775159896769995</v>
+        <v>0.1712647273601796</v>
       </c>
       <c r="N238" t="n">
-        <v>0.614429627832465</v>
+        <v>0.5990976178991614</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2778714481595239</v>
+        <v>0.1710814204908731</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.09938136198078915</v>
+        <v>0.05237782918920469</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2772485136883645</v>
+        <v>0.04473869461326287</v>
       </c>
       <c r="J239" t="n">
-        <v>0.2592166498625652</v>
+        <v>0.05237782918920469</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2793108020287641</v>
+        <v>0.04473869461326287</v>
       </c>
       <c r="L239" t="n">
-        <v>0.4338938252906253</v>
+        <v>0.4150017507017388</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2791201283456527</v>
+        <v>0.1722546968824928</v>
       </c>
       <c r="N239" t="n">
-        <v>0.6026682478856502</v>
+        <v>0.5959999824186815</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2794776415014865</v>
+        <v>0.172070330435907</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1060140086523809</v>
+        <v>0.050166711426609</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2788418959509413</v>
+        <v>0.04472104430720131</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2557900854239987</v>
+        <v>0.050166711426609</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2809160365231823</v>
+        <v>0.04472104430720131</v>
       </c>
       <c r="L240" t="n">
-        <v>0.4238910555716301</v>
+        <v>0.4162998427702216</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2807242670143059</v>
+        <v>0.1732446664048059</v>
       </c>
       <c r="N240" t="n">
-        <v>0.6014784608209476</v>
+        <v>0.5946093370217418</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2810838348434491</v>
+        <v>0.173059240380941</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1036414882912822</v>
+        <v>0.04797937619758655</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2804352782135181</v>
+        <v>0.04470339400113976</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2506512623645074</v>
+        <v>0.04797937619758655</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2825212710176004</v>
+        <v>0.04470339400113976</v>
       </c>
       <c r="L241" t="n">
-        <v>0.421467769391012</v>
+        <v>0.4193088078569568</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2823284056829591</v>
+        <v>0.1742346359271191</v>
       </c>
       <c r="N241" t="n">
-        <v>0.5902598255356331</v>
+        <v>0.5998257437841699</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2826900281854116</v>
+        <v>0.174048150325975</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1052637227500522</v>
+        <v>0.0458138116999407</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2820286604760949</v>
+        <v>0.04468574369507821</v>
       </c>
       <c r="J242" t="n">
-        <v>0.2477999933969949</v>
+        <v>0.0458138116999407</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2841265055120186</v>
+        <v>0.04468574369507821</v>
       </c>
       <c r="L242" t="n">
-        <v>0.4131236535908275</v>
+        <v>0.4198292174533924</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2839325443516122</v>
+        <v>0.1752246054494323</v>
       </c>
       <c r="N242" t="n">
-        <v>0.5826119009269826</v>
+        <v>0.5942492647817936</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2842962215273742</v>
+        <v>0.1750370602710089</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.10188063388125</v>
+        <v>0.04367067041005984</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2836220427386717</v>
+        <v>0.04466809338901665</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2440360912343652</v>
+        <v>0.04367067041005984</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2857317400064368</v>
+        <v>0.04466809338901665</v>
       </c>
       <c r="L243" t="n">
-        <v>0.4074583950131333</v>
+        <v>0.4150616430509761</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2855366830202654</v>
+        <v>0.1762145749717454</v>
       </c>
       <c r="N243" t="n">
-        <v>0.5728342458922715</v>
+        <v>0.5944799620904406</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2859024148693368</v>
+        <v>0.1760259702160429</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1004921435374347</v>
+        <v>0.04155060480433229</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2852154250012485</v>
+        <v>0.0446504430829551</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2409593685895217</v>
+        <v>0.04155060480433229</v>
       </c>
       <c r="K244" t="n">
-        <v>0.287336974500855</v>
+        <v>0.0446504430829551</v>
       </c>
       <c r="L244" t="n">
-        <v>0.4060716804999861</v>
+        <v>0.415906656141156</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2871408216889186</v>
+        <v>0.1772045444940586</v>
       </c>
       <c r="N244" t="n">
-        <v>0.5687264193287755</v>
+        <v>0.597917897785939</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2875086082112993</v>
+        <v>0.1770148801610768</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09409817357116529</v>
+        <v>0.03945426735914631</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2868088072638253</v>
+        <v>0.04463279277689355</v>
       </c>
       <c r="J245" t="n">
-        <v>0.2385696381753682</v>
+        <v>0.03945426735914631</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2889422089952732</v>
+        <v>0.04463279277689355</v>
       </c>
       <c r="L245" t="n">
-        <v>0.3991631968934424</v>
+        <v>0.4198648282153795</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2887449603575717</v>
+        <v>0.1781945140163718</v>
       </c>
       <c r="N245" t="n">
-        <v>0.5585879801337712</v>
+        <v>0.5970631339441161</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2891148015532619</v>
+        <v>0.1780037901061108</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0986986458350009</v>
+        <v>0.03738231055089028</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2884021895264021</v>
+        <v>0.04461514247083199</v>
       </c>
       <c r="J246" t="n">
-        <v>0.2354667127048082</v>
+        <v>0.03738231055089028</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2905474434896914</v>
+        <v>0.04461514247083199</v>
       </c>
       <c r="L246" t="n">
-        <v>0.3946326310355589</v>
+        <v>0.4155367307650946</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2903490990262249</v>
+        <v>0.179184483538685</v>
       </c>
       <c r="N246" t="n">
-        <v>0.5546184872045337</v>
+        <v>0.5957157326408</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2907209948952245</v>
+        <v>0.1789927000511447</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09429348218150072</v>
+        <v>0.03533538685595256</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2899955717889789</v>
+        <v>0.04459749216477044</v>
       </c>
       <c r="J247" t="n">
-        <v>0.2306504048907455</v>
+        <v>0.03533538685595256</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2921526779841095</v>
+        <v>0.04459749216477044</v>
       </c>
       <c r="L247" t="n">
-        <v>0.3888796697683918</v>
+        <v>0.419722935281749</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2919532376948781</v>
+        <v>0.1801744530609982</v>
       </c>
       <c r="N247" t="n">
-        <v>0.5425174994383388</v>
+        <v>0.5941757559518186</v>
       </c>
       <c r="O247" t="n">
-        <v>0.292327188237187</v>
+        <v>0.1799816099961786</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08888260446322371</v>
+        <v>0.03331414875072142</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2915889540515557</v>
+        <v>0.04457984185870888</v>
       </c>
       <c r="J248" t="n">
-        <v>0.2298205274460837</v>
+        <v>0.03331414875072142</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2937579124785277</v>
+        <v>0.04457984185870888</v>
       </c>
       <c r="L248" t="n">
-        <v>0.3804039999339984</v>
+        <v>0.4198240132567905</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2935573763635312</v>
+        <v>0.1811644225833113</v>
       </c>
       <c r="N248" t="n">
-        <v>0.5371845757324625</v>
+        <v>0.5952432659529991</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2939333815791496</v>
+        <v>0.1809705199412126</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.08446593453272905</v>
+        <v>0.0313192487115852</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2931823363141325</v>
+        <v>0.04456219155264733</v>
       </c>
       <c r="J249" t="n">
-        <v>0.2236768930837265</v>
+        <v>0.0313192487115852</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2953631469729459</v>
+        <v>0.04456219155264733</v>
       </c>
       <c r="L249" t="n">
-        <v>0.3769053083744353</v>
+        <v>0.4187405361816671</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2951615150321844</v>
+        <v>0.1821543921056245</v>
       </c>
       <c r="N249" t="n">
-        <v>0.5320192749841803</v>
+        <v>0.5927183247201697</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2955395749211121</v>
+        <v>0.1819594298862465</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08404339424257579</v>
+        <v>0.02935133921493294</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2947757185767093</v>
+        <v>0.04454454124658578</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2218193145165775</v>
+        <v>0.02935133921493294</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2969683814673641</v>
+        <v>0.04454454124658578</v>
       </c>
       <c r="L250" t="n">
-        <v>0.3714832819317586</v>
+        <v>0.4178730755478264</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2967656537008376</v>
+        <v>0.1831443616279377</v>
       </c>
       <c r="N250" t="n">
-        <v>0.5208211560907685</v>
+        <v>0.5935009943291585</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2971457682630747</v>
+        <v>0.1829483398312805</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.08561490544532299</v>
+        <v>0.0274110727371516</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2963691008392861</v>
+        <v>0.04452689094052423</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2171476044575404</v>
+        <v>0.0274110727371516</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2985736159617823</v>
+        <v>0.04452689094052423</v>
       </c>
       <c r="L251" t="n">
-        <v>0.3662376074480251</v>
+        <v>0.4212222028467161</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2983697923694908</v>
+        <v>0.1841343311502509</v>
       </c>
       <c r="N251" t="n">
-        <v>0.5157897779495024</v>
+        <v>0.5983913368557925</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2987519616050373</v>
+        <v>0.1839372497763145</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.09018038999352987</v>
+        <v>0.02549910175463016</v>
       </c>
       <c r="G252" t="n">
-        <v>0.297962483101863</v>
+        <v>0.04450924063446268</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2138615756195189</v>
+        <v>0.02549910175463016</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3001788504562005</v>
+        <v>0.04450924063446268</v>
       </c>
       <c r="L252" t="n">
-        <v>0.3584679717652919</v>
+        <v>0.4211884895697842</v>
       </c>
       <c r="M252" t="n">
-        <v>0.299973931038144</v>
+        <v>0.185124300672564</v>
       </c>
       <c r="N252" t="n">
-        <v>0.504724699457658</v>
+        <v>0.5987894143758998</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3003581549469998</v>
+        <v>0.1849261597213484</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.08573976973975536</v>
+        <v>0.02361607874375701</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2995558653644398</v>
+        <v>0.04449159032840112</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2111610407154166</v>
+        <v>0.02361607874375701</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3017840849506186</v>
+        <v>0.04449159032840112</v>
       </c>
       <c r="L253" t="n">
-        <v>0.3567740617256152</v>
+        <v>0.4210725072084784</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3015780697067971</v>
+        <v>0.1861142701948772</v>
       </c>
       <c r="N253" t="n">
-        <v>0.4999254795125109</v>
+        <v>0.5938952889653086</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3019643482889624</v>
+        <v>0.1859150696663823</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.08329296653655865</v>
+        <v>0.02176265618092044</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3011492476270166</v>
+        <v>0.04447394002233956</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2081458124581372</v>
+        <v>0.02176265618092044</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3033893194450368</v>
+        <v>0.04447394002233956</v>
       </c>
       <c r="L254" t="n">
-        <v>0.3485555641710517</v>
+        <v>0.4202748272542467</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3031822083754503</v>
+        <v>0.1871042397171904</v>
       </c>
       <c r="N254" t="n">
-        <v>0.4899916770113371</v>
+        <v>0.597709022699846</v>
       </c>
       <c r="O254" t="n">
-        <v>0.303570541630925</v>
+        <v>0.1869039796114163</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.08083990223649887</v>
+        <v>0.01993948654250877</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3027426298895934</v>
+        <v>0.04445628971627801</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2061157035605845</v>
+        <v>0.01993948654250877</v>
       </c>
       <c r="K255" t="n">
-        <v>0.304994553939455</v>
+        <v>0.04445628971627801</v>
       </c>
       <c r="L255" t="n">
-        <v>0.3401121659436581</v>
+        <v>0.4175960211985367</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3047863470441035</v>
+        <v>0.1880942092395036</v>
       </c>
       <c r="N255" t="n">
-        <v>0.4844228508514124</v>
+        <v>0.5941306776553401</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3051767349728875</v>
+        <v>0.1878928895564502</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.07538049869213495</v>
+        <v>0.01814722230491037</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3043360121521702</v>
+        <v>0.04443863941021646</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2025705267356619</v>
+        <v>0.01814722230491037</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3065997884338732</v>
+        <v>0.04443863941021646</v>
       </c>
       <c r="L256" t="n">
-        <v>0.3372435538854909</v>
+        <v>0.4215366605327961</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3063904857127567</v>
+        <v>0.1890841787618168</v>
       </c>
       <c r="N256" t="n">
-        <v>0.4712185599300124</v>
+        <v>0.5929603159076187</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3067829283148501</v>
+        <v>0.1888817995014842</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.07191467775602617</v>
+        <v>0.01638651594451354</v>
       </c>
       <c r="G257" t="n">
-        <v>0.305929394414747</v>
+        <v>0.04442098910415491</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1966100946962732</v>
+        <v>0.01638651594451354</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3082050229282914</v>
+        <v>0.04442098910415491</v>
       </c>
       <c r="L257" t="n">
-        <v>0.3295494148386068</v>
+        <v>0.4225973167484729</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3079946243814098</v>
+        <v>0.1900741482841299</v>
       </c>
       <c r="N257" t="n">
-        <v>0.461378363144413</v>
+        <v>0.5951979995325096</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3083891216568126</v>
+        <v>0.1898707094465181</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.07044236128073145</v>
+        <v>0.0146580199377066</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3075227766773238</v>
+        <v>0.04440333879809335</v>
       </c>
       <c r="J258" t="n">
-        <v>0.194634220155322</v>
+        <v>0.0146580199377066</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3098102574227096</v>
+        <v>0.04440333879809335</v>
       </c>
       <c r="L258" t="n">
-        <v>0.3231294356450626</v>
+        <v>0.4185785613370148</v>
       </c>
       <c r="M258" t="n">
-        <v>0.309598763050063</v>
+        <v>0.1910641178064431</v>
       </c>
       <c r="N258" t="n">
-        <v>0.4593018193918897</v>
+        <v>0.5977437906058405</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3099953149987753</v>
+        <v>0.1908596193915521</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.07896347111881005</v>
+        <v>0.01296238676087791</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3091161589399006</v>
+        <v>0.0443856884920318</v>
       </c>
       <c r="J259" t="n">
-        <v>0.190942715825712</v>
+        <v>0.01296238676087791</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3114154919171278</v>
+        <v>0.0443856884920318</v>
       </c>
       <c r="L259" t="n">
-        <v>0.3193833031469148</v>
+        <v>0.4199809657898697</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3112029017187162</v>
+        <v>0.1920540873287563</v>
       </c>
       <c r="N259" t="n">
-        <v>0.4447884875697188</v>
+        <v>0.5924977512034391</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3116015083407378</v>
+        <v>0.191848529336586</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.07247792912282094</v>
+        <v>0.0113002688904163</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3107095412024775</v>
+        <v>0.04436803818597025</v>
       </c>
       <c r="J260" t="n">
-        <v>0.186635394420347</v>
+        <v>0.0113002688904163</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3130207264115459</v>
+        <v>0.04436803818597025</v>
       </c>
       <c r="L260" t="n">
-        <v>0.3148107041862199</v>
+        <v>0.4232051015984852</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3128070403873694</v>
+        <v>0.1930440568510695</v>
       </c>
       <c r="N260" t="n">
-        <v>0.4371379265751758</v>
+        <v>0.596759943401133</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3132077016827004</v>
+        <v>0.19283743928162</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.06598565714532323</v>
+        <v>0.009672318802709051</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3123029234650542</v>
+        <v>0.04435038787990869</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1826120686521304</v>
+        <v>0.009672318802709051</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3146259609059641</v>
+        <v>0.04435038787990869</v>
       </c>
       <c r="L261" t="n">
-        <v>0.3056113256050347</v>
+        <v>0.4247515402543093</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3144111790560226</v>
+        <v>0.1940340263733826</v>
       </c>
       <c r="N261" t="n">
-        <v>0.4304496953055365</v>
+        <v>0.5920304292747507</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3148138950246629</v>
+        <v>0.1938263492266539</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.07248657703887609</v>
+        <v>0.008079188974145057</v>
       </c>
       <c r="G262" t="n">
-        <v>0.313896305727631</v>
+        <v>0.04433273757384714</v>
       </c>
       <c r="J262" t="n">
-        <v>0.178872551233966</v>
+        <v>0.008079188974145057</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3162311954003823</v>
+        <v>0.04433273757384714</v>
       </c>
       <c r="L262" t="n">
-        <v>0.301184854245416</v>
+        <v>0.4227208532487896</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3160153177246757</v>
+        <v>0.1950239958956958</v>
       </c>
       <c r="N262" t="n">
-        <v>0.4219233526580768</v>
+        <v>0.5979092709001192</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3164200883666255</v>
+        <v>0.1948152591716879</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.07498061065603853</v>
+        <v>0.006521531881112597</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3154896879902078</v>
+        <v>0.04431508726778559</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1773166548787575</v>
+        <v>0.006521531881112597</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3178364298948005</v>
+        <v>0.04431508726778559</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2944309769494199</v>
+        <v>0.4247136120733741</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3176194563933289</v>
+        <v>0.196013965418009</v>
       </c>
       <c r="N263" t="n">
-        <v>0.4184584575300722</v>
+        <v>0.5980965303530668</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3180262817085881</v>
+        <v>0.1958041691167218</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.06346767984936966</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3170830702527846</v>
+        <v>0.04429743696172404</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1727441922994085</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3194416643892187</v>
+        <v>0.04429743696172404</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2888493805591037</v>
+        <v>0.4243303882195105</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3192235950619821</v>
+        <v>0.1970039349403222</v>
       </c>
       <c r="N264" t="n">
-        <v>0.4047545688187987</v>
+        <v>0.5975922697094209</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3196324750505506</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1967930790617557</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0442842790669872</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.0442842790669872</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.007745727626253751</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04428454759545121</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.007745727626253751</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04428454759545121</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.01047933699045536</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04428481612391523</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.01047933699045536</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04428481612391523</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01320072651863302</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04428508465237924</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01320072651863302</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04428508465237924</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01590979463705244</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04428535318084326</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01590979463705244</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04428535318084326</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01860643977174295</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04428562170930728</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01860643977174295</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04428562170930728</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.02129056034896906</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0442858902377713</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.02129056034896906</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.0442858902377713</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.02396205479476129</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04428615876623531</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.02396205479476129</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04428615876623531</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.02662082153538306</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04428642729469933</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.02662082153538306</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04428642729469933</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02926675899686587</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04428669582316334</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02926675899686587</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04428669582316334</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.03189976560547217</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04428696435162736</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.03189976560547217</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04428696435162736</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.03451973978723452</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04428723288009138</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.03451973978723452</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04428723288009138</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.03712657996841418</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0442875014085554</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.03712657996841418</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.0442875014085554</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.03972018457504498</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04428776993701942</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.03972018457504498</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04428776993701942</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.04230045203338692</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04428803846548344</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.04230045203338692</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04428803846548344</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.04486728076947499</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04428830699394745</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.04486728076947499</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04428830699394745</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.04742056920956819</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04428857552241147</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.04742056920956819</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04428857552241147</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0499602157797025</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04428884405087549</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.0499602157797025</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04428884405087549</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.05248611890608088</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0442891125793395</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.05248611890608088</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.0442891125793395</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.05499817701490514</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04428938110780352</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.05499817701490514</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04428938110780352</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.05749628853221314</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04428964963626753</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.05749628853221314</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04428964963626753</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.05998035188426079</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04428991816473155</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.05998035188426079</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04428991816473155</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.06245026549708727</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04429018669319557</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.06245026549708727</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04429018669319557</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.06490592779694726</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04429045522165959</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.06490592779694726</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04429045522165959</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.06734723720988106</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04429072375012361</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.06734723720988106</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04429072375012361</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.06977450692204107</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04429099227858763</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.06977450692204107</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04429099227858763</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.07219012391886184</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04429126080705164</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.07219012391886184</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04429126080705164</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.07459440138649459</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04429152933551566</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.07459440138649459</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04429152933551566</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.07698723775098182</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04429179786397967</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.07698723775098182</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04429179786397967</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.07936853143857497</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04429206639244369</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.07936853143857497</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04429206639244369</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.08173818087531756</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04429233492090771</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.08173818087531756</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04429233492090771</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.08409608448746</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04429260344937173</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.08409608448746</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04429260344937173</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.08644214070104692</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04429287197783574</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.08644214070104692</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04429287197783574</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.08877624794227687</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04429314050629975</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.08877624794227687</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04429314050629975</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.09109830463734753</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04429340903476377</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.09109830463734753</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04429340903476377</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.09340820921230514</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04429367756322779</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.09340820921230514</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04429367756322779</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0957058600933974</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04429394609169181</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.0957058600933974</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04429394609169181</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.09799115570667147</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04429421462015583</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.09799115570667147</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04429421462015583</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.1002639944783741</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04429448314861985</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.1002639944783741</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04429448314861985</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.1025242748345537</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04429475167708386</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.1025242748345537</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04429475167708386</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.1047718952014557</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04429502020554788</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.1047718952014557</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04429502020554788</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.1070067540051295</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0442952887340119</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.1070067540051295</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.0442952887340119</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.1092287496718197</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04429555726247592</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.1092287496718197</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04429555726247592</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.1114377806275768</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04429582579093993</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.1114377806275768</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04429582579093993</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.1136337452986441</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04429609431940395</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.1136337452986441</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04429609431940395</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.1158165421110733</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04429636284786796</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.1158165421110733</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04429636284786796</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.1179860694911065</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04429663137633198</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.1179860694911065</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04429663137633198</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.1201422258647968</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.044296899904796</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.1201422258647968</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.044296899904796</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.1222849096583849</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04429716843326002</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.1222849096583849</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04429716843326002</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.124414019297925</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04429743696172404</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.124414019297925</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04429743696172404</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.1244140192979251</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0442842790669872</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.1244140192979251</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.0442842790669872</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.1271605575892055</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04430246642997678</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.1271605575892055</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04430246642997678</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.1298885975800504</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04432065379296637</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.1298885975800504</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04432065379296637</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.1325978594121089</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04433884115595596</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.1325978594121089</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04433884115595596</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.1352880632270294</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04435702851894554</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.1352880632270294</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04435702851894554</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.1379589291664626</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04437521588193513</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.1379589291664626</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04437521588193513</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.140610177372057</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04439340324492472</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.140610177372057</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04439340324492472</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.1432415279854617</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04441159060791431</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.1432415279854617</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04441159060791431</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.1458527011483258</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0444297779709039</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.1458527011483258</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.0444297779709039</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.1484434170022987</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04444796533389348</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.1484434170022987</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04444796533389348</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.1510133956890284</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04446615269688307</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.1510133956890284</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04446615269688307</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1535623573501662</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04448434005987265</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1535623573501662</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04448434005987265</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.15609002212736</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04450252742286225</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.15609002212736</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04450252742286225</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1585961101622592</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04452071478585183</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.1585961101622592</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04452071478585183</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1610803415965129</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04453890214884142</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.1610803415965129</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04453890214884142</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1635424365717703</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04455708951183101</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1635424365717703</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04455708951183101</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1659821152296798</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04457527687482059</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1659821152296798</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04457527687482059</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1683990977118922</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04459346423781018</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1683990977118922</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04459346423781018</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1707931041600558</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04461165160079977</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1707931041600558</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04461165160079977</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1731638547158197</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04462983896378936</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1731638547158197</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04462983896378936</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1755110695208333</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04464802632677894</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1755110695208333</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04464802632677894</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1778344687167456</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04466621368976854</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.1778344687167456</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04466621368976854</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1801337724452052</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04468440105275812</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1801337724452052</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04468440105275812</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1824087008478625</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04470258841574771</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1824087008478625</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04470258841574771</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1846589740663661</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04472077577873729</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1846589740663661</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04472077577873729</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1868854549972978</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04473896314172689</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1868854549972978</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04473896314172689</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1890947203119018</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04475715050471647</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1890947203119018</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04475715050471647</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1912876329067599</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04477533786770607</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1912876329067599</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04477533786770607</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1934639129235206</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04479352523069564</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1934639129235206</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04479352523069564</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1956232805038343</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04481171259368524</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1956232805038343</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04481171259368524</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1977654557893498</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04482989995667482</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1977654557893498</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04482989995667482</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.199890158921716</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04484808731966441</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.199890158921716</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04484808731966441</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.2019971100425821</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.044866274682654</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.2019971100425821</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.044866274682654</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.2040860292935974</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04488446204564359</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.2040860292935974</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04488446204564359</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.2061566368164103</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04490264940863317</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.2061566368164103</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04490264940863317</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.2082086527526715</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04492083677162276</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.2082086527526715</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04492083677162276</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.2102417972440292</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04493902413461235</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.2102417972440292</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04493902413461235</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.2122557904321329</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04495721149760194</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.2122557904321329</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04495721149760194</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.2142503524586314</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04497539886059152</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.2142503524586314</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04497539886059152</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.2162252034651743</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04499358622358111</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.2162252034651743</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04499358622358111</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.2181800635934099</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04501177358657069</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.2181800635934099</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04501177358657069</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.2201146529849886</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04502996094956029</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.2201146529849886</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04502996094956029</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.222028691781559</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04504814831254987</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.222028691781559</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04504814831254987</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.2239219001247704</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04506633567553946</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.2239219001247704</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04506633567553946</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.2257939981562717</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04508452303852905</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.2257939981562717</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04508452303852905</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.2276447060177123</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04510271040151864</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.2276447060177123</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04510271040151864</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.2294737438507408</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04512089776450822</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.2294737438507408</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04512089776450822</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.2312808317970074</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04513908512749781</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.2312808317970074</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04513908512749781</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.2330656899981608</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0451572724904874</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.2330656899981608</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0451572724904874</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.2348280385958501</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04517545985347698</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.2348280385958501</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04517545985347698</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.2348280385958501</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04517545985347698</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.2348280385958501</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04517545985347698</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.2306615380789965</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04835588620213609</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.2306615380789965</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04835588620213609</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.2269681731491889</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05153631255079518</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.2269681731491889</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05153631255079518</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.22372147817144</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05471673889945428</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.22372147817144</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05471673889945428</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.2208949875107619</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05789716524811337</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.2208949875107619</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05789716524811337</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.2184622355321671</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06107759159677246</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.2184622355321671</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06107759159677246</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.216396756600668</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06425801794543155</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.216396756600668</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06425801794543155</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.2146720850812771</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06743844429409065</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.2146720850812771</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06743844429409065</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.2132617553390065</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07061887064274976</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.2132617553390065</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07061887064274976</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.2121393017388688</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07379929699140886</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.2121393017388688</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07379929699140886</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.2112782586458763</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07697972334006795</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.2112782586458763</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07697972334006795</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.2106521604250414</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08016014968872705</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.2106521604250414</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08016014968872705</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.2102345414413765</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08334057603738615</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.2102345414413765</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08334057603738615</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.2099989360598939</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08652100238604524</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.2099989360598939</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08652100238604524</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.2099188786456062</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08970142873470432</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.2099188786456062</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08970142873470432</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.2106059925425642</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09288185508336341</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.2106059925425642</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09288185508336341</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.2126628093112592</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09606228143202251</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.2126628093112592</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09606228143202251</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.2156471038074475</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09924270778068162</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.2156471038074475</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09924270778068162</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.2191103552247102</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1024231341293407</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.2191103552247102</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1024231341293407</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.2226040427566278</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1056035604779998</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.2226040427566278</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1056035604779998</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.2256796455967812</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1087839868266589</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.2256796455967812</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1087839868266589</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.2278886429387513</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.111964413175318</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.2278886429387513</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.111964413175318</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.2287825139761188</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1151448395239771</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.2287825139761188</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1151448395239771</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.228384299108347</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1183252658726362</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.228384299108347</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1183252658726362</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.2271486513034536</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1215056922212953</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.2271486513034536</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1215056922212953</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.2251535124244689</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1246861185699544</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.2251535124244689</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1246861185699544</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.2224757866387883</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1278665449186135</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.2224757866387883</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1278665449186135</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.2191923781138069</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1310469712672726</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.2191923781138069</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1310469712672726</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.2153801910169202</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1342273976159317</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.2153801910169202</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1342273976159317</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.2111161295155231</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1374078239645908</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.2111161295155231</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1374078239645908</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.206477097777011</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1405882503132499</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.206477097777011</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1405882503132499</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.2015399999687792</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.143768676661909</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.2015399999687792</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.143768676661909</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1963817402582229</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1469491030105681</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1963817402582229</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1469491030105681</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1910792228127373</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1910792228127373</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1852410697957206</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1533099557078862</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1852410697957206</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1533099557078862</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1751861641085946</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1564903820565454</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1751861641085946</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1564903820565454</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1639562922358591</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1596708084052045</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1639562922358591</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1596708084052045</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1563692836977738</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1628512347538635</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1563692836977738</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1628512347538635</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.1554345804937593</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1660316611025226</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.1554345804937593</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1660316611025226</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1554910661121273</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1692120874511817</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1554910661121273</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1692120874511817</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1556045544251713</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1723925137998408</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1556045544251713</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1723925137998408</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1557789297456913</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1755729401484999</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.1557789297456913</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1755729401484999</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1560180763864875</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.178753366497159</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.1560180763864875</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.178753366497159</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1563258786603599</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1819337928458181</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.1563258786603599</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1819337928458181</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1567062208801086</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1851142191944772</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.1567062208801086</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1851142191944772</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1571629873585336</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1882946455431363</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.1571629873585336</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1882946455431363</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1580052312757112</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1914750718917954</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.1580052312757112</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1914750718917954</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1619837412679309</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1946554982404545</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.1619837412679309</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1946554982404545</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1675662488213661</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1978359245891136</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1675662488213661</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1978359245891136</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1720217326755756</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2010163509377727</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.1720217326755756</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2010163509377727</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1752154040528515</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2041967772864318</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1752154040528515</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2041967772864318</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1780956540740454</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2073772036350909</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1780956540740454</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2073772036350909</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1807495800100529</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.21055762998375</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.1807495800100529</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.21055762998375</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1832642791317701</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2137380563324091</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1832642791317701</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2137380563324091</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1857268487100927</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2169184826810682</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.1857268487100927</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2169184826810682</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1881915389207364</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2200989090297273</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1881915389207364</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2200989090297273</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1903892020309148</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2232793353783864</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1903892020309148</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2232793353783864</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1924729146888202</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2264597617270455</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.1924729146888202</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2264597617270455</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1947380637931682</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2296401880757045</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1947380637931682</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2296401880757045</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1974800362426746</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2328206144243636</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1974800362426746</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2328206144243636</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.2011826652550815</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2360010407730227</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.2011826652550815</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2360010407730227</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.2060656310039701</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2391814671216818</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.2060656310039701</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2391814671216818</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.2119689994034057</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2423618934703409</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.2119689994034057</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2423618934703409</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.218732467959723</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.245542319819</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.218732467959723</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.245542319819</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.2261957341792566</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2487227461676591</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.2261957341792566</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2487227461676591</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.2341984955683408</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2519031725163182</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.2341984955683408</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2519031725163182</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.2425804496333105</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2550835988649773</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.2425804496333105</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2550835988649773</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.2511812938804999</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2582640252136364</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.2511812938804999</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2582640252136364</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.2598407258162437</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2614444515622955</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.2598407258162437</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2614444515622955</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.2683984429468765</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2646248779109546</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.2683984429468765</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2646248779109546</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.2766941427787328</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2678053042596137</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.2766941427787328</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2678053042596137</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.2845675228181471</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2709857306082728</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.2845675228181471</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2709857306082728</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.2918582805714539</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2741661569569319</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.2918582805714539</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2741661569569319</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.2984061135449879</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.277346583305591</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.2984061135449879</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.277346583305591</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.3040507192450835</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2805270096542501</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.3040507192450835</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2805270096542501</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.3086317951780754</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2837074360029092</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.3086317951780754</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2837074360029092</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.3119890388502979</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2868878623515682</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.3119890388502979</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2868878623515682</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.3144373847944668</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2900682887002273</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.3144373847944668</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2900682887002273</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.3141045149002427</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2932487150488864</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.3141045149002427</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2932487150488864</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.3060267256042265</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2964291413975455</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.3060267256042265</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2964291413975455</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.2893652962974164</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2996095677462046</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.2893652962974164</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2996095677462046</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.2670785289789244</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3027899940948637</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.2670785289789244</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3027899940948637</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.2421247256478629</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3059704204435228</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.2421247256478629</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3059704204435228</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.2174621883033442</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3091508467921819</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.2174621883033442</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3091508467921819</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.1960492189444805</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.312331273140841</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.1960492189444805</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.312331273140841</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1808441195703841</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3155116994895001</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1808441195703841</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3155116994895001</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1726551066512728</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3186921258381592</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.1726551066512728</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3186921258381592</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1653898230411543</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3218725521868183</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.1653898230411543</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3218725521868183</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.158457416624224</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3250529785354774</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.158457416624224</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3250529785354774</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1519011029739659</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3282334048841365</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.1519011029739659</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3282334048841365</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1457640976638638</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3314138312327956</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.1457640976638638</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3314138312327956</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1400896162674019</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3345942575814547</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.1400896162674019</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3345942575814547</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.1349208743580641</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3377746839301138</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.1349208743580641</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3377746839301138</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.1303010875093343</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3409551102787729</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.1303010875093343</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3409551102787729</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.1262734712946967</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.344135536627432</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.1262734712946967</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.344135536627432</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.1228812412876351</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3473159629760911</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.1228812412876351</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3473159629760911</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.1201676130616336</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3504963893247502</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.1201676130616336</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3504963893247502</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1181758021901761</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3536768156734093</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.1181758021901761</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3536768156734093</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1169490242467467</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3568572420220684</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.1169490242467467</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3568572420220684</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1165304948048294</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3600376683707274</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.1165304948048294</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3600376683707274</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
